--- a/Data/Albatross_LWR_data/Albatross_LWR_Data.xlsx
+++ b/Data/Albatross_LWR_data/Albatross_LWR_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Data\Albatross_LWR_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\AlbatrossPhillipinesLWR\Data\Albatross_LWR_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86949CDF-02F6-46D6-B8A5-0FBBA1795FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA482EB-7833-4C64-9E23-4B7022568BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Siganus fuscescens" sheetId="1" r:id="rId1"/>
@@ -224,18 +224,6 @@
     <t>Mahinog_Camiguin</t>
   </si>
   <si>
-    <t>Cayugan_de_Jolo</t>
-  </si>
-  <si>
-    <t>Point_Jamelo_Luzon</t>
-  </si>
-  <si>
-    <t>Sacol_Island</t>
-  </si>
-  <si>
-    <t>Man_Mansalay_Mindoro</t>
-  </si>
-  <si>
     <t>Luoc_Lubong_Island</t>
   </si>
   <si>
@@ -270,6 +258,18 @@
   </si>
   <si>
     <t>Port_Uson_Busuanga_Island</t>
+  </si>
+  <si>
+    <t>Cagayan_de_Jolo</t>
+  </si>
+  <si>
+    <t>Jamelo_Cove_Luzon</t>
+  </si>
+  <si>
+    <t>Mansalay_Mindoro</t>
+  </si>
+  <si>
+    <t>Sacol_Island_Zamboanga</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -2902,7 +2902,7 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
@@ -2973,7 +2973,7 @@
         <v>136752</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3010,7 +3010,7 @@
         <v>136752</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3047,7 +3047,7 @@
         <v>136752</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3084,7 +3084,7 @@
         <v>136752</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3121,7 +3121,7 @@
         <v>136752</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3158,7 +3158,7 @@
         <v>136752</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3195,7 +3195,7 @@
         <v>136752</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3232,7 +3232,7 @@
         <v>136752</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3269,7 +3269,7 @@
         <v>136752</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3306,7 +3306,7 @@
         <v>136752</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3343,7 +3343,7 @@
         <v>136752</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3380,7 +3380,7 @@
         <v>136752</v>
       </c>
       <c r="K13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3417,7 +3417,7 @@
         <v>136752</v>
       </c>
       <c r="K14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3454,7 +3454,7 @@
         <v>136752</v>
       </c>
       <c r="K15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3491,7 +3491,7 @@
         <v>136752</v>
       </c>
       <c r="K16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3528,7 +3528,7 @@
         <v>136752</v>
       </c>
       <c r="K17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3565,7 +3565,7 @@
         <v>136752</v>
       </c>
       <c r="K18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3602,7 +3602,7 @@
         <v>136752</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3639,7 +3639,7 @@
         <v>136752</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3676,7 +3676,7 @@
         <v>136752</v>
       </c>
       <c r="K21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3713,7 +3713,7 @@
         <v>136752</v>
       </c>
       <c r="K22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3750,7 +3750,7 @@
         <v>136752</v>
       </c>
       <c r="K23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3787,7 +3787,7 @@
         <v>136752</v>
       </c>
       <c r="K24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3824,7 +3824,7 @@
         <v>136726</v>
       </c>
       <c r="K25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3861,7 +3861,7 @@
         <v>136726</v>
       </c>
       <c r="K26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3898,7 +3898,7 @@
         <v>136726</v>
       </c>
       <c r="K27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3935,7 +3935,7 @@
         <v>136726</v>
       </c>
       <c r="K28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3972,7 +3972,7 @@
         <v>136726</v>
       </c>
       <c r="K29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4009,7 +4009,7 @@
         <v>136726</v>
       </c>
       <c r="K30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -4046,7 +4046,7 @@
         <v>136726</v>
       </c>
       <c r="K31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4083,7 +4083,7 @@
         <v>136726</v>
       </c>
       <c r="K32" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -4120,7 +4120,7 @@
         <v>136726</v>
       </c>
       <c r="K33" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4157,7 +4157,7 @@
         <v>136726</v>
       </c>
       <c r="K34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4194,7 +4194,7 @@
         <v>136726</v>
       </c>
       <c r="K35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4231,7 +4231,7 @@
         <v>136726</v>
       </c>
       <c r="K36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -4268,7 +4268,7 @@
         <v>136726</v>
       </c>
       <c r="K37" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4305,7 +4305,7 @@
         <v>136726</v>
       </c>
       <c r="K38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -4342,7 +4342,7 @@
         <v>136726</v>
       </c>
       <c r="K39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -4379,7 +4379,7 @@
         <v>136726</v>
       </c>
       <c r="K40" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -4416,7 +4416,7 @@
         <v>136726</v>
       </c>
       <c r="K41" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -4453,7 +4453,7 @@
         <v>136726</v>
       </c>
       <c r="K42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -4490,7 +4490,7 @@
         <v>136726</v>
       </c>
       <c r="K43" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -4527,7 +4527,7 @@
         <v>136726</v>
       </c>
       <c r="K44" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -4564,7 +4564,7 @@
         <v>136726</v>
       </c>
       <c r="K45" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -4601,7 +4601,7 @@
         <v>136726</v>
       </c>
       <c r="K46" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -4638,7 +4638,7 @@
         <v>136726</v>
       </c>
       <c r="K47" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -4675,7 +4675,7 @@
         <v>136726</v>
       </c>
       <c r="K48" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4691,7 +4691,7 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -4762,7 +4762,7 @@
         <v>149423</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4799,7 +4799,7 @@
         <v>149427</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4836,7 +4836,7 @@
         <v>149427</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4873,7 +4873,7 @@
         <v>149429</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4910,7 +4910,7 @@
         <v>149429</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4947,7 +4947,7 @@
         <v>149429</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4984,7 +4984,7 @@
         <v>149429</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5021,7 +5021,7 @@
         <v>149429</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5058,7 +5058,7 @@
         <v>149429</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5095,7 +5095,7 @@
         <v>149429</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5132,7 +5132,7 @@
         <v>149429</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5148,7 +5148,7 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -5219,7 +5219,7 @@
         <v>136831</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5256,7 +5256,7 @@
         <v>136831</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5293,7 +5293,7 @@
         <v>136831</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5330,7 +5330,7 @@
         <v>136831</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5367,7 +5367,7 @@
         <v>136831</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5404,7 +5404,7 @@
         <v>136831</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5441,7 +5441,7 @@
         <v>136831</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5478,7 +5478,7 @@
         <v>136831</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5515,7 +5515,7 @@
         <v>136831</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5552,7 +5552,7 @@
         <v>136831</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5589,7 +5589,7 @@
         <v>136831</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5626,7 +5626,7 @@
         <v>136831</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5663,7 +5663,7 @@
         <v>136831</v>
       </c>
       <c r="K14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5700,7 +5700,7 @@
         <v>136831</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5737,7 +5737,7 @@
         <v>136831</v>
       </c>
       <c r="K16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5774,7 +5774,7 @@
         <v>136831</v>
       </c>
       <c r="K17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5811,7 +5811,7 @@
         <v>136831</v>
       </c>
       <c r="K18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5848,7 +5848,7 @@
         <v>136831</v>
       </c>
       <c r="K19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -5885,7 +5885,7 @@
         <v>136831</v>
       </c>
       <c r="K20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -5922,7 +5922,7 @@
         <v>136831</v>
       </c>
       <c r="K21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -5959,7 +5959,7 @@
         <v>136831</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -5996,7 +5996,7 @@
         <v>136831</v>
       </c>
       <c r="K23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -6033,7 +6033,7 @@
         <v>136831</v>
       </c>
       <c r="K24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -6070,7 +6070,7 @@
         <v>136831</v>
       </c>
       <c r="K25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -6107,7 +6107,7 @@
         <v>136831</v>
       </c>
       <c r="K26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -6144,7 +6144,7 @@
         <v>136831</v>
       </c>
       <c r="K27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -6181,7 +6181,7 @@
         <v>136831</v>
       </c>
       <c r="K28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -6218,7 +6218,7 @@
         <v>136831</v>
       </c>
       <c r="K29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -6255,7 +6255,7 @@
         <v>136831</v>
       </c>
       <c r="K30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -6292,7 +6292,7 @@
         <v>136831</v>
       </c>
       <c r="K31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -6329,7 +6329,7 @@
         <v>136831</v>
       </c>
       <c r="K32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -6366,7 +6366,7 @@
         <v>136831</v>
       </c>
       <c r="K33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -6403,7 +6403,7 @@
         <v>136831</v>
       </c>
       <c r="K34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -6440,7 +6440,7 @@
         <v>136831</v>
       </c>
       <c r="K35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -6477,7 +6477,7 @@
         <v>136831</v>
       </c>
       <c r="K36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -6514,7 +6514,7 @@
         <v>136831</v>
       </c>
       <c r="K37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -6551,7 +6551,7 @@
         <v>136831</v>
       </c>
       <c r="K38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -6588,7 +6588,7 @@
         <v>136846</v>
       </c>
       <c r="K39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -6625,7 +6625,7 @@
         <v>136846</v>
       </c>
       <c r="K40" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -6662,7 +6662,7 @@
         <v>136846</v>
       </c>
       <c r="K41" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -6699,7 +6699,7 @@
         <v>136846</v>
       </c>
       <c r="K42" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -6958,7 +6958,7 @@
         <v>136851</v>
       </c>
       <c r="K49" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -6995,7 +6995,7 @@
         <v>136851</v>
       </c>
       <c r="K50" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -7032,7 +7032,7 @@
         <v>136851</v>
       </c>
       <c r="K51" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -7069,7 +7069,7 @@
         <v>136851</v>
       </c>
       <c r="K52" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -7106,7 +7106,7 @@
         <v>136851</v>
       </c>
       <c r="K53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -7143,7 +7143,7 @@
         <v>136851</v>
       </c>
       <c r="K54" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -7180,7 +7180,7 @@
         <v>136851</v>
       </c>
       <c r="K55" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -7217,7 +7217,7 @@
         <v>136851</v>
       </c>
       <c r="K56" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -7254,7 +7254,7 @@
         <v>136851</v>
       </c>
       <c r="K57" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -7291,7 +7291,7 @@
         <v>136851</v>
       </c>
       <c r="K58" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -7328,7 +7328,7 @@
         <v>136851</v>
       </c>
       <c r="K59" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -7365,7 +7365,7 @@
         <v>136851</v>
       </c>
       <c r="K60" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -7402,7 +7402,7 @@
         <v>136851</v>
       </c>
       <c r="K61" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -7439,7 +7439,7 @@
         <v>136851</v>
       </c>
       <c r="K62" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -7476,7 +7476,7 @@
         <v>136851</v>
       </c>
       <c r="K63" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -7513,7 +7513,7 @@
         <v>136851</v>
       </c>
       <c r="K64" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -7550,7 +7550,7 @@
         <v>136851</v>
       </c>
       <c r="K65" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -7587,7 +7587,7 @@
         <v>136813</v>
       </c>
       <c r="K66" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -7624,7 +7624,7 @@
         <v>136813</v>
       </c>
       <c r="K67" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -7661,7 +7661,7 @@
         <v>136813</v>
       </c>
       <c r="K68" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -7698,7 +7698,7 @@
         <v>136813</v>
       </c>
       <c r="K69" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -7735,7 +7735,7 @@
         <v>136813</v>
       </c>
       <c r="K70" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -7772,7 +7772,7 @@
         <v>136813</v>
       </c>
       <c r="K71" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -7809,7 +7809,7 @@
         <v>136813</v>
       </c>
       <c r="K72" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -7846,7 +7846,7 @@
         <v>136813</v>
       </c>
       <c r="K73" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -7883,7 +7883,7 @@
         <v>136813</v>
       </c>
       <c r="K74" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -7920,7 +7920,7 @@
         <v>136813</v>
       </c>
       <c r="K75" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -7957,7 +7957,7 @@
         <v>136813</v>
       </c>
       <c r="K76" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -7994,7 +7994,7 @@
         <v>136813</v>
       </c>
       <c r="K77" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -8031,7 +8031,7 @@
         <v>136813</v>
       </c>
       <c r="K78" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -8068,7 +8068,7 @@
         <v>136813</v>
       </c>
       <c r="K79" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -8105,7 +8105,7 @@
         <v>136813</v>
       </c>
       <c r="K80" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -8142,7 +8142,7 @@
         <v>136813</v>
       </c>
       <c r="K81" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -8179,7 +8179,7 @@
         <v>136813</v>
       </c>
       <c r="K82" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -8216,7 +8216,7 @@
         <v>136813</v>
       </c>
       <c r="K83" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -8253,7 +8253,7 @@
         <v>136813</v>
       </c>
       <c r="K84" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -8290,7 +8290,7 @@
         <v>136813</v>
       </c>
       <c r="K85" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -8327,7 +8327,7 @@
         <v>136813</v>
       </c>
       <c r="K86" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -8364,7 +8364,7 @@
         <v>136813</v>
       </c>
       <c r="K87" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -8401,7 +8401,7 @@
         <v>136813</v>
       </c>
       <c r="K88" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -8438,7 +8438,7 @@
         <v>136813</v>
       </c>
       <c r="K89" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -8475,7 +8475,7 @@
         <v>136813</v>
       </c>
       <c r="K90" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -8512,7 +8512,7 @@
         <v>136813</v>
       </c>
       <c r="K91" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -8549,7 +8549,7 @@
         <v>136813</v>
       </c>
       <c r="K92" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -8586,7 +8586,7 @@
         <v>136813</v>
       </c>
       <c r="K93" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -8623,7 +8623,7 @@
         <v>136813</v>
       </c>
       <c r="K94" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -8660,7 +8660,7 @@
         <v>136813</v>
       </c>
       <c r="K95" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -8697,7 +8697,7 @@
         <v>136813</v>
       </c>
       <c r="K96" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -8734,7 +8734,7 @@
         <v>136813</v>
       </c>
       <c r="K97" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -8771,7 +8771,7 @@
         <v>136813</v>
       </c>
       <c r="K98" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -8808,7 +8808,7 @@
         <v>136813</v>
       </c>
       <c r="K99" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -8845,7 +8845,7 @@
         <v>136813</v>
       </c>
       <c r="K100" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -8882,7 +8882,7 @@
         <v>136813</v>
       </c>
       <c r="K101" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -8919,7 +8919,7 @@
         <v>136813</v>
       </c>
       <c r="K102" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -8956,7 +8956,7 @@
         <v>136813</v>
       </c>
       <c r="K103" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -8993,7 +8993,7 @@
         <v>136813</v>
       </c>
       <c r="K104" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -9030,7 +9030,7 @@
         <v>136813</v>
       </c>
       <c r="K105" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -9067,7 +9067,7 @@
         <v>136813</v>
       </c>
       <c r="K106" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -9104,7 +9104,7 @@
         <v>136813</v>
       </c>
       <c r="K107" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -9141,7 +9141,7 @@
         <v>136813</v>
       </c>
       <c r="K108" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -9178,7 +9178,7 @@
         <v>136813</v>
       </c>
       <c r="K109" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -9215,7 +9215,7 @@
         <v>136813</v>
       </c>
       <c r="K110" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -9252,7 +9252,7 @@
         <v>136813</v>
       </c>
       <c r="K111" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -9289,7 +9289,7 @@
         <v>136813</v>
       </c>
       <c r="K112" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -9326,7 +9326,7 @@
         <v>136813</v>
       </c>
       <c r="K113" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -9363,7 +9363,7 @@
         <v>136813</v>
       </c>
       <c r="K114" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -9400,7 +9400,7 @@
         <v>136813</v>
       </c>
       <c r="K115" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -9437,7 +9437,7 @@
         <v>136813</v>
       </c>
       <c r="K116" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -9474,7 +9474,7 @@
         <v>136813</v>
       </c>
       <c r="K117" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -9511,7 +9511,7 @@
         <v>136813</v>
       </c>
       <c r="K118" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -9548,7 +9548,7 @@
         <v>136813</v>
       </c>
       <c r="K119" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -9585,7 +9585,7 @@
         <v>136813</v>
       </c>
       <c r="K120" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -9622,7 +9622,7 @@
         <v>136813</v>
       </c>
       <c r="K121" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -9659,7 +9659,7 @@
         <v>136813</v>
       </c>
       <c r="K122" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -9696,7 +9696,7 @@
         <v>136813</v>
       </c>
       <c r="K123" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -9733,7 +9733,7 @@
         <v>136813</v>
       </c>
       <c r="K124" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -9770,7 +9770,7 @@
         <v>136813</v>
       </c>
       <c r="K125" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -9807,7 +9807,7 @@
         <v>136813</v>
       </c>
       <c r="K126" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -9819,11 +9819,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE6BE8A-C972-4BB0-9407-89D9814EAFC6}">
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
@@ -12558,7 +12558,7 @@
         <v>136804</v>
       </c>
       <c r="K74" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -12595,7 +12595,7 @@
         <v>136804</v>
       </c>
       <c r="K75" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -12632,7 +12632,7 @@
         <v>136804</v>
       </c>
       <c r="K76" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -12669,7 +12669,7 @@
         <v>136804</v>
       </c>
       <c r="K77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -12706,7 +12706,7 @@
         <v>136804</v>
       </c>
       <c r="K78" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -12743,7 +12743,7 @@
         <v>136804</v>
       </c>
       <c r="K79" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -12780,7 +12780,7 @@
         <v>136804</v>
       </c>
       <c r="K80" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -12817,7 +12817,7 @@
         <v>136804</v>
       </c>
       <c r="K81" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -12854,7 +12854,7 @@
         <v>136804</v>
       </c>
       <c r="K82" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -12891,7 +12891,7 @@
         <v>136804</v>
       </c>
       <c r="K83" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -12928,7 +12928,7 @@
         <v>136804</v>
       </c>
       <c r="K84" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -12965,7 +12965,7 @@
         <v>136804</v>
       </c>
       <c r="K85" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -13002,7 +13002,7 @@
         <v>136804</v>
       </c>
       <c r="K86" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -13039,7 +13039,7 @@
         <v>136804</v>
       </c>
       <c r="K87" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -13076,7 +13076,7 @@
         <v>136804</v>
       </c>
       <c r="K88" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -13113,7 +13113,7 @@
         <v>136804</v>
       </c>
       <c r="K89" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -13150,7 +13150,7 @@
         <v>136804</v>
       </c>
       <c r="K90" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -13187,7 +13187,7 @@
         <v>136804</v>
       </c>
       <c r="K91" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -13224,7 +13224,7 @@
         <v>136804</v>
       </c>
       <c r="K92" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -13261,7 +13261,7 @@
         <v>136804</v>
       </c>
       <c r="K93" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -13298,7 +13298,7 @@
         <v>136804</v>
       </c>
       <c r="K94" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -13335,7 +13335,7 @@
         <v>136804</v>
       </c>
       <c r="K95" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -13372,7 +13372,7 @@
         <v>136804</v>
       </c>
       <c r="K96" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -13409,7 +13409,7 @@
         <v>136804</v>
       </c>
       <c r="K97" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -13446,7 +13446,7 @@
         <v>136804</v>
       </c>
       <c r="K98" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -13483,7 +13483,7 @@
         <v>136804</v>
       </c>
       <c r="K99" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -13520,7 +13520,7 @@
         <v>136804</v>
       </c>
       <c r="K100" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -13557,7 +13557,7 @@
         <v>136804</v>
       </c>
       <c r="K101" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -13594,7 +13594,7 @@
         <v>136818</v>
       </c>
       <c r="K102" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -13631,7 +13631,7 @@
         <v>136818</v>
       </c>
       <c r="K103" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -13668,7 +13668,7 @@
         <v>136818</v>
       </c>
       <c r="K104" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -13705,7 +13705,7 @@
         <v>136818</v>
       </c>
       <c r="K105" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -13742,7 +13742,7 @@
         <v>136818</v>
       </c>
       <c r="K106" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -13779,7 +13779,7 @@
         <v>136818</v>
       </c>
       <c r="K107" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -13816,7 +13816,7 @@
         <v>136818</v>
       </c>
       <c r="K108" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -13853,7 +13853,7 @@
         <v>136818</v>
       </c>
       <c r="K109" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -13890,7 +13890,7 @@
         <v>136818</v>
       </c>
       <c r="K110" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -13927,7 +13927,7 @@
         <v>136818</v>
       </c>
       <c r="K111" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -13964,7 +13964,7 @@
         <v>136818</v>
       </c>
       <c r="K112" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -14001,7 +14001,7 @@
         <v>136818</v>
       </c>
       <c r="K113" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -14038,7 +14038,7 @@
         <v>136818</v>
       </c>
       <c r="K114" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -14075,7 +14075,7 @@
         <v>136818</v>
       </c>
       <c r="K115" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -14112,7 +14112,7 @@
         <v>136818</v>
       </c>
       <c r="K116" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -14149,7 +14149,7 @@
         <v>136818</v>
       </c>
       <c r="K117" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -14186,7 +14186,7 @@
         <v>136818</v>
       </c>
       <c r="K118" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -14223,7 +14223,7 @@
         <v>136818</v>
       </c>
       <c r="K119" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -14260,7 +14260,7 @@
         <v>136818</v>
       </c>
       <c r="K120" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -14297,7 +14297,7 @@
         <v>136818</v>
       </c>
       <c r="K121" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -14334,7 +14334,7 @@
         <v>136818</v>
       </c>
       <c r="K122" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -14371,7 +14371,7 @@
         <v>136818</v>
       </c>
       <c r="K123" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -14408,7 +14408,7 @@
         <v>136818</v>
       </c>
       <c r="K124" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -14445,7 +14445,7 @@
         <v>136818</v>
       </c>
       <c r="K125" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -14461,7 +14461,7 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -16583,7 +16583,7 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
@@ -20037,7 +20037,7 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -21937,7 +21937,7 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -23319,7 +23319,7 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -25108,7 +25108,7 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -26153,11 +26153,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8345A7CE-F776-4B70-8487-E937D9ED1AC0}">
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -26214,11 +26214,11 @@
         <v>63.5</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:H17" si="0">E2/10</f>
+        <f>E2/10</f>
         <v>5.4700000000000006</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" si="0"/>
+        <f>F2/10</f>
         <v>6.35</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -26228,7 +26228,7 @@
         <v>138978</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -26251,11 +26251,11 @@
         <v>55.5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="0"/>
+        <f>E3/10</f>
         <v>5</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" si="0"/>
+        <f>F3/10</f>
         <v>5.55</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -26265,7 +26265,7 @@
         <v>138978</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -26288,11 +26288,11 @@
         <v>55.9</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f>E4/10</f>
         <v>4.82</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f>F4/10</f>
         <v>5.59</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -26302,7 +26302,7 @@
         <v>138978</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -26325,11 +26325,11 @@
         <v>47.8</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f>E5/10</f>
         <v>4.1899999999999995</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="0"/>
+        <f>F5/10</f>
         <v>4.7799999999999994</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -26339,7 +26339,7 @@
         <v>138978</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -26362,11 +26362,11 @@
         <v>59.7</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f>E6/10</f>
         <v>5.2</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="0"/>
+        <f>F6/10</f>
         <v>5.9700000000000006</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -26376,7 +26376,7 @@
         <v>138978</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -26399,11 +26399,11 @@
         <v>52</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f>E7/10</f>
         <v>4.7799999999999994</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="0"/>
+        <f>F7/10</f>
         <v>5.2</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -26413,7 +26413,7 @@
         <v>138978</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -26436,11 +26436,11 @@
         <v>56.9</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f>E8/10</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="0"/>
+        <f>F8/10</f>
         <v>5.6899999999999995</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -26450,7 +26450,7 @@
         <v>138978</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -26473,11 +26473,11 @@
         <v>47</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
+        <f>E9/10</f>
         <v>4.12</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="0"/>
+        <f>F9/10</f>
         <v>4.7</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -26487,7 +26487,7 @@
         <v>138978</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -26510,11 +26510,11 @@
         <v>58</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
+        <f>E10/10</f>
         <v>5</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="0"/>
+        <f>F10/10</f>
         <v>5.8</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -26524,7 +26524,7 @@
         <v>138978</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -26547,11 +26547,11 @@
         <v>52.2</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
+        <f>E11/10</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="0"/>
+        <f>F11/10</f>
         <v>5.2200000000000006</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -26561,7 +26561,7 @@
         <v>138978</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -26584,11 +26584,11 @@
         <v>50</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
+        <f>E12/10</f>
         <v>4.46</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="0"/>
+        <f>F12/10</f>
         <v>5</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -26598,7 +26598,7 @@
         <v>138978</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -26621,11 +26621,11 @@
         <v>55.4</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
+        <f>E13/10</f>
         <v>4.88</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="0"/>
+        <f>F13/10</f>
         <v>5.54</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -26635,7 +26635,7 @@
         <v>138978</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -26658,11 +26658,11 @@
         <v>54.3</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
+        <f>E14/10</f>
         <v>4.8</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="0"/>
+        <f>F14/10</f>
         <v>5.43</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -26672,7 +26672,7 @@
         <v>138978</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -26695,11 +26695,11 @@
         <v>45.3</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="0"/>
+        <f>E15/10</f>
         <v>4.1500000000000004</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="0"/>
+        <f>F15/10</f>
         <v>4.5299999999999994</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -26709,7 +26709,7 @@
         <v>138978</v>
       </c>
       <c r="K15" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -26732,11 +26732,11 @@
         <v>57</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="0"/>
+        <f>E16/10</f>
         <v>4.88</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="0"/>
+        <f>F16/10</f>
         <v>5.7</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -26746,7 +26746,7 @@
         <v>138978</v>
       </c>
       <c r="K16" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -26769,11 +26769,11 @@
         <v>54</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="0"/>
+        <f>E17/10</f>
         <v>4.76</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="0"/>
+        <f>F17/10</f>
         <v>5.4</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -26783,7 +26783,7 @@
         <v>138978</v>
       </c>
       <c r="K17" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -26806,11 +26806,11 @@
         <v>50.7</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" ref="G18:H33" si="1">E18/10</f>
+        <f>E18/10</f>
         <v>4.57</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="1"/>
+        <f>F18/10</f>
         <v>5.07</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -26820,7 +26820,7 @@
         <v>138978</v>
       </c>
       <c r="K18" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -26843,11 +26843,11 @@
         <v>49.8</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="1"/>
+        <f>E19/10</f>
         <v>4.4399999999999995</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="1"/>
+        <f>F19/10</f>
         <v>4.9799999999999995</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -26857,7 +26857,7 @@
         <v>138978</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -26880,11 +26880,11 @@
         <v>56.3</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="1"/>
+        <f>E20/10</f>
         <v>4.74</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="1"/>
+        <f>F20/10</f>
         <v>5.63</v>
       </c>
       <c r="I20" s="3" t="s">
@@ -26894,7 +26894,7 @@
         <v>138978</v>
       </c>
       <c r="K20" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -26917,11 +26917,11 @@
         <v>46.9</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="1"/>
+        <f>E21/10</f>
         <v>4.12</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="1"/>
+        <f>F21/10</f>
         <v>4.6899999999999995</v>
       </c>
       <c r="I21" s="3" t="s">
@@ -26931,7 +26931,7 @@
         <v>138978</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -26954,11 +26954,11 @@
         <v>53</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="1"/>
+        <f>E22/10</f>
         <v>4.74</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="1"/>
+        <f>F22/10</f>
         <v>5.3</v>
       </c>
       <c r="I22" s="3" t="s">
@@ -26968,7 +26968,7 @@
         <v>138978</v>
       </c>
       <c r="K22" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -26991,11 +26991,11 @@
         <v>51.2</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="1"/>
+        <f>E23/10</f>
         <v>4.55</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="1"/>
+        <f>F23/10</f>
         <v>5.12</v>
       </c>
       <c r="I23" s="3" t="s">
@@ -27005,7 +27005,7 @@
         <v>138978</v>
       </c>
       <c r="K23" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -27028,11 +27028,11 @@
         <v>51.8</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="1"/>
+        <f>E24/10</f>
         <v>4.7</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="1"/>
+        <f>F24/10</f>
         <v>5.18</v>
       </c>
       <c r="I24" s="3" t="s">
@@ -27042,7 +27042,7 @@
         <v>138978</v>
       </c>
       <c r="K24" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -27065,11 +27065,11 @@
         <v>32.9</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="1"/>
+        <f>E25/10</f>
         <v>2.96</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="1"/>
+        <f>F25/10</f>
         <v>3.29</v>
       </c>
       <c r="I25" s="3" t="s">
@@ -27079,7 +27079,7 @@
         <v>138978</v>
       </c>
       <c r="K25" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -27102,11 +27102,11 @@
         <v>38.299999999999997</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="1"/>
+        <f>E26/10</f>
         <v>3.35</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="1"/>
+        <f>F26/10</f>
         <v>3.8299999999999996</v>
       </c>
       <c r="I26" s="3" t="s">
@@ -27116,7 +27116,7 @@
         <v>138978</v>
       </c>
       <c r="K26" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -27139,11 +27139,11 @@
         <v>56.4</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="1"/>
+        <f>E27/10</f>
         <v>4.9399999999999995</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="1"/>
+        <f>F27/10</f>
         <v>5.64</v>
       </c>
       <c r="I27" s="3" t="s">
@@ -27153,7 +27153,7 @@
         <v>138978</v>
       </c>
       <c r="K27" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -27176,11 +27176,11 @@
         <v>43.8</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="1"/>
+        <f>E28/10</f>
         <v>4</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="1"/>
+        <f>F28/10</f>
         <v>4.38</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -27190,7 +27190,7 @@
         <v>138978</v>
       </c>
       <c r="K28" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -27213,11 +27213,11 @@
         <v>50.5</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="1"/>
+        <f>E29/10</f>
         <v>4.58</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="1"/>
+        <f>F29/10</f>
         <v>5.05</v>
       </c>
       <c r="I29" s="3" t="s">
@@ -27227,7 +27227,7 @@
         <v>138978</v>
       </c>
       <c r="K29" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -27250,11 +27250,11 @@
         <v>43.6</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="1"/>
+        <f>E30/10</f>
         <v>3.91</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="1"/>
+        <f>F30/10</f>
         <v>4.3600000000000003</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -27264,7 +27264,7 @@
         <v>138978</v>
       </c>
       <c r="K30" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -27287,11 +27287,11 @@
         <v>47.9</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="1"/>
+        <f>E31/10</f>
         <v>4.21</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="1"/>
+        <f>F31/10</f>
         <v>4.79</v>
       </c>
       <c r="I31" s="3" t="s">
@@ -27301,7 +27301,7 @@
         <v>138978</v>
       </c>
       <c r="K31" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -27324,11 +27324,11 @@
         <v>49.2</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="1"/>
+        <f>E32/10</f>
         <v>4.46</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="1"/>
+        <f>F32/10</f>
         <v>4.92</v>
       </c>
       <c r="I32" s="3" t="s">
@@ -27338,7 +27338,7 @@
         <v>138978</v>
       </c>
       <c r="K32" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -27361,11 +27361,11 @@
         <v>49.5</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="1"/>
+        <f>E33/10</f>
         <v>4.45</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="1"/>
+        <f>F33/10</f>
         <v>4.95</v>
       </c>
       <c r="I33" s="3" t="s">
@@ -27375,7 +27375,7 @@
         <v>138978</v>
       </c>
       <c r="K33" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -27398,11 +27398,11 @@
         <v>54.6</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" ref="G34:H49" si="2">E34/10</f>
+        <f>E34/10</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="2"/>
+        <f>F34/10</f>
         <v>5.46</v>
       </c>
       <c r="I34" s="3" t="s">
@@ -27412,7 +27412,7 @@
         <v>138978</v>
       </c>
       <c r="K34" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -27435,11 +27435,11 @@
         <v>49.6</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="2"/>
+        <f>E35/10</f>
         <v>4.3499999999999996</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="2"/>
+        <f>F35/10</f>
         <v>4.96</v>
       </c>
       <c r="I35" s="3" t="s">
@@ -27449,7 +27449,7 @@
         <v>138978</v>
       </c>
       <c r="K35" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -27472,11 +27472,11 @@
         <v>42.8</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="2"/>
+        <f>E36/10</f>
         <v>3.87</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="2"/>
+        <f>F36/10</f>
         <v>4.2799999999999994</v>
       </c>
       <c r="I36" s="3" t="s">
@@ -27486,7 +27486,7 @@
         <v>138978</v>
       </c>
       <c r="K36" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -27509,11 +27509,11 @@
         <v>49.9</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="2"/>
+        <f>E37/10</f>
         <v>4.41</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="2"/>
+        <f>F37/10</f>
         <v>4.99</v>
       </c>
       <c r="I37" s="3" t="s">
@@ -27523,7 +27523,7 @@
         <v>138978</v>
       </c>
       <c r="K37" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -27546,11 +27546,11 @@
         <v>47.1</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="2"/>
+        <f>E38/10</f>
         <v>4.2</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="2"/>
+        <f>F38/10</f>
         <v>4.71</v>
       </c>
       <c r="I38" s="3" t="s">
@@ -27560,7 +27560,7 @@
         <v>138978</v>
       </c>
       <c r="K38" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -27583,11 +27583,11 @@
         <v>45.7</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="2"/>
+        <f>E39/10</f>
         <v>3.95</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="2"/>
+        <f>F39/10</f>
         <v>4.57</v>
       </c>
       <c r="I39" s="3" t="s">
@@ -27597,7 +27597,7 @@
         <v>138978</v>
       </c>
       <c r="K39" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -27620,11 +27620,11 @@
         <v>44.6</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="2"/>
+        <f>E40/10</f>
         <v>4</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="2"/>
+        <f>F40/10</f>
         <v>4.46</v>
       </c>
       <c r="I40" s="3" t="s">
@@ -27634,7 +27634,7 @@
         <v>138979</v>
       </c>
       <c r="K40" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -27657,11 +27657,11 @@
         <v>49</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="2"/>
+        <f>E41/10</f>
         <v>4.25</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="2"/>
+        <f>F41/10</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="I41" s="3" t="s">
@@ -27671,7 +27671,7 @@
         <v>138979</v>
       </c>
       <c r="K41" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -27694,11 +27694,11 @@
         <v>53.1</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="2"/>
+        <f>E42/10</f>
         <v>4.55</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="2"/>
+        <f>F42/10</f>
         <v>5.3100000000000005</v>
       </c>
       <c r="I42" s="3" t="s">
@@ -27708,7 +27708,7 @@
         <v>138979</v>
       </c>
       <c r="K42" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -27731,11 +27731,11 @@
         <v>51.9</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="2"/>
+        <f>E43/10</f>
         <v>4.5200000000000005</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" si="2"/>
+        <f>F43/10</f>
         <v>5.1899999999999995</v>
       </c>
       <c r="I43" s="3" t="s">
@@ -27745,7 +27745,7 @@
         <v>138979</v>
       </c>
       <c r="K43" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -27768,11 +27768,11 @@
         <v>59</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="2"/>
+        <f>E44/10</f>
         <v>5.16</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="2"/>
+        <f>F44/10</f>
         <v>5.9</v>
       </c>
       <c r="I44" s="3" t="s">
@@ -27782,7 +27782,7 @@
         <v>138979</v>
       </c>
       <c r="K44" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -27805,11 +27805,11 @@
         <v>45</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="2"/>
+        <f>E45/10</f>
         <v>3.9200000000000004</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="2"/>
+        <f>F45/10</f>
         <v>4.5</v>
       </c>
       <c r="I45" s="3" t="s">
@@ -27819,7 +27819,7 @@
         <v>138979</v>
       </c>
       <c r="K45" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -27842,11 +27842,11 @@
         <v>49.4</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="2"/>
+        <f>E46/10</f>
         <v>4.25</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" si="2"/>
+        <f>F46/10</f>
         <v>4.9399999999999995</v>
       </c>
       <c r="I46" s="3" t="s">
@@ -27856,7 +27856,7 @@
         <v>138979</v>
       </c>
       <c r="K46" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -27879,11 +27879,11 @@
         <v>56</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="2"/>
+        <f>E47/10</f>
         <v>4.8100000000000005</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="2"/>
+        <f>F47/10</f>
         <v>5.6</v>
       </c>
       <c r="I47" s="3" t="s">
@@ -27893,7 +27893,7 @@
         <v>138979</v>
       </c>
       <c r="K47" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -27916,11 +27916,11 @@
         <v>50.3</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="2"/>
+        <f>E48/10</f>
         <v>4.38</v>
       </c>
       <c r="H48" s="2">
-        <f t="shared" si="2"/>
+        <f>F48/10</f>
         <v>5.0299999999999994</v>
       </c>
       <c r="I48" s="3" t="s">
@@ -27930,7 +27930,7 @@
         <v>138979</v>
       </c>
       <c r="K48" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -27953,11 +27953,11 @@
         <v>55.2</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="2"/>
+        <f>E49/10</f>
         <v>4.75</v>
       </c>
       <c r="H49" s="2">
-        <f t="shared" si="2"/>
+        <f>F49/10</f>
         <v>5.5200000000000005</v>
       </c>
       <c r="I49" s="3" t="s">
@@ -27967,7 +27967,7 @@
         <v>138979</v>
       </c>
       <c r="K49" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -27990,11 +27990,11 @@
         <v>49.6</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" ref="G50:H63" si="3">E50/10</f>
+        <f>E50/10</f>
         <v>4.32</v>
       </c>
       <c r="H50" s="2">
-        <f t="shared" si="3"/>
+        <f>F50/10</f>
         <v>4.96</v>
       </c>
       <c r="I50" s="3" t="s">
@@ -28004,7 +28004,7 @@
         <v>138979</v>
       </c>
       <c r="K50" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -28027,11 +28027,11 @@
         <v>49.7</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="3"/>
+        <f>E51/10</f>
         <v>4.43</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="3"/>
+        <f>F51/10</f>
         <v>4.9700000000000006</v>
       </c>
       <c r="I51" s="3" t="s">
@@ -28041,7 +28041,7 @@
         <v>138979</v>
       </c>
       <c r="K51" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -28064,11 +28064,11 @@
         <v>58.7</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="3"/>
+        <f>E52/10</f>
         <v>5.2299999999999995</v>
       </c>
       <c r="H52" s="2">
-        <f t="shared" si="3"/>
+        <f>F52/10</f>
         <v>5.87</v>
       </c>
       <c r="I52" s="3" t="s">
@@ -28078,7 +28078,7 @@
         <v>138979</v>
       </c>
       <c r="K52" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -28101,11 +28101,11 @@
         <v>50.5</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="3"/>
+        <f>E53/10</f>
         <v>4.33</v>
       </c>
       <c r="H53" s="2">
-        <f t="shared" si="3"/>
+        <f>F53/10</f>
         <v>5.05</v>
       </c>
       <c r="I53" s="3" t="s">
@@ -28115,7 +28115,7 @@
         <v>138979</v>
       </c>
       <c r="K53" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -28138,11 +28138,11 @@
         <v>57.4</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="3"/>
+        <f>E54/10</f>
         <v>5.07</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="3"/>
+        <f>F54/10</f>
         <v>5.74</v>
       </c>
       <c r="I54" s="3" t="s">
@@ -28152,7 +28152,7 @@
         <v>138979</v>
       </c>
       <c r="K54" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -28175,11 +28175,11 @@
         <v>51.3</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="3"/>
+        <f>E55/10</f>
         <v>4.42</v>
       </c>
       <c r="H55" s="2">
-        <f t="shared" si="3"/>
+        <f>F55/10</f>
         <v>5.13</v>
       </c>
       <c r="I55" s="3" t="s">
@@ -28189,7 +28189,7 @@
         <v>138979</v>
       </c>
       <c r="K55" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -28212,11 +28212,11 @@
         <v>48.4</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="3"/>
+        <f>E56/10</f>
         <v>4.2200000000000006</v>
       </c>
       <c r="H56" s="2">
-        <f t="shared" si="3"/>
+        <f>F56/10</f>
         <v>4.84</v>
       </c>
       <c r="I56" s="3" t="s">
@@ -28226,7 +28226,7 @@
         <v>138979</v>
       </c>
       <c r="K56" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -28249,11 +28249,11 @@
         <v>45.5</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="3"/>
+        <f>E57/10</f>
         <v>3.96</v>
       </c>
       <c r="H57" s="2">
-        <f t="shared" si="3"/>
+        <f>F57/10</f>
         <v>4.55</v>
       </c>
       <c r="I57" s="3" t="s">
@@ -28263,7 +28263,7 @@
         <v>138979</v>
       </c>
       <c r="K57" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -28286,11 +28286,11 @@
         <v>53.8</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="3"/>
+        <f>E58/10</f>
         <v>4.57</v>
       </c>
       <c r="H58" s="2">
-        <f t="shared" si="3"/>
+        <f>F58/10</f>
         <v>5.38</v>
       </c>
       <c r="I58" s="3" t="s">
@@ -28300,7 +28300,7 @@
         <v>138979</v>
       </c>
       <c r="K58" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -28323,11 +28323,11 @@
         <v>54.7</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="3"/>
+        <f>E59/10</f>
         <v>4.76</v>
       </c>
       <c r="H59" s="2">
-        <f t="shared" si="3"/>
+        <f>F59/10</f>
         <v>5.4700000000000006</v>
       </c>
       <c r="I59" s="3" t="s">
@@ -28337,7 +28337,7 @@
         <v>138979</v>
       </c>
       <c r="K59" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -28360,11 +28360,11 @@
         <v>54</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="3"/>
+        <f>E60/10</f>
         <v>4.7299999999999995</v>
       </c>
       <c r="H60" s="2">
-        <f t="shared" si="3"/>
+        <f>F60/10</f>
         <v>5.4</v>
       </c>
       <c r="I60" s="3" t="s">
@@ -28374,7 +28374,7 @@
         <v>138979</v>
       </c>
       <c r="K60" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -28397,11 +28397,11 @@
         <v>51.4</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="3"/>
+        <f>E61/10</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="H61" s="2">
-        <f t="shared" si="3"/>
+        <f>F61/10</f>
         <v>5.14</v>
       </c>
       <c r="I61" s="3" t="s">
@@ -28411,7 +28411,7 @@
         <v>138979</v>
       </c>
       <c r="K61" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -28434,11 +28434,11 @@
         <v>46.1</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="3"/>
+        <f>E62/10</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="3"/>
+        <f>F62/10</f>
         <v>4.6100000000000003</v>
       </c>
       <c r="I62" s="3" t="s">
@@ -28448,7 +28448,7 @@
         <v>138979</v>
       </c>
       <c r="K62" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -28474,7 +28474,7 @@
         <v>4</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="3"/>
+        <f>F63/10</f>
         <v>4.54</v>
       </c>
       <c r="I63" s="3" t="s">
@@ -28484,7 +28484,7 @@
         <v>138979</v>
       </c>
       <c r="K63" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -28507,11 +28507,11 @@
         <v>38.1</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" ref="G64:H79" si="4">E64/10</f>
+        <f>E64/10</f>
         <v>3.35</v>
       </c>
       <c r="H64" s="2">
-        <f t="shared" si="4"/>
+        <f>F64/10</f>
         <v>3.81</v>
       </c>
       <c r="I64" s="3" t="s">
@@ -28521,7 +28521,7 @@
         <v>138979</v>
       </c>
       <c r="K64" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -28544,11 +28544,11 @@
         <v>38.6</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="4"/>
+        <f>E65/10</f>
         <v>3.4299999999999997</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" si="4"/>
+        <f>F65/10</f>
         <v>3.8600000000000003</v>
       </c>
       <c r="I65" s="3" t="s">
@@ -28558,7 +28558,7 @@
         <v>138979</v>
       </c>
       <c r="K65" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -28581,11 +28581,11 @@
         <v>54</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="4"/>
+        <f>E66/10</f>
         <v>4.75</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" si="4"/>
+        <f>F66/10</f>
         <v>5.4</v>
       </c>
       <c r="I66" s="3" t="s">
@@ -28595,7 +28595,7 @@
         <v>138979</v>
       </c>
       <c r="K66" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -28618,11 +28618,11 @@
         <v>43.5</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="4"/>
+        <f>E67/10</f>
         <v>3.8899999999999997</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" si="4"/>
+        <f>F67/10</f>
         <v>4.3499999999999996</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -28632,7 +28632,7 @@
         <v>138979</v>
       </c>
       <c r="K67" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -28655,11 +28655,11 @@
         <v>21</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="4"/>
+        <f>E68/10</f>
         <v>2.0499999999999998</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" si="4"/>
+        <f>F68/10</f>
         <v>2.1</v>
       </c>
       <c r="I68" s="3" t="s">
@@ -28669,7 +28669,7 @@
         <v>150772</v>
       </c>
       <c r="K68" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -28692,11 +28692,11 @@
         <v>20.8</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="4"/>
+        <f>E69/10</f>
         <v>2</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="4"/>
+        <f>F69/10</f>
         <v>2.08</v>
       </c>
       <c r="I69" s="3" t="s">
@@ -28706,7 +28706,7 @@
         <v>150772</v>
       </c>
       <c r="K69" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -28729,11 +28729,11 @@
         <v>18.899999999999999</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="4"/>
+        <f>E70/10</f>
         <v>1.7600000000000002</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="4"/>
+        <f>F70/10</f>
         <v>1.89</v>
       </c>
       <c r="I70" s="3" t="s">
@@ -28743,7 +28743,7 @@
         <v>150772</v>
       </c>
       <c r="K70" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -28766,11 +28766,11 @@
         <v>22</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="4"/>
+        <f>E71/10</f>
         <v>2.06</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="4"/>
+        <f>F71/10</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="I71" s="3" t="s">
@@ -28780,7 +28780,7 @@
         <v>150772</v>
       </c>
       <c r="K71" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -28803,11 +28803,11 @@
         <v>22.9</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="4"/>
+        <f>E72/10</f>
         <v>2.25</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="4"/>
+        <f>F72/10</f>
         <v>2.29</v>
       </c>
       <c r="I72" s="3" t="s">
@@ -28817,7 +28817,7 @@
         <v>150772</v>
       </c>
       <c r="K72" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -28840,11 +28840,11 @@
         <v>22.9</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="4"/>
+        <f>E73/10</f>
         <v>2.19</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="4"/>
+        <f>F73/10</f>
         <v>2.29</v>
       </c>
       <c r="I73" s="3" t="s">
@@ -28854,7 +28854,7 @@
         <v>150772</v>
       </c>
       <c r="K73" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -28877,11 +28877,11 @@
         <v>20.100000000000001</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="4"/>
+        <f>E74/10</f>
         <v>1.89</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="4"/>
+        <f>F74/10</f>
         <v>2.0100000000000002</v>
       </c>
       <c r="I74" s="3" t="s">
@@ -28891,7 +28891,7 @@
         <v>150772</v>
       </c>
       <c r="K74" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -28914,11 +28914,11 @@
         <v>23.5</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="4"/>
+        <f>E75/10</f>
         <v>2</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="4"/>
+        <f>F75/10</f>
         <v>2.35</v>
       </c>
       <c r="I75" s="3" t="s">
@@ -28928,7 +28928,7 @@
         <v>150772</v>
       </c>
       <c r="K75" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -28951,11 +28951,11 @@
         <v>25.3</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="4"/>
+        <f>E76/10</f>
         <v>2.3199999999999998</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="4"/>
+        <f>F76/10</f>
         <v>2.5300000000000002</v>
       </c>
       <c r="I76" s="3" t="s">
@@ -28965,7 +28965,7 @@
         <v>150772</v>
       </c>
       <c r="K76" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -28988,11 +28988,11 @@
         <v>22.3</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="4"/>
+        <f>E77/10</f>
         <v>2.0699999999999998</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="4"/>
+        <f>F77/10</f>
         <v>2.23</v>
       </c>
       <c r="I77" s="3" t="s">
@@ -29002,7 +29002,7 @@
         <v>150772</v>
       </c>
       <c r="K77" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -29025,11 +29025,11 @@
         <v>23.6</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="4"/>
+        <f>E78/10</f>
         <v>2.2399999999999998</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="4"/>
+        <f>F78/10</f>
         <v>2.3600000000000003</v>
       </c>
       <c r="I78" s="3" t="s">
@@ -29039,7 +29039,7 @@
         <v>150772</v>
       </c>
       <c r="K78" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -29062,11 +29062,11 @@
         <v>22.7</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="4"/>
+        <f>E79/10</f>
         <v>2.15</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="4"/>
+        <f>F79/10</f>
         <v>2.27</v>
       </c>
       <c r="I79" s="3" t="s">
@@ -29076,7 +29076,7 @@
         <v>150772</v>
       </c>
       <c r="K79" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -29099,11 +29099,11 @@
         <v>22.2</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" ref="G80:H125" si="5">E80/10</f>
+        <f>E80/10</f>
         <v>2.0699999999999998</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="5"/>
+        <f>F80/10</f>
         <v>2.2199999999999998</v>
       </c>
       <c r="I80" s="3" t="s">
@@ -29113,7 +29113,7 @@
         <v>150772</v>
       </c>
       <c r="K80" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -29136,11 +29136,11 @@
         <v>23.7</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="5"/>
+        <f>E81/10</f>
         <v>2.1399999999999997</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="5"/>
+        <f>F81/10</f>
         <v>2.37</v>
       </c>
       <c r="I81" s="3" t="s">
@@ -29150,7 +29150,7 @@
         <v>150772</v>
       </c>
       <c r="K81" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -29173,11 +29173,11 @@
         <v>23</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="5"/>
+        <f>E82/10</f>
         <v>2.1</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="5"/>
+        <f>F82/10</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="I82" s="3" t="s">
@@ -29187,7 +29187,7 @@
         <v>150772</v>
       </c>
       <c r="K82" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -29210,11 +29210,11 @@
         <v>23.8</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="5"/>
+        <f>E83/10</f>
         <v>2.25</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="5"/>
+        <f>F83/10</f>
         <v>2.38</v>
       </c>
       <c r="I83" s="3" t="s">
@@ -29224,7 +29224,7 @@
         <v>150772</v>
       </c>
       <c r="K83" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -29247,11 +29247,11 @@
         <v>21.6</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="5"/>
+        <f>E84/10</f>
         <v>1.98</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="5"/>
+        <f>F84/10</f>
         <v>2.16</v>
       </c>
       <c r="I84" s="3" t="s">
@@ -29261,7 +29261,7 @@
         <v>150772</v>
       </c>
       <c r="K84" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -29284,11 +29284,11 @@
         <v>23.6</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="5"/>
+        <f>E85/10</f>
         <v>2.23</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="5"/>
+        <f>F85/10</f>
         <v>2.3600000000000003</v>
       </c>
       <c r="I85" s="3" t="s">
@@ -29298,7 +29298,7 @@
         <v>150772</v>
       </c>
       <c r="K85" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -29321,11 +29321,11 @@
         <v>27.9</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="5"/>
+        <f>E86/10</f>
         <v>2.06</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="5"/>
+        <f>F86/10</f>
         <v>2.79</v>
       </c>
       <c r="I86" s="3" t="s">
@@ -29335,7 +29335,7 @@
         <v>150772</v>
       </c>
       <c r="K86" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -29358,11 +29358,11 @@
         <v>23.8</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="5"/>
+        <f>E87/10</f>
         <v>2.21</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="5"/>
+        <f>F87/10</f>
         <v>2.38</v>
       </c>
       <c r="I87" s="3" t="s">
@@ -29372,7 +29372,7 @@
         <v>150772</v>
       </c>
       <c r="K87" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -29395,11 +29395,11 @@
         <v>19.899999999999999</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="5"/>
+        <f>E88/10</f>
         <v>1.86</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="5"/>
+        <f>F88/10</f>
         <v>1.9899999999999998</v>
       </c>
       <c r="I88" s="3" t="s">
@@ -29409,7 +29409,7 @@
         <v>150772</v>
       </c>
       <c r="K88" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -29432,11 +29432,11 @@
         <v>22.7</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="5"/>
+        <f>E89/10</f>
         <v>2.0499999999999998</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="5"/>
+        <f>F89/10</f>
         <v>2.27</v>
       </c>
       <c r="I89" s="3" t="s">
@@ -29446,7 +29446,7 @@
         <v>150772</v>
       </c>
       <c r="K89" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -29469,11 +29469,11 @@
         <v>21.1</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="5"/>
+        <f>E90/10</f>
         <v>1.8800000000000001</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="5"/>
+        <f>F90/10</f>
         <v>2.1100000000000003</v>
       </c>
       <c r="I90" s="3" t="s">
@@ -29483,7 +29483,7 @@
         <v>150772</v>
       </c>
       <c r="K90" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -29506,11 +29506,11 @@
         <v>23.6</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="5"/>
+        <f>E91/10</f>
         <v>2.16</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="5"/>
+        <f>F91/10</f>
         <v>2.3600000000000003</v>
       </c>
       <c r="I91" s="3" t="s">
@@ -29520,7 +29520,7 @@
         <v>150772</v>
       </c>
       <c r="K91" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -29543,11 +29543,11 @@
         <v>22.8</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="5"/>
+        <f>E92/10</f>
         <v>2.16</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="5"/>
+        <f>F92/10</f>
         <v>2.2800000000000002</v>
       </c>
       <c r="I92" s="3" t="s">
@@ -29557,7 +29557,7 @@
         <v>150772</v>
       </c>
       <c r="K92" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -29580,11 +29580,11 @@
         <v>21.4</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="5"/>
+        <f>E93/10</f>
         <v>1.97</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="5"/>
+        <f>F93/10</f>
         <v>2.1399999999999997</v>
       </c>
       <c r="I93" s="3" t="s">
@@ -29594,7 +29594,7 @@
         <v>150772</v>
       </c>
       <c r="K93" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -29617,11 +29617,11 @@
         <v>50.4</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="5"/>
+        <f>E94/10</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="5"/>
+        <f>F94/10</f>
         <v>5.04</v>
       </c>
       <c r="I94" s="3" t="s">
@@ -29631,7 +29631,7 @@
         <v>138969</v>
       </c>
       <c r="K94" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -29654,11 +29654,11 @@
         <v>60</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="5"/>
+        <f>E95/10</f>
         <v>5.34</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="5"/>
+        <f>F95/10</f>
         <v>6</v>
       </c>
       <c r="I95" s="3" t="s">
@@ -29668,7 +29668,7 @@
         <v>138969</v>
       </c>
       <c r="K95" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -29691,11 +29691,11 @@
         <v>56.5</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="5"/>
+        <f>E96/10</f>
         <v>5.15</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="5"/>
+        <f>F96/10</f>
         <v>5.65</v>
       </c>
       <c r="I96" s="3" t="s">
@@ -29705,7 +29705,7 @@
         <v>138969</v>
       </c>
       <c r="K96" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -29728,11 +29728,11 @@
         <v>52.3</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="5"/>
+        <f>E97/10</f>
         <v>4.88</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="5"/>
+        <f>F97/10</f>
         <v>5.2299999999999995</v>
       </c>
       <c r="I97" s="3" t="s">
@@ -29742,7 +29742,7 @@
         <v>138969</v>
       </c>
       <c r="K97" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -29765,11 +29765,11 @@
         <v>57.5</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="5"/>
+        <f>E98/10</f>
         <v>5.26</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="5"/>
+        <f>F98/10</f>
         <v>5.75</v>
       </c>
       <c r="I98" s="3" t="s">
@@ -29779,7 +29779,7 @@
         <v>138969</v>
       </c>
       <c r="K98" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -29802,11 +29802,11 @@
         <v>46.1</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="5"/>
+        <f>E99/10</f>
         <v>4.0200000000000005</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" si="5"/>
+        <f>F99/10</f>
         <v>4.6100000000000003</v>
       </c>
       <c r="I99" s="3" t="s">
@@ -29816,7 +29816,7 @@
         <v>138969</v>
       </c>
       <c r="K99" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -29839,11 +29839,11 @@
         <v>58.9</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="5"/>
+        <f>E100/10</f>
         <v>5.45</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="5"/>
+        <f>F100/10</f>
         <v>5.89</v>
       </c>
       <c r="I100" s="3" t="s">
@@ -29853,7 +29853,7 @@
         <v>138969</v>
       </c>
       <c r="K100" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -29876,11 +29876,11 @@
         <v>60.7</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="5"/>
+        <f>E101/10</f>
         <v>5.4799999999999995</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="5"/>
+        <f>F101/10</f>
         <v>6.07</v>
       </c>
       <c r="I101" s="3" t="s">
@@ -29890,7 +29890,7 @@
         <v>138969</v>
       </c>
       <c r="K101" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -29913,11 +29913,11 @@
         <v>38.4</v>
       </c>
       <c r="G102" s="2">
-        <f t="shared" si="5"/>
+        <f>E102/10</f>
         <v>3.45</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="5"/>
+        <f>F102/10</f>
         <v>3.84</v>
       </c>
       <c r="I102" s="3" t="s">
@@ -29927,7 +29927,7 @@
         <v>138969</v>
       </c>
       <c r="K102" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -29950,11 +29950,11 @@
         <v>52</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" si="5"/>
+        <f>E103/10</f>
         <v>4.68</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="5"/>
+        <f>F103/10</f>
         <v>5.2</v>
       </c>
       <c r="I103" s="3" t="s">
@@ -29964,7 +29964,7 @@
         <v>138969</v>
       </c>
       <c r="K103" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -29987,11 +29987,11 @@
         <v>56</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="5"/>
+        <f>E104/10</f>
         <v>4.93</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="5"/>
+        <f>F104/10</f>
         <v>5.6</v>
       </c>
       <c r="I104" s="3" t="s">
@@ -30001,7 +30001,7 @@
         <v>138969</v>
       </c>
       <c r="K104" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -30024,11 +30024,11 @@
         <v>47.4</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="5"/>
+        <f>E105/10</f>
         <v>4.29</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="5"/>
+        <f>F105/10</f>
         <v>4.74</v>
       </c>
       <c r="I105" s="3" t="s">
@@ -30038,7 +30038,7 @@
         <v>138969</v>
       </c>
       <c r="K105" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -30061,11 +30061,11 @@
         <v>54.4</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="5"/>
+        <f>E106/10</f>
         <v>4.96</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="5"/>
+        <f>F106/10</f>
         <v>5.4399999999999995</v>
       </c>
       <c r="I106" s="3" t="s">
@@ -30075,7 +30075,7 @@
         <v>138969</v>
       </c>
       <c r="K106" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -30098,11 +30098,11 @@
         <v>56.4</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="5"/>
+        <f>E107/10</f>
         <v>4.96</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="5"/>
+        <f>F107/10</f>
         <v>5.64</v>
       </c>
       <c r="I107" s="3" t="s">
@@ -30112,7 +30112,7 @@
         <v>138969</v>
       </c>
       <c r="K107" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -30135,11 +30135,11 @@
         <v>50.3</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="5"/>
+        <f>E108/10</f>
         <v>4.5600000000000005</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="5"/>
+        <f>F108/10</f>
         <v>5.0299999999999994</v>
       </c>
       <c r="I108" s="3" t="s">
@@ -30149,7 +30149,7 @@
         <v>138969</v>
       </c>
       <c r="K108" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -30172,11 +30172,11 @@
         <v>49.8</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="5"/>
+        <f>E109/10</f>
         <v>4.32</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="5"/>
+        <f>F109/10</f>
         <v>4.9799999999999995</v>
       </c>
       <c r="I109" s="3" t="s">
@@ -30186,7 +30186,7 @@
         <v>138969</v>
       </c>
       <c r="K109" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -30209,11 +30209,11 @@
         <v>47.6</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="5"/>
+        <f>E110/10</f>
         <v>4.2299999999999995</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="5"/>
+        <f>F110/10</f>
         <v>4.76</v>
       </c>
       <c r="I110" s="3" t="s">
@@ -30223,7 +30223,7 @@
         <v>138969</v>
       </c>
       <c r="K110" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -30246,11 +30246,11 @@
         <v>56.7</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" si="5"/>
+        <f>E111/10</f>
         <v>5.12</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" si="5"/>
+        <f>F111/10</f>
         <v>5.67</v>
       </c>
       <c r="I111" s="3" t="s">
@@ -30260,7 +30260,7 @@
         <v>138969</v>
       </c>
       <c r="K111" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -30283,11 +30283,11 @@
         <v>53.6</v>
       </c>
       <c r="G112" s="2">
-        <f t="shared" si="5"/>
+        <f>E112/10</f>
         <v>4.87</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" si="5"/>
+        <f>F112/10</f>
         <v>5.36</v>
       </c>
       <c r="I112" s="3" t="s">
@@ -30297,7 +30297,7 @@
         <v>138969</v>
       </c>
       <c r="K112" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -30320,11 +30320,11 @@
         <v>50.8</v>
       </c>
       <c r="G113" s="2">
-        <f t="shared" si="5"/>
+        <f>E113/10</f>
         <v>4.68</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="5"/>
+        <f>F113/10</f>
         <v>5.08</v>
       </c>
       <c r="I113" s="3" t="s">
@@ -30334,7 +30334,7 @@
         <v>138969</v>
       </c>
       <c r="K113" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -30357,11 +30357,11 @@
         <v>46.1</v>
       </c>
       <c r="G114" s="2">
-        <f t="shared" si="5"/>
+        <f>E114/10</f>
         <v>4.21</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" si="5"/>
+        <f>F114/10</f>
         <v>4.6100000000000003</v>
       </c>
       <c r="I114" s="3" t="s">
@@ -30371,7 +30371,7 @@
         <v>138969</v>
       </c>
       <c r="K114" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -30394,11 +30394,11 @@
         <v>46.3</v>
       </c>
       <c r="G115" s="2">
-        <f t="shared" si="5"/>
+        <f>E115/10</f>
         <v>4.1899999999999995</v>
       </c>
       <c r="H115" s="2">
-        <f t="shared" si="5"/>
+        <f>F115/10</f>
         <v>4.63</v>
       </c>
       <c r="I115" s="3" t="s">
@@ -30408,7 +30408,7 @@
         <v>138969</v>
       </c>
       <c r="K115" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -30431,11 +30431,11 @@
         <v>57</v>
       </c>
       <c r="G116" s="2">
-        <f t="shared" si="5"/>
+        <f>E116/10</f>
         <v>5.14</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" si="5"/>
+        <f>F116/10</f>
         <v>5.7</v>
       </c>
       <c r="I116" s="3" t="s">
@@ -30445,7 +30445,7 @@
         <v>138969</v>
       </c>
       <c r="K116" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -30468,11 +30468,11 @@
         <v>54.1</v>
       </c>
       <c r="G117" s="2">
-        <f t="shared" si="5"/>
+        <f>E117/10</f>
         <v>4.92</v>
       </c>
       <c r="H117" s="2">
-        <f t="shared" si="5"/>
+        <f>F117/10</f>
         <v>5.41</v>
       </c>
       <c r="I117" s="3" t="s">
@@ -30482,7 +30482,7 @@
         <v>138969</v>
       </c>
       <c r="K117" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -30505,11 +30505,11 @@
         <v>57</v>
       </c>
       <c r="G118" s="2">
-        <f t="shared" si="5"/>
+        <f>E118/10</f>
         <v>5.18</v>
       </c>
       <c r="H118" s="2">
-        <f t="shared" si="5"/>
+        <f>F118/10</f>
         <v>5.7</v>
       </c>
       <c r="I118" s="3" t="s">
@@ -30519,7 +30519,7 @@
         <v>138969</v>
       </c>
       <c r="K118" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -30542,11 +30542,11 @@
         <v>54.5</v>
       </c>
       <c r="G119" s="2">
-        <f t="shared" si="5"/>
+        <f>E119/10</f>
         <v>4.7700000000000005</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" si="5"/>
+        <f>F119/10</f>
         <v>5.45</v>
       </c>
       <c r="I119" s="3" t="s">
@@ -30556,7 +30556,7 @@
         <v>138969</v>
       </c>
       <c r="K119" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -30579,11 +30579,11 @@
         <v>34.200000000000003</v>
       </c>
       <c r="G120" s="2">
-        <f t="shared" si="5"/>
+        <f>E120/10</f>
         <v>3.1</v>
       </c>
       <c r="H120" s="2">
-        <f t="shared" si="5"/>
+        <f>F120/10</f>
         <v>3.4200000000000004</v>
       </c>
       <c r="I120" s="3" t="s">
@@ -30593,7 +30593,7 @@
         <v>138969</v>
       </c>
       <c r="K120" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -30616,11 +30616,11 @@
         <v>62</v>
       </c>
       <c r="G121" s="2">
-        <f t="shared" si="5"/>
+        <f>E121/10</f>
         <v>5.5200000000000005</v>
       </c>
       <c r="H121" s="2">
-        <f t="shared" si="5"/>
+        <f>F121/10</f>
         <v>6.2</v>
       </c>
       <c r="I121" s="3" t="s">
@@ -30630,7 +30630,7 @@
         <v>138969</v>
       </c>
       <c r="K121" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -30653,11 +30653,11 @@
         <v>46.7</v>
       </c>
       <c r="G122" s="2">
-        <f t="shared" si="5"/>
+        <f>E122/10</f>
         <v>4.1500000000000004</v>
       </c>
       <c r="H122" s="2">
-        <f t="shared" si="5"/>
+        <f>F122/10</f>
         <v>4.67</v>
       </c>
       <c r="I122" s="3" t="s">
@@ -30667,7 +30667,7 @@
         <v>138969</v>
       </c>
       <c r="K122" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -30690,11 +30690,11 @@
         <v>48.8</v>
       </c>
       <c r="G123" s="2">
-        <f t="shared" si="5"/>
+        <f>E123/10</f>
         <v>4.46</v>
       </c>
       <c r="H123" s="2">
-        <f t="shared" si="5"/>
+        <f>F123/10</f>
         <v>4.88</v>
       </c>
       <c r="I123" s="3" t="s">
@@ -30704,7 +30704,7 @@
         <v>138969</v>
       </c>
       <c r="K123" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -30727,11 +30727,11 @@
         <v>46.5</v>
       </c>
       <c r="G124" s="2">
-        <f t="shared" si="5"/>
+        <f>E124/10</f>
         <v>4.2799999999999994</v>
       </c>
       <c r="H124" s="2">
-        <f t="shared" si="5"/>
+        <f>F124/10</f>
         <v>4.6500000000000004</v>
       </c>
       <c r="I124" s="3" t="s">
@@ -30741,7 +30741,7 @@
         <v>138969</v>
       </c>
       <c r="K124" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -30764,11 +30764,11 @@
         <v>46.7</v>
       </c>
       <c r="G125" s="2">
-        <f t="shared" si="5"/>
+        <f>E125/10</f>
         <v>4.29</v>
       </c>
       <c r="H125" s="2">
-        <f t="shared" si="5"/>
+        <f>F125/10</f>
         <v>4.67</v>
       </c>
       <c r="I125" s="3" t="s">
@@ -30778,7 +30778,7 @@
         <v>138969</v>
       </c>
       <c r="K125" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -30794,7 +30794,7 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -30865,7 +30865,7 @@
         <v>138930</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -30902,7 +30902,7 @@
         <v>138930</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -30939,7 +30939,7 @@
         <v>138930</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -30976,7 +30976,7 @@
         <v>138930</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -31013,7 +31013,7 @@
         <v>138930</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -31050,7 +31050,7 @@
         <v>138930</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -31087,7 +31087,7 @@
         <v>138930</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -31124,7 +31124,7 @@
         <v>138930</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -31161,7 +31161,7 @@
         <v>138930</v>
       </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -31198,7 +31198,7 @@
         <v>138930</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -31235,7 +31235,7 @@
         <v>138930</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -31272,7 +31272,7 @@
         <v>138930</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -31309,7 +31309,7 @@
         <v>138930</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -31346,7 +31346,7 @@
         <v>138930</v>
       </c>
       <c r="K15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -31383,7 +31383,7 @@
         <v>138930</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -31420,7 +31420,7 @@
         <v>138930</v>
       </c>
       <c r="K17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -31457,7 +31457,7 @@
         <v>138930</v>
       </c>
       <c r="K18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -31494,7 +31494,7 @@
         <v>138930</v>
       </c>
       <c r="K19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -31531,7 +31531,7 @@
         <v>138930</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -31568,7 +31568,7 @@
         <v>138930</v>
       </c>
       <c r="K21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -31605,7 +31605,7 @@
         <v>138930</v>
       </c>
       <c r="K22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -31642,7 +31642,7 @@
         <v>138930</v>
       </c>
       <c r="K23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -31679,7 +31679,7 @@
         <v>138930</v>
       </c>
       <c r="K24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -31716,7 +31716,7 @@
         <v>138930</v>
       </c>
       <c r="K25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -31753,7 +31753,7 @@
         <v>138930</v>
       </c>
       <c r="K26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -31790,7 +31790,7 @@
         <v>138930</v>
       </c>
       <c r="K27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -31827,7 +31827,7 @@
         <v>138930</v>
       </c>
       <c r="K28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -31864,7 +31864,7 @@
         <v>138930</v>
       </c>
       <c r="K29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -31901,7 +31901,7 @@
         <v>138930</v>
       </c>
       <c r="K30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -31938,7 +31938,7 @@
         <v>138930</v>
       </c>
       <c r="K31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -31975,7 +31975,7 @@
         <v>138930</v>
       </c>
       <c r="K32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -32012,7 +32012,7 @@
         <v>138930</v>
       </c>
       <c r="K33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -32049,7 +32049,7 @@
         <v>138930</v>
       </c>
       <c r="K34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -32086,7 +32086,7 @@
         <v>138930</v>
       </c>
       <c r="K35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -32123,7 +32123,7 @@
         <v>138930</v>
       </c>
       <c r="K36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -32160,7 +32160,7 @@
         <v>138930</v>
       </c>
       <c r="K37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -32197,7 +32197,7 @@
         <v>138930</v>
       </c>
       <c r="K38" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -32234,7 +32234,7 @@
         <v>138930</v>
       </c>
       <c r="K39" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -32271,7 +32271,7 @@
         <v>138930</v>
       </c>
       <c r="K40" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -32308,7 +32308,7 @@
         <v>138930</v>
       </c>
       <c r="K41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -32345,7 +32345,7 @@
         <v>138930</v>
       </c>
       <c r="K42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -32382,7 +32382,7 @@
         <v>138930</v>
       </c>
       <c r="K43" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -32419,7 +32419,7 @@
         <v>120834</v>
       </c>
       <c r="K44" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -32456,7 +32456,7 @@
         <v>120834</v>
       </c>
       <c r="K45" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -32493,7 +32493,7 @@
         <v>120834</v>
       </c>
       <c r="K46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -32530,7 +32530,7 @@
         <v>120834</v>
       </c>
       <c r="K47" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -32567,7 +32567,7 @@
         <v>120834</v>
       </c>
       <c r="K48" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -32604,7 +32604,7 @@
         <v>120834</v>
       </c>
       <c r="K49" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -32641,7 +32641,7 @@
         <v>120834</v>
       </c>
       <c r="K50" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -32678,7 +32678,7 @@
         <v>120834</v>
       </c>
       <c r="K51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -32715,7 +32715,7 @@
         <v>120834</v>
       </c>
       <c r="K52" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -32752,7 +32752,7 @@
         <v>120834</v>
       </c>
       <c r="K53" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -32789,7 +32789,7 @@
         <v>120834</v>
       </c>
       <c r="K54" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -32826,7 +32826,7 @@
         <v>120834</v>
       </c>
       <c r="K55" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -32863,7 +32863,7 @@
         <v>120834</v>
       </c>
       <c r="K56" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -32900,7 +32900,7 @@
         <v>120834</v>
       </c>
       <c r="K57" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -32937,7 +32937,7 @@
         <v>120834</v>
       </c>
       <c r="K58" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -32974,7 +32974,7 @@
         <v>120834</v>
       </c>
       <c r="K59" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -33011,7 +33011,7 @@
         <v>120834</v>
       </c>
       <c r="K60" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -33048,7 +33048,7 @@
         <v>120834</v>
       </c>
       <c r="K61" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -33085,7 +33085,7 @@
         <v>120834</v>
       </c>
       <c r="K62" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -33122,7 +33122,7 @@
         <v>120834</v>
       </c>
       <c r="K63" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -33159,7 +33159,7 @@
         <v>120834</v>
       </c>
       <c r="K64" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -33196,7 +33196,7 @@
         <v>120834</v>
       </c>
       <c r="K65" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -33233,7 +33233,7 @@
         <v>120834</v>
       </c>
       <c r="K66" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -33270,7 +33270,7 @@
         <v>120834</v>
       </c>
       <c r="K67" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -33307,7 +33307,7 @@
         <v>120834</v>
       </c>
       <c r="K68" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -33344,7 +33344,7 @@
         <v>120834</v>
       </c>
       <c r="K69" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Albatross_LWR_data/Albatross_LWR_Data.xlsx
+++ b/Data/Albatross_LWR_data/Albatross_LWR_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\AlbatrossPhillipinesLWR\Data\Albatross_LWR_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA482EB-7833-4C64-9E23-4B7022568BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77A0EBF-31DB-451A-92F5-400F39988BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Siganus fuscescens" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Doboatherina_duodecimalis" sheetId="12" r:id="rId12"/>
     <sheet name="Atherinomorus_endrachtensis" sheetId="13" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Siganus fuscescens'!$A$1:$K$61</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -200,12 +203,6 @@
     <t>Naujan_Mindoro</t>
   </si>
   <si>
-    <t>Pangauran_River_Bosuwanga</t>
-  </si>
-  <si>
-    <t>Palawan_Nakoda_Bay</t>
-  </si>
-  <si>
     <t>Port_Jamelo_Luzon</t>
   </si>
   <si>
@@ -254,9 +251,6 @@
     <t>Parang_Mindanao</t>
   </si>
   <si>
-    <t>Linacapan_Island_Burias</t>
-  </si>
-  <si>
     <t>Port_Uson_Busuanga_Island</t>
   </si>
   <si>
@@ -270,6 +264,15 @@
   </si>
   <si>
     <t>Sacol_Island_Zamboanga</t>
+  </si>
+  <si>
+    <t>Malcochin_Harbor_Linapacan</t>
+  </si>
+  <si>
+    <t>Port_Caltom_Busuanga</t>
+  </si>
+  <si>
+    <t>Nakoda_Bay_Palawan</t>
   </si>
 </sst>
 </file>
@@ -627,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2889,6 +2892,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K61" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2899,7 +2903,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2973,7 +2977,7 @@
         <v>136752</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3010,7 +3014,7 @@
         <v>136752</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3047,7 +3051,7 @@
         <v>136752</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3084,7 +3088,7 @@
         <v>136752</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3121,7 +3125,7 @@
         <v>136752</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3158,7 +3162,7 @@
         <v>136752</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3195,7 +3199,7 @@
         <v>136752</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3232,7 +3236,7 @@
         <v>136752</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3269,7 +3273,7 @@
         <v>136752</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3306,7 +3310,7 @@
         <v>136752</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3343,7 +3347,7 @@
         <v>136752</v>
       </c>
       <c r="K12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3380,7 +3384,7 @@
         <v>136752</v>
       </c>
       <c r="K13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3417,7 +3421,7 @@
         <v>136752</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3454,7 +3458,7 @@
         <v>136752</v>
       </c>
       <c r="K15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3491,7 +3495,7 @@
         <v>136752</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3528,7 +3532,7 @@
         <v>136752</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3565,7 +3569,7 @@
         <v>136752</v>
       </c>
       <c r="K18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3602,7 +3606,7 @@
         <v>136752</v>
       </c>
       <c r="K19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3639,7 +3643,7 @@
         <v>136752</v>
       </c>
       <c r="K20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3676,7 +3680,7 @@
         <v>136752</v>
       </c>
       <c r="K21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3713,7 +3717,7 @@
         <v>136752</v>
       </c>
       <c r="K22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3750,7 +3754,7 @@
         <v>136752</v>
       </c>
       <c r="K23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3787,7 +3791,7 @@
         <v>136752</v>
       </c>
       <c r="K24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3824,7 +3828,7 @@
         <v>136726</v>
       </c>
       <c r="K25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3861,7 +3865,7 @@
         <v>136726</v>
       </c>
       <c r="K26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3898,7 +3902,7 @@
         <v>136726</v>
       </c>
       <c r="K27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3935,7 +3939,7 @@
         <v>136726</v>
       </c>
       <c r="K28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3972,7 +3976,7 @@
         <v>136726</v>
       </c>
       <c r="K29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4009,7 +4013,7 @@
         <v>136726</v>
       </c>
       <c r="K30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -4046,7 +4050,7 @@
         <v>136726</v>
       </c>
       <c r="K31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4083,7 +4087,7 @@
         <v>136726</v>
       </c>
       <c r="K32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -4120,7 +4124,7 @@
         <v>136726</v>
       </c>
       <c r="K33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4157,7 +4161,7 @@
         <v>136726</v>
       </c>
       <c r="K34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4194,7 +4198,7 @@
         <v>136726</v>
       </c>
       <c r="K35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4231,7 +4235,7 @@
         <v>136726</v>
       </c>
       <c r="K36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -4268,7 +4272,7 @@
         <v>136726</v>
       </c>
       <c r="K37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4305,7 +4309,7 @@
         <v>136726</v>
       </c>
       <c r="K38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -4342,7 +4346,7 @@
         <v>136726</v>
       </c>
       <c r="K39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -4379,7 +4383,7 @@
         <v>136726</v>
       </c>
       <c r="K40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -4416,7 +4420,7 @@
         <v>136726</v>
       </c>
       <c r="K41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -4453,7 +4457,7 @@
         <v>136726</v>
       </c>
       <c r="K42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -4490,7 +4494,7 @@
         <v>136726</v>
       </c>
       <c r="K43" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -4527,7 +4531,7 @@
         <v>136726</v>
       </c>
       <c r="K44" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -4564,7 +4568,7 @@
         <v>136726</v>
       </c>
       <c r="K45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -4601,7 +4605,7 @@
         <v>136726</v>
       </c>
       <c r="K46" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -4638,7 +4642,7 @@
         <v>136726</v>
       </c>
       <c r="K47" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -4675,7 +4679,7 @@
         <v>136726</v>
       </c>
       <c r="K48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4762,7 +4766,7 @@
         <v>149423</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4799,7 +4803,7 @@
         <v>149427</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4836,7 +4840,7 @@
         <v>149427</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4873,7 +4877,7 @@
         <v>149429</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4910,7 +4914,7 @@
         <v>149429</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4947,7 +4951,7 @@
         <v>149429</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4984,7 +4988,7 @@
         <v>149429</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5021,7 +5025,7 @@
         <v>149429</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5058,7 +5062,7 @@
         <v>149429</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5095,7 +5099,7 @@
         <v>149429</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5132,7 +5136,7 @@
         <v>149429</v>
       </c>
       <c r="K12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -5144,8 +5148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C642F94-9666-4AD7-8016-E40E9A93C1DD}">
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5219,7 +5223,7 @@
         <v>136831</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5256,7 +5260,7 @@
         <v>136831</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5293,7 +5297,7 @@
         <v>136831</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5330,7 +5334,7 @@
         <v>136831</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5367,7 +5371,7 @@
         <v>136831</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5404,7 +5408,7 @@
         <v>136831</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5441,7 +5445,7 @@
         <v>136831</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5478,7 +5482,7 @@
         <v>136831</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5515,7 +5519,7 @@
         <v>136831</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5552,7 +5556,7 @@
         <v>136831</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5589,7 +5593,7 @@
         <v>136831</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5626,7 +5630,7 @@
         <v>136831</v>
       </c>
       <c r="K13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5663,7 +5667,7 @@
         <v>136831</v>
       </c>
       <c r="K14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5700,7 +5704,7 @@
         <v>136831</v>
       </c>
       <c r="K15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5737,7 +5741,7 @@
         <v>136831</v>
       </c>
       <c r="K16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5774,7 +5778,7 @@
         <v>136831</v>
       </c>
       <c r="K17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5811,7 +5815,7 @@
         <v>136831</v>
       </c>
       <c r="K18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5848,7 +5852,7 @@
         <v>136831</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -5885,7 +5889,7 @@
         <v>136831</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -5922,7 +5926,7 @@
         <v>136831</v>
       </c>
       <c r="K21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -5959,7 +5963,7 @@
         <v>136831</v>
       </c>
       <c r="K22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -5996,7 +6000,7 @@
         <v>136831</v>
       </c>
       <c r="K23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -6033,7 +6037,7 @@
         <v>136831</v>
       </c>
       <c r="K24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -6070,7 +6074,7 @@
         <v>136831</v>
       </c>
       <c r="K25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -6107,7 +6111,7 @@
         <v>136831</v>
       </c>
       <c r="K26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -6144,7 +6148,7 @@
         <v>136831</v>
       </c>
       <c r="K27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -6181,7 +6185,7 @@
         <v>136831</v>
       </c>
       <c r="K28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -6218,7 +6222,7 @@
         <v>136831</v>
       </c>
       <c r="K29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -6255,7 +6259,7 @@
         <v>136831</v>
       </c>
       <c r="K30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -6292,7 +6296,7 @@
         <v>136831</v>
       </c>
       <c r="K31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -6329,7 +6333,7 @@
         <v>136831</v>
       </c>
       <c r="K32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -6366,7 +6370,7 @@
         <v>136831</v>
       </c>
       <c r="K33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -6403,7 +6407,7 @@
         <v>136831</v>
       </c>
       <c r="K34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -6440,7 +6444,7 @@
         <v>136831</v>
       </c>
       <c r="K35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -6477,7 +6481,7 @@
         <v>136831</v>
       </c>
       <c r="K36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -6514,7 +6518,7 @@
         <v>136831</v>
       </c>
       <c r="K37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -6551,7 +6555,7 @@
         <v>136831</v>
       </c>
       <c r="K38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -6588,7 +6592,7 @@
         <v>136846</v>
       </c>
       <c r="K39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -6625,7 +6629,7 @@
         <v>136846</v>
       </c>
       <c r="K40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -6662,7 +6666,7 @@
         <v>136846</v>
       </c>
       <c r="K41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -6699,7 +6703,7 @@
         <v>136846</v>
       </c>
       <c r="K42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -6958,7 +6962,7 @@
         <v>136851</v>
       </c>
       <c r="K49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -6995,7 +6999,7 @@
         <v>136851</v>
       </c>
       <c r="K50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -7032,7 +7036,7 @@
         <v>136851</v>
       </c>
       <c r="K51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -7069,7 +7073,7 @@
         <v>136851</v>
       </c>
       <c r="K52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -7106,7 +7110,7 @@
         <v>136851</v>
       </c>
       <c r="K53" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -7143,7 +7147,7 @@
         <v>136851</v>
       </c>
       <c r="K54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -7180,7 +7184,7 @@
         <v>136851</v>
       </c>
       <c r="K55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -7217,7 +7221,7 @@
         <v>136851</v>
       </c>
       <c r="K56" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -7254,7 +7258,7 @@
         <v>136851</v>
       </c>
       <c r="K57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -7291,7 +7295,7 @@
         <v>136851</v>
       </c>
       <c r="K58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -7328,7 +7332,7 @@
         <v>136851</v>
       </c>
       <c r="K59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -7365,7 +7369,7 @@
         <v>136851</v>
       </c>
       <c r="K60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -7402,7 +7406,7 @@
         <v>136851</v>
       </c>
       <c r="K61" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -7439,7 +7443,7 @@
         <v>136851</v>
       </c>
       <c r="K62" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -7476,7 +7480,7 @@
         <v>136851</v>
       </c>
       <c r="K63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -7513,7 +7517,7 @@
         <v>136851</v>
       </c>
       <c r="K64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -7550,7 +7554,7 @@
         <v>136851</v>
       </c>
       <c r="K65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -7587,7 +7591,7 @@
         <v>136813</v>
       </c>
       <c r="K66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -7624,7 +7628,7 @@
         <v>136813</v>
       </c>
       <c r="K67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -7661,7 +7665,7 @@
         <v>136813</v>
       </c>
       <c r="K68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -7698,7 +7702,7 @@
         <v>136813</v>
       </c>
       <c r="K69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -7735,7 +7739,7 @@
         <v>136813</v>
       </c>
       <c r="K70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -7772,7 +7776,7 @@
         <v>136813</v>
       </c>
       <c r="K71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -7809,7 +7813,7 @@
         <v>136813</v>
       </c>
       <c r="K72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -7846,7 +7850,7 @@
         <v>136813</v>
       </c>
       <c r="K73" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -7883,7 +7887,7 @@
         <v>136813</v>
       </c>
       <c r="K74" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -7920,7 +7924,7 @@
         <v>136813</v>
       </c>
       <c r="K75" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -7957,7 +7961,7 @@
         <v>136813</v>
       </c>
       <c r="K76" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -7994,7 +7998,7 @@
         <v>136813</v>
       </c>
       <c r="K77" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -8031,7 +8035,7 @@
         <v>136813</v>
       </c>
       <c r="K78" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -8068,7 +8072,7 @@
         <v>136813</v>
       </c>
       <c r="K79" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -8105,7 +8109,7 @@
         <v>136813</v>
       </c>
       <c r="K80" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -8142,7 +8146,7 @@
         <v>136813</v>
       </c>
       <c r="K81" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -8179,7 +8183,7 @@
         <v>136813</v>
       </c>
       <c r="K82" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -8216,7 +8220,7 @@
         <v>136813</v>
       </c>
       <c r="K83" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -8253,7 +8257,7 @@
         <v>136813</v>
       </c>
       <c r="K84" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -8290,7 +8294,7 @@
         <v>136813</v>
       </c>
       <c r="K85" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -8327,7 +8331,7 @@
         <v>136813</v>
       </c>
       <c r="K86" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -8364,7 +8368,7 @@
         <v>136813</v>
       </c>
       <c r="K87" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -8401,7 +8405,7 @@
         <v>136813</v>
       </c>
       <c r="K88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -8438,7 +8442,7 @@
         <v>136813</v>
       </c>
       <c r="K89" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -8475,7 +8479,7 @@
         <v>136813</v>
       </c>
       <c r="K90" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -8512,7 +8516,7 @@
         <v>136813</v>
       </c>
       <c r="K91" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -8549,7 +8553,7 @@
         <v>136813</v>
       </c>
       <c r="K92" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -8586,7 +8590,7 @@
         <v>136813</v>
       </c>
       <c r="K93" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -8623,7 +8627,7 @@
         <v>136813</v>
       </c>
       <c r="K94" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -8660,7 +8664,7 @@
         <v>136813</v>
       </c>
       <c r="K95" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -8697,7 +8701,7 @@
         <v>136813</v>
       </c>
       <c r="K96" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -8734,7 +8738,7 @@
         <v>136813</v>
       </c>
       <c r="K97" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -8771,7 +8775,7 @@
         <v>136813</v>
       </c>
       <c r="K98" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -8808,7 +8812,7 @@
         <v>136813</v>
       </c>
       <c r="K99" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -8845,7 +8849,7 @@
         <v>136813</v>
       </c>
       <c r="K100" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -8882,7 +8886,7 @@
         <v>136813</v>
       </c>
       <c r="K101" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -8919,7 +8923,7 @@
         <v>136813</v>
       </c>
       <c r="K102" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -8956,7 +8960,7 @@
         <v>136813</v>
       </c>
       <c r="K103" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -8993,7 +8997,7 @@
         <v>136813</v>
       </c>
       <c r="K104" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -9030,7 +9034,7 @@
         <v>136813</v>
       </c>
       <c r="K105" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -9067,7 +9071,7 @@
         <v>136813</v>
       </c>
       <c r="K106" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -9104,7 +9108,7 @@
         <v>136813</v>
       </c>
       <c r="K107" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -9141,7 +9145,7 @@
         <v>136813</v>
       </c>
       <c r="K108" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -9178,7 +9182,7 @@
         <v>136813</v>
       </c>
       <c r="K109" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -9215,7 +9219,7 @@
         <v>136813</v>
       </c>
       <c r="K110" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -9252,7 +9256,7 @@
         <v>136813</v>
       </c>
       <c r="K111" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -9289,7 +9293,7 @@
         <v>136813</v>
       </c>
       <c r="K112" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -9326,7 +9330,7 @@
         <v>136813</v>
       </c>
       <c r="K113" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -9363,7 +9367,7 @@
         <v>136813</v>
       </c>
       <c r="K114" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -9400,7 +9404,7 @@
         <v>136813</v>
       </c>
       <c r="K115" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -9437,7 +9441,7 @@
         <v>136813</v>
       </c>
       <c r="K116" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -9474,7 +9478,7 @@
         <v>136813</v>
       </c>
       <c r="K117" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -9511,7 +9515,7 @@
         <v>136813</v>
       </c>
       <c r="K118" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -9548,7 +9552,7 @@
         <v>136813</v>
       </c>
       <c r="K119" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -9585,7 +9589,7 @@
         <v>136813</v>
       </c>
       <c r="K120" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -9622,7 +9626,7 @@
         <v>136813</v>
       </c>
       <c r="K121" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -9659,7 +9663,7 @@
         <v>136813</v>
       </c>
       <c r="K122" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -9696,7 +9700,7 @@
         <v>136813</v>
       </c>
       <c r="K123" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -9733,7 +9737,7 @@
         <v>136813</v>
       </c>
       <c r="K124" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -9770,7 +9774,7 @@
         <v>136813</v>
       </c>
       <c r="K125" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -9807,7 +9811,7 @@
         <v>136813</v>
       </c>
       <c r="K126" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9819,8 +9823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE6BE8A-C972-4BB0-9407-89D9814EAFC6}">
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12558,7 +12562,7 @@
         <v>136804</v>
       </c>
       <c r="K74" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -12595,7 +12599,7 @@
         <v>136804</v>
       </c>
       <c r="K75" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -12632,7 +12636,7 @@
         <v>136804</v>
       </c>
       <c r="K76" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -12669,7 +12673,7 @@
         <v>136804</v>
       </c>
       <c r="K77" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -12706,7 +12710,7 @@
         <v>136804</v>
       </c>
       <c r="K78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -12743,7 +12747,7 @@
         <v>136804</v>
       </c>
       <c r="K79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -12780,7 +12784,7 @@
         <v>136804</v>
       </c>
       <c r="K80" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -12817,7 +12821,7 @@
         <v>136804</v>
       </c>
       <c r="K81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -12854,7 +12858,7 @@
         <v>136804</v>
       </c>
       <c r="K82" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -12891,7 +12895,7 @@
         <v>136804</v>
       </c>
       <c r="K83" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -12928,7 +12932,7 @@
         <v>136804</v>
       </c>
       <c r="K84" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -12965,7 +12969,7 @@
         <v>136804</v>
       </c>
       <c r="K85" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -13002,7 +13006,7 @@
         <v>136804</v>
       </c>
       <c r="K86" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -13039,7 +13043,7 @@
         <v>136804</v>
       </c>
       <c r="K87" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -13076,7 +13080,7 @@
         <v>136804</v>
       </c>
       <c r="K88" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -13113,7 +13117,7 @@
         <v>136804</v>
       </c>
       <c r="K89" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -13150,7 +13154,7 @@
         <v>136804</v>
       </c>
       <c r="K90" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -13187,7 +13191,7 @@
         <v>136804</v>
       </c>
       <c r="K91" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -13224,7 +13228,7 @@
         <v>136804</v>
       </c>
       <c r="K92" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -13261,7 +13265,7 @@
         <v>136804</v>
       </c>
       <c r="K93" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -13298,7 +13302,7 @@
         <v>136804</v>
       </c>
       <c r="K94" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -13335,7 +13339,7 @@
         <v>136804</v>
       </c>
       <c r="K95" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -13372,7 +13376,7 @@
         <v>136804</v>
       </c>
       <c r="K96" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -13409,7 +13413,7 @@
         <v>136804</v>
       </c>
       <c r="K97" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -13446,7 +13450,7 @@
         <v>136804</v>
       </c>
       <c r="K98" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -13483,7 +13487,7 @@
         <v>136804</v>
       </c>
       <c r="K99" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -13520,7 +13524,7 @@
         <v>136804</v>
       </c>
       <c r="K100" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -13557,7 +13561,7 @@
         <v>136804</v>
       </c>
       <c r="K101" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -13594,7 +13598,7 @@
         <v>136818</v>
       </c>
       <c r="K102" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -13631,7 +13635,7 @@
         <v>136818</v>
       </c>
       <c r="K103" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -13668,7 +13672,7 @@
         <v>136818</v>
       </c>
       <c r="K104" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -13705,7 +13709,7 @@
         <v>136818</v>
       </c>
       <c r="K105" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -13742,7 +13746,7 @@
         <v>136818</v>
       </c>
       <c r="K106" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -13779,7 +13783,7 @@
         <v>136818</v>
       </c>
       <c r="K107" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -13816,7 +13820,7 @@
         <v>136818</v>
       </c>
       <c r="K108" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -13853,7 +13857,7 @@
         <v>136818</v>
       </c>
       <c r="K109" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -13890,7 +13894,7 @@
         <v>136818</v>
       </c>
       <c r="K110" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -13927,7 +13931,7 @@
         <v>136818</v>
       </c>
       <c r="K111" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -13964,7 +13968,7 @@
         <v>136818</v>
       </c>
       <c r="K112" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -14001,7 +14005,7 @@
         <v>136818</v>
       </c>
       <c r="K113" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -14038,7 +14042,7 @@
         <v>136818</v>
       </c>
       <c r="K114" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -14075,7 +14079,7 @@
         <v>136818</v>
       </c>
       <c r="K115" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -14112,7 +14116,7 @@
         <v>136818</v>
       </c>
       <c r="K116" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -14149,7 +14153,7 @@
         <v>136818</v>
       </c>
       <c r="K117" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -14186,7 +14190,7 @@
         <v>136818</v>
       </c>
       <c r="K118" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -14223,7 +14227,7 @@
         <v>136818</v>
       </c>
       <c r="K119" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -14260,7 +14264,7 @@
         <v>136818</v>
       </c>
       <c r="K120" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -14297,7 +14301,7 @@
         <v>136818</v>
       </c>
       <c r="K121" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -14334,7 +14338,7 @@
         <v>136818</v>
       </c>
       <c r="K122" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -14371,7 +14375,7 @@
         <v>136818</v>
       </c>
       <c r="K123" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -14408,7 +14412,7 @@
         <v>136818</v>
       </c>
       <c r="K124" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -14445,7 +14449,7 @@
         <v>136818</v>
       </c>
       <c r="K125" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -14457,8 +14461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AA33B0-C369-4176-A0CE-A7B790CFC440}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16579,8 +16583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C56AFD7-721A-4188-A767-B33BD53034E1}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18504,7 +18508,7 @@
         <v>139301</v>
       </c>
       <c r="K52" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -18541,7 +18545,7 @@
         <v>139301</v>
       </c>
       <c r="K53" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -18578,7 +18582,7 @@
         <v>139301</v>
       </c>
       <c r="K54" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -18615,7 +18619,7 @@
         <v>139301</v>
       </c>
       <c r="K55" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -18652,7 +18656,7 @@
         <v>139301</v>
       </c>
       <c r="K56" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -18689,7 +18693,7 @@
         <v>139301</v>
       </c>
       <c r="K57" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -18726,7 +18730,7 @@
         <v>139301</v>
       </c>
       <c r="K58" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -18763,7 +18767,7 @@
         <v>139301</v>
       </c>
       <c r="K59" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -18800,7 +18804,7 @@
         <v>139301</v>
       </c>
       <c r="K60" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -18837,7 +18841,7 @@
         <v>139301</v>
       </c>
       <c r="K61" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -18874,7 +18878,7 @@
         <v>139301</v>
       </c>
       <c r="K62" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -18911,7 +18915,7 @@
         <v>139301</v>
       </c>
       <c r="K63" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -18948,7 +18952,7 @@
         <v>139301</v>
       </c>
       <c r="K64" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -18985,7 +18989,7 @@
         <v>139301</v>
       </c>
       <c r="K65" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -19022,7 +19026,7 @@
         <v>139301</v>
       </c>
       <c r="K66" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -19059,7 +19063,7 @@
         <v>139301</v>
       </c>
       <c r="K67" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -19096,7 +19100,7 @@
         <v>139301</v>
       </c>
       <c r="K68" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -19133,7 +19137,7 @@
         <v>139301</v>
       </c>
       <c r="K69" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -19170,7 +19174,7 @@
         <v>139301</v>
       </c>
       <c r="K70" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -19207,7 +19211,7 @@
         <v>139301</v>
       </c>
       <c r="K71" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -19244,7 +19248,7 @@
         <v>139301</v>
       </c>
       <c r="K72" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -19281,7 +19285,7 @@
         <v>139301</v>
       </c>
       <c r="K73" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -19318,7 +19322,7 @@
         <v>139301</v>
       </c>
       <c r="K74" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -19355,7 +19359,7 @@
         <v>139301</v>
       </c>
       <c r="K75" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -19392,7 +19396,7 @@
         <v>139301</v>
       </c>
       <c r="K76" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -19429,7 +19433,7 @@
         <v>139301</v>
       </c>
       <c r="K77" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -19466,7 +19470,7 @@
         <v>139301</v>
       </c>
       <c r="K78" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -19503,7 +19507,7 @@
         <v>139301</v>
       </c>
       <c r="K79" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -19540,7 +19544,7 @@
         <v>139301</v>
       </c>
       <c r="K80" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -19577,7 +19581,7 @@
         <v>139301</v>
       </c>
       <c r="K81" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -19614,7 +19618,7 @@
         <v>135745</v>
       </c>
       <c r="K82" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -19651,7 +19655,7 @@
         <v>135745</v>
       </c>
       <c r="K83" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -19688,7 +19692,7 @@
         <v>135745</v>
       </c>
       <c r="K84" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -19725,7 +19729,7 @@
         <v>135745</v>
       </c>
       <c r="K85" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -19762,7 +19766,7 @@
         <v>135745</v>
       </c>
       <c r="K86" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -19799,7 +19803,7 @@
         <v>135745</v>
       </c>
       <c r="K87" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -19836,7 +19840,7 @@
         <v>135745</v>
       </c>
       <c r="K88" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -19873,7 +19877,7 @@
         <v>135745</v>
       </c>
       <c r="K89" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -19910,7 +19914,7 @@
         <v>135745</v>
       </c>
       <c r="K90" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -19947,7 +19951,7 @@
         <v>135745</v>
       </c>
       <c r="K91" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -19984,7 +19988,7 @@
         <v>135745</v>
       </c>
       <c r="K92" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -20021,7 +20025,7 @@
         <v>135745</v>
       </c>
       <c r="K93" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -20033,7 +20037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B77016-35EB-4B78-9C0F-AF258CA436E5}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -20108,7 +20112,7 @@
         <v>137219</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -20145,7 +20149,7 @@
         <v>137219</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -20182,7 +20186,7 @@
         <v>137219</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -20219,7 +20223,7 @@
         <v>137219</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -20256,7 +20260,7 @@
         <v>137219</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -20293,7 +20297,7 @@
         <v>137219</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -20330,7 +20334,7 @@
         <v>137219</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -20367,7 +20371,7 @@
         <v>137219</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -20404,7 +20408,7 @@
         <v>137219</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -20441,7 +20445,7 @@
         <v>137219</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -20478,7 +20482,7 @@
         <v>137219</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -20515,7 +20519,7 @@
         <v>137219</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -20552,7 +20556,7 @@
         <v>137219</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -20589,7 +20593,7 @@
         <v>137219</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -20626,7 +20630,7 @@
         <v>137219</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -20663,7 +20667,7 @@
         <v>137219</v>
       </c>
       <c r="K17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -20700,7 +20704,7 @@
         <v>137219</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -20737,7 +20741,7 @@
         <v>137219</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -20774,7 +20778,7 @@
         <v>137219</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -20811,7 +20815,7 @@
         <v>137219</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -20848,7 +20852,7 @@
         <v>137219</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -20885,7 +20889,7 @@
         <v>137219</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -20922,7 +20926,7 @@
         <v>137219</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -20959,7 +20963,7 @@
         <v>137219</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -20996,7 +21000,7 @@
         <v>137219</v>
       </c>
       <c r="K26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -21033,7 +21037,7 @@
         <v>37</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -21070,7 +21074,7 @@
         <v>37</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -21107,7 +21111,7 @@
         <v>37</v>
       </c>
       <c r="K29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -21144,7 +21148,7 @@
         <v>37</v>
       </c>
       <c r="K30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -21181,7 +21185,7 @@
         <v>37</v>
       </c>
       <c r="K31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -21218,7 +21222,7 @@
         <v>37</v>
       </c>
       <c r="K32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -21255,7 +21259,7 @@
         <v>37</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -21292,7 +21296,7 @@
         <v>37</v>
       </c>
       <c r="K34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -21329,7 +21333,7 @@
         <v>37</v>
       </c>
       <c r="K35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -21366,7 +21370,7 @@
         <v>37</v>
       </c>
       <c r="K36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -21403,7 +21407,7 @@
         <v>37</v>
       </c>
       <c r="K37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -21440,7 +21444,7 @@
         <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -21477,7 +21481,7 @@
         <v>37</v>
       </c>
       <c r="K39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -21514,7 +21518,7 @@
         <v>37</v>
       </c>
       <c r="K40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -21551,7 +21555,7 @@
         <v>37</v>
       </c>
       <c r="K41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -21588,7 +21592,7 @@
         <v>37</v>
       </c>
       <c r="K42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -21625,7 +21629,7 @@
         <v>37</v>
       </c>
       <c r="K43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -21662,7 +21666,7 @@
         <v>37</v>
       </c>
       <c r="K44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -21699,7 +21703,7 @@
         <v>37</v>
       </c>
       <c r="K45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -21736,7 +21740,7 @@
         <v>37</v>
       </c>
       <c r="K46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -21773,7 +21777,7 @@
         <v>37</v>
       </c>
       <c r="K47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -21810,7 +21814,7 @@
         <v>37</v>
       </c>
       <c r="K48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -21847,7 +21851,7 @@
         <v>37</v>
       </c>
       <c r="K49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -21884,7 +21888,7 @@
         <v>37</v>
       </c>
       <c r="K50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -21921,7 +21925,7 @@
         <v>37</v>
       </c>
       <c r="K51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -22008,7 +22012,7 @@
         <v>139655</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -22045,7 +22049,7 @@
         <v>139655</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -22082,7 +22086,7 @@
         <v>139655</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -22119,7 +22123,7 @@
         <v>139655</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -22156,7 +22160,7 @@
         <v>139655</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -22193,7 +22197,7 @@
         <v>139655</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -22230,7 +22234,7 @@
         <v>139655</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -22267,7 +22271,7 @@
         <v>139655</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -22304,7 +22308,7 @@
         <v>139655</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -22341,7 +22345,7 @@
         <v>139655</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -22378,7 +22382,7 @@
         <v>139655</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -22415,7 +22419,7 @@
         <v>139655</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -22452,7 +22456,7 @@
         <v>139655</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -22489,7 +22493,7 @@
         <v>139655</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -22526,7 +22530,7 @@
         <v>139655</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -22563,7 +22567,7 @@
         <v>139655</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -22600,7 +22604,7 @@
         <v>139655</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -22637,7 +22641,7 @@
         <v>139655</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -22674,7 +22678,7 @@
         <v>139655</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -22711,7 +22715,7 @@
         <v>139655</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -22748,7 +22752,7 @@
         <v>139655</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -22785,7 +22789,7 @@
         <v>139655</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -22822,7 +22826,7 @@
         <v>139655</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -22859,7 +22863,7 @@
         <v>139655</v>
       </c>
       <c r="K25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -22896,7 +22900,7 @@
         <v>139655</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -22933,7 +22937,7 @@
         <v>139655</v>
       </c>
       <c r="K27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -22970,7 +22974,7 @@
         <v>139655</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -23007,7 +23011,7 @@
         <v>139655</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -23044,7 +23048,7 @@
         <v>139655</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -23081,7 +23085,7 @@
         <v>139655</v>
       </c>
       <c r="K31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -23118,7 +23122,7 @@
         <v>139655</v>
       </c>
       <c r="K32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -23155,7 +23159,7 @@
         <v>139655</v>
       </c>
       <c r="K33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -23192,7 +23196,7 @@
         <v>139655</v>
       </c>
       <c r="K34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -23229,7 +23233,7 @@
         <v>139655</v>
       </c>
       <c r="K35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -23266,7 +23270,7 @@
         <v>139655</v>
       </c>
       <c r="K36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -23303,7 +23307,7 @@
         <v>139655</v>
       </c>
       <c r="K37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -23315,8 +23319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6006933B-F91F-4119-B5D7-9BBDBDC17FE2}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23390,7 +23394,7 @@
         <v>180120</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -23427,7 +23431,7 @@
         <v>180120</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -23464,7 +23468,7 @@
         <v>180120</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -23501,7 +23505,7 @@
         <v>180120</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -23538,7 +23542,7 @@
         <v>180120</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -23575,7 +23579,7 @@
         <v>180120</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -23612,7 +23616,7 @@
         <v>180120</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -23649,7 +23653,7 @@
         <v>180120</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -23686,7 +23690,7 @@
         <v>180120</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -23723,7 +23727,7 @@
         <v>180120</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -23760,7 +23764,7 @@
         <v>180120</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -23797,7 +23801,7 @@
         <v>180120</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -23834,7 +23838,7 @@
         <v>180120</v>
       </c>
       <c r="K14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -23871,7 +23875,7 @@
         <v>180120</v>
       </c>
       <c r="K15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -23908,7 +23912,7 @@
         <v>180120</v>
       </c>
       <c r="K16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -23945,7 +23949,7 @@
         <v>180120</v>
       </c>
       <c r="K17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -23982,7 +23986,7 @@
         <v>180120</v>
       </c>
       <c r="K18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -24019,7 +24023,7 @@
         <v>180120</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -24056,7 +24060,7 @@
         <v>180120</v>
       </c>
       <c r="K20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -24093,7 +24097,7 @@
         <v>180120</v>
       </c>
       <c r="K21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -24130,7 +24134,7 @@
         <v>180120</v>
       </c>
       <c r="K22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -24167,7 +24171,7 @@
         <v>180120</v>
       </c>
       <c r="K23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -24204,7 +24208,7 @@
         <v>180120</v>
       </c>
       <c r="K24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -24241,7 +24245,7 @@
         <v>180120</v>
       </c>
       <c r="K25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -24278,7 +24282,7 @@
         <v>180120</v>
       </c>
       <c r="K26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -24315,7 +24319,7 @@
         <v>180120</v>
       </c>
       <c r="K27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -24352,7 +24356,7 @@
         <v>180120</v>
       </c>
       <c r="K28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -24389,7 +24393,7 @@
         <v>180120</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -24426,7 +24430,7 @@
         <v>180120</v>
       </c>
       <c r="K30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -24463,7 +24467,7 @@
         <v>180120</v>
       </c>
       <c r="K31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -24500,7 +24504,7 @@
         <v>180120</v>
       </c>
       <c r="K32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -24537,7 +24541,7 @@
         <v>180120</v>
       </c>
       <c r="K33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -24574,7 +24578,7 @@
         <v>180127</v>
       </c>
       <c r="K34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -24611,7 +24615,7 @@
         <v>180127</v>
       </c>
       <c r="K35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -24648,7 +24652,7 @@
         <v>180127</v>
       </c>
       <c r="K36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -24685,7 +24689,7 @@
         <v>180127</v>
       </c>
       <c r="K37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -24722,7 +24726,7 @@
         <v>180127</v>
       </c>
       <c r="K38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -24759,7 +24763,7 @@
         <v>180127</v>
       </c>
       <c r="K39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -24796,7 +24800,7 @@
         <v>180127</v>
       </c>
       <c r="K40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -24833,7 +24837,7 @@
         <v>180127</v>
       </c>
       <c r="K41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -24870,7 +24874,7 @@
         <v>180127</v>
       </c>
       <c r="K42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -24907,7 +24911,7 @@
         <v>180127</v>
       </c>
       <c r="K43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -24944,7 +24948,7 @@
         <v>180127</v>
       </c>
       <c r="K44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -24981,7 +24985,7 @@
         <v>180127</v>
       </c>
       <c r="K45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -25018,7 +25022,7 @@
         <v>180127</v>
       </c>
       <c r="K46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -25055,7 +25059,7 @@
         <v>180127</v>
       </c>
       <c r="K47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -25092,7 +25096,7 @@
         <v>180127</v>
       </c>
       <c r="K48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -25179,7 +25183,7 @@
         <v>184189</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -25216,7 +25220,7 @@
         <v>184189</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -25253,7 +25257,7 @@
         <v>184189</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -25290,7 +25294,7 @@
         <v>184189</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -25327,7 +25331,7 @@
         <v>184189</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -25364,7 +25368,7 @@
         <v>184189</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -25401,7 +25405,7 @@
         <v>184189</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -25438,7 +25442,7 @@
         <v>184189</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -25475,7 +25479,7 @@
         <v>184189</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -25512,7 +25516,7 @@
         <v>184189</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -25549,7 +25553,7 @@
         <v>184189</v>
       </c>
       <c r="K12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -25586,7 +25590,7 @@
         <v>184189</v>
       </c>
       <c r="K13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -25623,7 +25627,7 @@
         <v>184189</v>
       </c>
       <c r="K14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -25660,7 +25664,7 @@
         <v>184189</v>
       </c>
       <c r="K15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -25697,7 +25701,7 @@
         <v>184189</v>
       </c>
       <c r="K16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -25734,7 +25738,7 @@
         <v>184189</v>
       </c>
       <c r="K17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -25771,7 +25775,7 @@
         <v>184189</v>
       </c>
       <c r="K18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -25808,7 +25812,7 @@
         <v>184189</v>
       </c>
       <c r="K19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -25845,7 +25849,7 @@
         <v>184189</v>
       </c>
       <c r="K20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -25882,7 +25886,7 @@
         <v>184189</v>
       </c>
       <c r="K21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -25919,7 +25923,7 @@
         <v>184189</v>
       </c>
       <c r="K22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -25956,7 +25960,7 @@
         <v>184189</v>
       </c>
       <c r="K23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -25993,7 +25997,7 @@
         <v>184189</v>
       </c>
       <c r="K24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -26030,7 +26034,7 @@
         <v>184189</v>
       </c>
       <c r="K25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -26067,7 +26071,7 @@
         <v>184189</v>
       </c>
       <c r="K26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -26104,7 +26108,7 @@
         <v>184189</v>
       </c>
       <c r="K27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -26141,7 +26145,7 @@
         <v>184189</v>
       </c>
       <c r="K28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -26153,7 +26157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8345A7CE-F776-4B70-8487-E937D9ED1AC0}">
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
@@ -26214,11 +26218,11 @@
         <v>63.5</v>
       </c>
       <c r="G2" s="2">
-        <f>E2/10</f>
+        <f t="shared" ref="G2:G33" si="0">E2/10</f>
         <v>5.4700000000000006</v>
       </c>
       <c r="H2" s="2">
-        <f>F2/10</f>
+        <f t="shared" ref="H2:H33" si="1">F2/10</f>
         <v>6.35</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -26228,7 +26232,7 @@
         <v>138978</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -26251,11 +26255,11 @@
         <v>55.5</v>
       </c>
       <c r="G3" s="2">
-        <f>E3/10</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H3" s="2">
-        <f>F3/10</f>
+        <f t="shared" si="1"/>
         <v>5.55</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -26265,7 +26269,7 @@
         <v>138978</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -26288,11 +26292,11 @@
         <v>55.9</v>
       </c>
       <c r="G4" s="2">
-        <f>E4/10</f>
+        <f t="shared" si="0"/>
         <v>4.82</v>
       </c>
       <c r="H4" s="2">
-        <f>F4/10</f>
+        <f t="shared" si="1"/>
         <v>5.59</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -26302,7 +26306,7 @@
         <v>138978</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -26325,11 +26329,11 @@
         <v>47.8</v>
       </c>
       <c r="G5" s="2">
-        <f>E5/10</f>
+        <f t="shared" si="0"/>
         <v>4.1899999999999995</v>
       </c>
       <c r="H5" s="2">
-        <f>F5/10</f>
+        <f t="shared" si="1"/>
         <v>4.7799999999999994</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -26339,7 +26343,7 @@
         <v>138978</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -26362,11 +26366,11 @@
         <v>59.7</v>
       </c>
       <c r="G6" s="2">
-        <f>E6/10</f>
+        <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
       <c r="H6" s="2">
-        <f>F6/10</f>
+        <f t="shared" si="1"/>
         <v>5.9700000000000006</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -26376,7 +26380,7 @@
         <v>138978</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -26399,11 +26403,11 @@
         <v>52</v>
       </c>
       <c r="G7" s="2">
-        <f>E7/10</f>
+        <f t="shared" si="0"/>
         <v>4.7799999999999994</v>
       </c>
       <c r="H7" s="2">
-        <f>F7/10</f>
+        <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -26413,7 +26417,7 @@
         <v>138978</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -26436,11 +26440,11 @@
         <v>56.9</v>
       </c>
       <c r="G8" s="2">
-        <f>E8/10</f>
+        <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H8" s="2">
-        <f>F8/10</f>
+        <f t="shared" si="1"/>
         <v>5.6899999999999995</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -26450,7 +26454,7 @@
         <v>138978</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -26473,11 +26477,11 @@
         <v>47</v>
       </c>
       <c r="G9" s="2">
-        <f>E9/10</f>
+        <f t="shared" si="0"/>
         <v>4.12</v>
       </c>
       <c r="H9" s="2">
-        <f>F9/10</f>
+        <f t="shared" si="1"/>
         <v>4.7</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -26487,7 +26491,7 @@
         <v>138978</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -26510,11 +26514,11 @@
         <v>58</v>
       </c>
       <c r="G10" s="2">
-        <f>E10/10</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H10" s="2">
-        <f>F10/10</f>
+        <f t="shared" si="1"/>
         <v>5.8</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -26524,7 +26528,7 @@
         <v>138978</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -26547,11 +26551,11 @@
         <v>52.2</v>
       </c>
       <c r="G11" s="2">
-        <f>E11/10</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="H11" s="2">
-        <f>F11/10</f>
+        <f t="shared" si="1"/>
         <v>5.2200000000000006</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -26561,7 +26565,7 @@
         <v>138978</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -26584,11 +26588,11 @@
         <v>50</v>
       </c>
       <c r="G12" s="2">
-        <f>E12/10</f>
+        <f t="shared" si="0"/>
         <v>4.46</v>
       </c>
       <c r="H12" s="2">
-        <f>F12/10</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -26598,7 +26602,7 @@
         <v>138978</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -26621,11 +26625,11 @@
         <v>55.4</v>
       </c>
       <c r="G13" s="2">
-        <f>E13/10</f>
+        <f t="shared" si="0"/>
         <v>4.88</v>
       </c>
       <c r="H13" s="2">
-        <f>F13/10</f>
+        <f t="shared" si="1"/>
         <v>5.54</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -26635,7 +26639,7 @@
         <v>138978</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -26658,11 +26662,11 @@
         <v>54.3</v>
       </c>
       <c r="G14" s="2">
-        <f>E14/10</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="H14" s="2">
-        <f>F14/10</f>
+        <f t="shared" si="1"/>
         <v>5.43</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -26672,7 +26676,7 @@
         <v>138978</v>
       </c>
       <c r="K14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -26695,11 +26699,11 @@
         <v>45.3</v>
       </c>
       <c r="G15" s="2">
-        <f>E15/10</f>
+        <f t="shared" si="0"/>
         <v>4.1500000000000004</v>
       </c>
       <c r="H15" s="2">
-        <f>F15/10</f>
+        <f t="shared" si="1"/>
         <v>4.5299999999999994</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -26709,7 +26713,7 @@
         <v>138978</v>
       </c>
       <c r="K15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -26732,11 +26736,11 @@
         <v>57</v>
       </c>
       <c r="G16" s="2">
-        <f>E16/10</f>
+        <f t="shared" si="0"/>
         <v>4.88</v>
       </c>
       <c r="H16" s="2">
-        <f>F16/10</f>
+        <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -26746,7 +26750,7 @@
         <v>138978</v>
       </c>
       <c r="K16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -26769,11 +26773,11 @@
         <v>54</v>
       </c>
       <c r="G17" s="2">
-        <f>E17/10</f>
+        <f t="shared" si="0"/>
         <v>4.76</v>
       </c>
       <c r="H17" s="2">
-        <f>F17/10</f>
+        <f t="shared" si="1"/>
         <v>5.4</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -26783,7 +26787,7 @@
         <v>138978</v>
       </c>
       <c r="K17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -26806,11 +26810,11 @@
         <v>50.7</v>
       </c>
       <c r="G18" s="2">
-        <f>E18/10</f>
+        <f t="shared" si="0"/>
         <v>4.57</v>
       </c>
       <c r="H18" s="2">
-        <f>F18/10</f>
+        <f t="shared" si="1"/>
         <v>5.07</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -26820,7 +26824,7 @@
         <v>138978</v>
       </c>
       <c r="K18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -26843,11 +26847,11 @@
         <v>49.8</v>
       </c>
       <c r="G19" s="2">
-        <f>E19/10</f>
+        <f t="shared" si="0"/>
         <v>4.4399999999999995</v>
       </c>
       <c r="H19" s="2">
-        <f>F19/10</f>
+        <f t="shared" si="1"/>
         <v>4.9799999999999995</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -26857,7 +26861,7 @@
         <v>138978</v>
       </c>
       <c r="K19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -26880,11 +26884,11 @@
         <v>56.3</v>
       </c>
       <c r="G20" s="2">
-        <f>E20/10</f>
+        <f t="shared" si="0"/>
         <v>4.74</v>
       </c>
       <c r="H20" s="2">
-        <f>F20/10</f>
+        <f t="shared" si="1"/>
         <v>5.63</v>
       </c>
       <c r="I20" s="3" t="s">
@@ -26894,7 +26898,7 @@
         <v>138978</v>
       </c>
       <c r="K20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -26917,11 +26921,11 @@
         <v>46.9</v>
       </c>
       <c r="G21" s="2">
-        <f>E21/10</f>
+        <f t="shared" si="0"/>
         <v>4.12</v>
       </c>
       <c r="H21" s="2">
-        <f>F21/10</f>
+        <f t="shared" si="1"/>
         <v>4.6899999999999995</v>
       </c>
       <c r="I21" s="3" t="s">
@@ -26931,7 +26935,7 @@
         <v>138978</v>
       </c>
       <c r="K21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -26954,11 +26958,11 @@
         <v>53</v>
       </c>
       <c r="G22" s="2">
-        <f>E22/10</f>
+        <f t="shared" si="0"/>
         <v>4.74</v>
       </c>
       <c r="H22" s="2">
-        <f>F22/10</f>
+        <f t="shared" si="1"/>
         <v>5.3</v>
       </c>
       <c r="I22" s="3" t="s">
@@ -26968,7 +26972,7 @@
         <v>138978</v>
       </c>
       <c r="K22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -26991,11 +26995,11 @@
         <v>51.2</v>
       </c>
       <c r="G23" s="2">
-        <f>E23/10</f>
+        <f t="shared" si="0"/>
         <v>4.55</v>
       </c>
       <c r="H23" s="2">
-        <f>F23/10</f>
+        <f t="shared" si="1"/>
         <v>5.12</v>
       </c>
       <c r="I23" s="3" t="s">
@@ -27005,7 +27009,7 @@
         <v>138978</v>
       </c>
       <c r="K23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -27028,11 +27032,11 @@
         <v>51.8</v>
       </c>
       <c r="G24" s="2">
-        <f>E24/10</f>
+        <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
       <c r="H24" s="2">
-        <f>F24/10</f>
+        <f t="shared" si="1"/>
         <v>5.18</v>
       </c>
       <c r="I24" s="3" t="s">
@@ -27042,7 +27046,7 @@
         <v>138978</v>
       </c>
       <c r="K24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -27065,11 +27069,11 @@
         <v>32.9</v>
       </c>
       <c r="G25" s="2">
-        <f>E25/10</f>
+        <f t="shared" si="0"/>
         <v>2.96</v>
       </c>
       <c r="H25" s="2">
-        <f>F25/10</f>
+        <f t="shared" si="1"/>
         <v>3.29</v>
       </c>
       <c r="I25" s="3" t="s">
@@ -27079,7 +27083,7 @@
         <v>138978</v>
       </c>
       <c r="K25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -27102,11 +27106,11 @@
         <v>38.299999999999997</v>
       </c>
       <c r="G26" s="2">
-        <f>E26/10</f>
+        <f t="shared" si="0"/>
         <v>3.35</v>
       </c>
       <c r="H26" s="2">
-        <f>F26/10</f>
+        <f t="shared" si="1"/>
         <v>3.8299999999999996</v>
       </c>
       <c r="I26" s="3" t="s">
@@ -27116,7 +27120,7 @@
         <v>138978</v>
       </c>
       <c r="K26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -27139,11 +27143,11 @@
         <v>56.4</v>
       </c>
       <c r="G27" s="2">
-        <f>E27/10</f>
+        <f t="shared" si="0"/>
         <v>4.9399999999999995</v>
       </c>
       <c r="H27" s="2">
-        <f>F27/10</f>
+        <f t="shared" si="1"/>
         <v>5.64</v>
       </c>
       <c r="I27" s="3" t="s">
@@ -27153,7 +27157,7 @@
         <v>138978</v>
       </c>
       <c r="K27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -27176,11 +27180,11 @@
         <v>43.8</v>
       </c>
       <c r="G28" s="2">
-        <f>E28/10</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H28" s="2">
-        <f>F28/10</f>
+        <f t="shared" si="1"/>
         <v>4.38</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -27190,7 +27194,7 @@
         <v>138978</v>
       </c>
       <c r="K28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -27213,11 +27217,11 @@
         <v>50.5</v>
       </c>
       <c r="G29" s="2">
-        <f>E29/10</f>
+        <f t="shared" si="0"/>
         <v>4.58</v>
       </c>
       <c r="H29" s="2">
-        <f>F29/10</f>
+        <f t="shared" si="1"/>
         <v>5.05</v>
       </c>
       <c r="I29" s="3" t="s">
@@ -27227,7 +27231,7 @@
         <v>138978</v>
       </c>
       <c r="K29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -27250,11 +27254,11 @@
         <v>43.6</v>
       </c>
       <c r="G30" s="2">
-        <f>E30/10</f>
+        <f t="shared" si="0"/>
         <v>3.91</v>
       </c>
       <c r="H30" s="2">
-        <f>F30/10</f>
+        <f t="shared" si="1"/>
         <v>4.3600000000000003</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -27264,7 +27268,7 @@
         <v>138978</v>
       </c>
       <c r="K30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -27287,11 +27291,11 @@
         <v>47.9</v>
       </c>
       <c r="G31" s="2">
-        <f>E31/10</f>
+        <f t="shared" si="0"/>
         <v>4.21</v>
       </c>
       <c r="H31" s="2">
-        <f>F31/10</f>
+        <f t="shared" si="1"/>
         <v>4.79</v>
       </c>
       <c r="I31" s="3" t="s">
@@ -27301,7 +27305,7 @@
         <v>138978</v>
       </c>
       <c r="K31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -27324,11 +27328,11 @@
         <v>49.2</v>
       </c>
       <c r="G32" s="2">
-        <f>E32/10</f>
+        <f t="shared" si="0"/>
         <v>4.46</v>
       </c>
       <c r="H32" s="2">
-        <f>F32/10</f>
+        <f t="shared" si="1"/>
         <v>4.92</v>
       </c>
       <c r="I32" s="3" t="s">
@@ -27338,7 +27342,7 @@
         <v>138978</v>
       </c>
       <c r="K32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -27361,11 +27365,11 @@
         <v>49.5</v>
       </c>
       <c r="G33" s="2">
-        <f>E33/10</f>
+        <f t="shared" si="0"/>
         <v>4.45</v>
       </c>
       <c r="H33" s="2">
-        <f>F33/10</f>
+        <f t="shared" si="1"/>
         <v>4.95</v>
       </c>
       <c r="I33" s="3" t="s">
@@ -27375,7 +27379,7 @@
         <v>138978</v>
       </c>
       <c r="K33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -27398,11 +27402,11 @@
         <v>54.6</v>
       </c>
       <c r="G34" s="2">
-        <f>E34/10</f>
+        <f t="shared" ref="G34:G62" si="2">E34/10</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="H34" s="2">
-        <f>F34/10</f>
+        <f t="shared" ref="H34:H62" si="3">F34/10</f>
         <v>5.46</v>
       </c>
       <c r="I34" s="3" t="s">
@@ -27412,7 +27416,7 @@
         <v>138978</v>
       </c>
       <c r="K34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -27435,11 +27439,11 @@
         <v>49.6</v>
       </c>
       <c r="G35" s="2">
-        <f>E35/10</f>
+        <f t="shared" si="2"/>
         <v>4.3499999999999996</v>
       </c>
       <c r="H35" s="2">
-        <f>F35/10</f>
+        <f t="shared" si="3"/>
         <v>4.96</v>
       </c>
       <c r="I35" s="3" t="s">
@@ -27449,7 +27453,7 @@
         <v>138978</v>
       </c>
       <c r="K35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -27472,11 +27476,11 @@
         <v>42.8</v>
       </c>
       <c r="G36" s="2">
-        <f>E36/10</f>
+        <f t="shared" si="2"/>
         <v>3.87</v>
       </c>
       <c r="H36" s="2">
-        <f>F36/10</f>
+        <f t="shared" si="3"/>
         <v>4.2799999999999994</v>
       </c>
       <c r="I36" s="3" t="s">
@@ -27486,7 +27490,7 @@
         <v>138978</v>
       </c>
       <c r="K36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -27509,11 +27513,11 @@
         <v>49.9</v>
       </c>
       <c r="G37" s="2">
-        <f>E37/10</f>
+        <f t="shared" si="2"/>
         <v>4.41</v>
       </c>
       <c r="H37" s="2">
-        <f>F37/10</f>
+        <f t="shared" si="3"/>
         <v>4.99</v>
       </c>
       <c r="I37" s="3" t="s">
@@ -27523,7 +27527,7 @@
         <v>138978</v>
       </c>
       <c r="K37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -27546,11 +27550,11 @@
         <v>47.1</v>
       </c>
       <c r="G38" s="2">
-        <f>E38/10</f>
+        <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
       <c r="H38" s="2">
-        <f>F38/10</f>
+        <f t="shared" si="3"/>
         <v>4.71</v>
       </c>
       <c r="I38" s="3" t="s">
@@ -27560,7 +27564,7 @@
         <v>138978</v>
       </c>
       <c r="K38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -27583,11 +27587,11 @@
         <v>45.7</v>
       </c>
       <c r="G39" s="2">
-        <f>E39/10</f>
+        <f t="shared" si="2"/>
         <v>3.95</v>
       </c>
       <c r="H39" s="2">
-        <f>F39/10</f>
+        <f t="shared" si="3"/>
         <v>4.57</v>
       </c>
       <c r="I39" s="3" t="s">
@@ -27597,7 +27601,7 @@
         <v>138978</v>
       </c>
       <c r="K39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -27620,11 +27624,11 @@
         <v>44.6</v>
       </c>
       <c r="G40" s="2">
-        <f>E40/10</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H40" s="2">
-        <f>F40/10</f>
+        <f t="shared" si="3"/>
         <v>4.46</v>
       </c>
       <c r="I40" s="3" t="s">
@@ -27634,7 +27638,7 @@
         <v>138979</v>
       </c>
       <c r="K40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -27657,11 +27661,11 @@
         <v>49</v>
       </c>
       <c r="G41" s="2">
-        <f>E41/10</f>
+        <f t="shared" si="2"/>
         <v>4.25</v>
       </c>
       <c r="H41" s="2">
-        <f>F41/10</f>
+        <f t="shared" si="3"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="I41" s="3" t="s">
@@ -27671,7 +27675,7 @@
         <v>138979</v>
       </c>
       <c r="K41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -27694,11 +27698,11 @@
         <v>53.1</v>
       </c>
       <c r="G42" s="2">
-        <f>E42/10</f>
+        <f t="shared" si="2"/>
         <v>4.55</v>
       </c>
       <c r="H42" s="2">
-        <f>F42/10</f>
+        <f t="shared" si="3"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="I42" s="3" t="s">
@@ -27708,7 +27712,7 @@
         <v>138979</v>
       </c>
       <c r="K42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -27731,11 +27735,11 @@
         <v>51.9</v>
       </c>
       <c r="G43" s="2">
-        <f>E43/10</f>
+        <f t="shared" si="2"/>
         <v>4.5200000000000005</v>
       </c>
       <c r="H43" s="2">
-        <f>F43/10</f>
+        <f t="shared" si="3"/>
         <v>5.1899999999999995</v>
       </c>
       <c r="I43" s="3" t="s">
@@ -27745,7 +27749,7 @@
         <v>138979</v>
       </c>
       <c r="K43" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -27768,11 +27772,11 @@
         <v>59</v>
       </c>
       <c r="G44" s="2">
-        <f>E44/10</f>
+        <f t="shared" si="2"/>
         <v>5.16</v>
       </c>
       <c r="H44" s="2">
-        <f>F44/10</f>
+        <f t="shared" si="3"/>
         <v>5.9</v>
       </c>
       <c r="I44" s="3" t="s">
@@ -27782,7 +27786,7 @@
         <v>138979</v>
       </c>
       <c r="K44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -27805,11 +27809,11 @@
         <v>45</v>
       </c>
       <c r="G45" s="2">
-        <f>E45/10</f>
+        <f t="shared" si="2"/>
         <v>3.9200000000000004</v>
       </c>
       <c r="H45" s="2">
-        <f>F45/10</f>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="I45" s="3" t="s">
@@ -27819,7 +27823,7 @@
         <v>138979</v>
       </c>
       <c r="K45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -27842,11 +27846,11 @@
         <v>49.4</v>
       </c>
       <c r="G46" s="2">
-        <f>E46/10</f>
+        <f t="shared" si="2"/>
         <v>4.25</v>
       </c>
       <c r="H46" s="2">
-        <f>F46/10</f>
+        <f t="shared" si="3"/>
         <v>4.9399999999999995</v>
       </c>
       <c r="I46" s="3" t="s">
@@ -27856,7 +27860,7 @@
         <v>138979</v>
       </c>
       <c r="K46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -27879,11 +27883,11 @@
         <v>56</v>
       </c>
       <c r="G47" s="2">
-        <f>E47/10</f>
+        <f t="shared" si="2"/>
         <v>4.8100000000000005</v>
       </c>
       <c r="H47" s="2">
-        <f>F47/10</f>
+        <f t="shared" si="3"/>
         <v>5.6</v>
       </c>
       <c r="I47" s="3" t="s">
@@ -27893,7 +27897,7 @@
         <v>138979</v>
       </c>
       <c r="K47" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -27916,11 +27920,11 @@
         <v>50.3</v>
       </c>
       <c r="G48" s="2">
-        <f>E48/10</f>
+        <f t="shared" si="2"/>
         <v>4.38</v>
       </c>
       <c r="H48" s="2">
-        <f>F48/10</f>
+        <f t="shared" si="3"/>
         <v>5.0299999999999994</v>
       </c>
       <c r="I48" s="3" t="s">
@@ -27930,7 +27934,7 @@
         <v>138979</v>
       </c>
       <c r="K48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -27953,11 +27957,11 @@
         <v>55.2</v>
       </c>
       <c r="G49" s="2">
-        <f>E49/10</f>
+        <f t="shared" si="2"/>
         <v>4.75</v>
       </c>
       <c r="H49" s="2">
-        <f>F49/10</f>
+        <f t="shared" si="3"/>
         <v>5.5200000000000005</v>
       </c>
       <c r="I49" s="3" t="s">
@@ -27967,7 +27971,7 @@
         <v>138979</v>
       </c>
       <c r="K49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -27990,11 +27994,11 @@
         <v>49.6</v>
       </c>
       <c r="G50" s="2">
-        <f>E50/10</f>
+        <f t="shared" si="2"/>
         <v>4.32</v>
       </c>
       <c r="H50" s="2">
-        <f>F50/10</f>
+        <f t="shared" si="3"/>
         <v>4.96</v>
       </c>
       <c r="I50" s="3" t="s">
@@ -28004,7 +28008,7 @@
         <v>138979</v>
       </c>
       <c r="K50" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -28027,11 +28031,11 @@
         <v>49.7</v>
       </c>
       <c r="G51" s="2">
-        <f>E51/10</f>
+        <f t="shared" si="2"/>
         <v>4.43</v>
       </c>
       <c r="H51" s="2">
-        <f>F51/10</f>
+        <f t="shared" si="3"/>
         <v>4.9700000000000006</v>
       </c>
       <c r="I51" s="3" t="s">
@@ -28041,7 +28045,7 @@
         <v>138979</v>
       </c>
       <c r="K51" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -28064,11 +28068,11 @@
         <v>58.7</v>
       </c>
       <c r="G52" s="2">
-        <f>E52/10</f>
+        <f t="shared" si="2"/>
         <v>5.2299999999999995</v>
       </c>
       <c r="H52" s="2">
-        <f>F52/10</f>
+        <f t="shared" si="3"/>
         <v>5.87</v>
       </c>
       <c r="I52" s="3" t="s">
@@ -28078,7 +28082,7 @@
         <v>138979</v>
       </c>
       <c r="K52" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -28101,11 +28105,11 @@
         <v>50.5</v>
       </c>
       <c r="G53" s="2">
-        <f>E53/10</f>
+        <f t="shared" si="2"/>
         <v>4.33</v>
       </c>
       <c r="H53" s="2">
-        <f>F53/10</f>
+        <f t="shared" si="3"/>
         <v>5.05</v>
       </c>
       <c r="I53" s="3" t="s">
@@ -28115,7 +28119,7 @@
         <v>138979</v>
       </c>
       <c r="K53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -28138,11 +28142,11 @@
         <v>57.4</v>
       </c>
       <c r="G54" s="2">
-        <f>E54/10</f>
+        <f t="shared" si="2"/>
         <v>5.07</v>
       </c>
       <c r="H54" s="2">
-        <f>F54/10</f>
+        <f t="shared" si="3"/>
         <v>5.74</v>
       </c>
       <c r="I54" s="3" t="s">
@@ -28152,7 +28156,7 @@
         <v>138979</v>
       </c>
       <c r="K54" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -28175,11 +28179,11 @@
         <v>51.3</v>
       </c>
       <c r="G55" s="2">
-        <f>E55/10</f>
+        <f t="shared" si="2"/>
         <v>4.42</v>
       </c>
       <c r="H55" s="2">
-        <f>F55/10</f>
+        <f t="shared" si="3"/>
         <v>5.13</v>
       </c>
       <c r="I55" s="3" t="s">
@@ -28189,7 +28193,7 @@
         <v>138979</v>
       </c>
       <c r="K55" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -28212,11 +28216,11 @@
         <v>48.4</v>
       </c>
       <c r="G56" s="2">
-        <f>E56/10</f>
+        <f t="shared" si="2"/>
         <v>4.2200000000000006</v>
       </c>
       <c r="H56" s="2">
-        <f>F56/10</f>
+        <f t="shared" si="3"/>
         <v>4.84</v>
       </c>
       <c r="I56" s="3" t="s">
@@ -28226,7 +28230,7 @@
         <v>138979</v>
       </c>
       <c r="K56" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -28249,11 +28253,11 @@
         <v>45.5</v>
       </c>
       <c r="G57" s="2">
-        <f>E57/10</f>
+        <f t="shared" si="2"/>
         <v>3.96</v>
       </c>
       <c r="H57" s="2">
-        <f>F57/10</f>
+        <f t="shared" si="3"/>
         <v>4.55</v>
       </c>
       <c r="I57" s="3" t="s">
@@ -28263,7 +28267,7 @@
         <v>138979</v>
       </c>
       <c r="K57" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -28286,11 +28290,11 @@
         <v>53.8</v>
       </c>
       <c r="G58" s="2">
-        <f>E58/10</f>
+        <f t="shared" si="2"/>
         <v>4.57</v>
       </c>
       <c r="H58" s="2">
-        <f>F58/10</f>
+        <f t="shared" si="3"/>
         <v>5.38</v>
       </c>
       <c r="I58" s="3" t="s">
@@ -28300,7 +28304,7 @@
         <v>138979</v>
       </c>
       <c r="K58" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -28323,11 +28327,11 @@
         <v>54.7</v>
       </c>
       <c r="G59" s="2">
-        <f>E59/10</f>
+        <f t="shared" si="2"/>
         <v>4.76</v>
       </c>
       <c r="H59" s="2">
-        <f>F59/10</f>
+        <f t="shared" si="3"/>
         <v>5.4700000000000006</v>
       </c>
       <c r="I59" s="3" t="s">
@@ -28337,7 +28341,7 @@
         <v>138979</v>
       </c>
       <c r="K59" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -28360,11 +28364,11 @@
         <v>54</v>
       </c>
       <c r="G60" s="2">
-        <f>E60/10</f>
+        <f t="shared" si="2"/>
         <v>4.7299999999999995</v>
       </c>
       <c r="H60" s="2">
-        <f>F60/10</f>
+        <f t="shared" si="3"/>
         <v>5.4</v>
       </c>
       <c r="I60" s="3" t="s">
@@ -28374,7 +28378,7 @@
         <v>138979</v>
       </c>
       <c r="K60" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -28397,11 +28401,11 @@
         <v>51.4</v>
       </c>
       <c r="G61" s="2">
-        <f>E61/10</f>
+        <f t="shared" si="2"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="H61" s="2">
-        <f>F61/10</f>
+        <f t="shared" si="3"/>
         <v>5.14</v>
       </c>
       <c r="I61" s="3" t="s">
@@ -28411,7 +28415,7 @@
         <v>138979</v>
       </c>
       <c r="K61" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -28434,11 +28438,11 @@
         <v>46.1</v>
       </c>
       <c r="G62" s="2">
-        <f>E62/10</f>
+        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="H62" s="2">
-        <f>F62/10</f>
+        <f t="shared" si="3"/>
         <v>4.6100000000000003</v>
       </c>
       <c r="I62" s="3" t="s">
@@ -28448,7 +28452,7 @@
         <v>138979</v>
       </c>
       <c r="K62" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -28474,7 +28478,7 @@
         <v>4</v>
       </c>
       <c r="H63" s="2">
-        <f>F63/10</f>
+        <f t="shared" ref="H63:H94" si="4">F63/10</f>
         <v>4.54</v>
       </c>
       <c r="I63" s="3" t="s">
@@ -28484,7 +28488,7 @@
         <v>138979</v>
       </c>
       <c r="K63" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -28507,11 +28511,11 @@
         <v>38.1</v>
       </c>
       <c r="G64" s="2">
-        <f>E64/10</f>
+        <f t="shared" ref="G64:G95" si="5">E64/10</f>
         <v>3.35</v>
       </c>
       <c r="H64" s="2">
-        <f>F64/10</f>
+        <f t="shared" si="4"/>
         <v>3.81</v>
       </c>
       <c r="I64" s="3" t="s">
@@ -28521,7 +28525,7 @@
         <v>138979</v>
       </c>
       <c r="K64" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -28544,11 +28548,11 @@
         <v>38.6</v>
       </c>
       <c r="G65" s="2">
-        <f>E65/10</f>
+        <f t="shared" si="5"/>
         <v>3.4299999999999997</v>
       </c>
       <c r="H65" s="2">
-        <f>F65/10</f>
+        <f t="shared" si="4"/>
         <v>3.8600000000000003</v>
       </c>
       <c r="I65" s="3" t="s">
@@ -28558,7 +28562,7 @@
         <v>138979</v>
       </c>
       <c r="K65" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -28581,11 +28585,11 @@
         <v>54</v>
       </c>
       <c r="G66" s="2">
-        <f>E66/10</f>
+        <f t="shared" si="5"/>
         <v>4.75</v>
       </c>
       <c r="H66" s="2">
-        <f>F66/10</f>
+        <f t="shared" si="4"/>
         <v>5.4</v>
       </c>
       <c r="I66" s="3" t="s">
@@ -28595,7 +28599,7 @@
         <v>138979</v>
       </c>
       <c r="K66" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -28618,11 +28622,11 @@
         <v>43.5</v>
       </c>
       <c r="G67" s="2">
-        <f>E67/10</f>
+        <f t="shared" si="5"/>
         <v>3.8899999999999997</v>
       </c>
       <c r="H67" s="2">
-        <f>F67/10</f>
+        <f t="shared" si="4"/>
         <v>4.3499999999999996</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -28632,7 +28636,7 @@
         <v>138979</v>
       </c>
       <c r="K67" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -28655,11 +28659,11 @@
         <v>21</v>
       </c>
       <c r="G68" s="2">
-        <f>E68/10</f>
+        <f t="shared" si="5"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="H68" s="2">
-        <f>F68/10</f>
+        <f t="shared" si="4"/>
         <v>2.1</v>
       </c>
       <c r="I68" s="3" t="s">
@@ -28669,7 +28673,7 @@
         <v>150772</v>
       </c>
       <c r="K68" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -28692,11 +28696,11 @@
         <v>20.8</v>
       </c>
       <c r="G69" s="2">
-        <f>E69/10</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H69" s="2">
-        <f>F69/10</f>
+        <f t="shared" si="4"/>
         <v>2.08</v>
       </c>
       <c r="I69" s="3" t="s">
@@ -28706,7 +28710,7 @@
         <v>150772</v>
       </c>
       <c r="K69" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -28729,11 +28733,11 @@
         <v>18.899999999999999</v>
       </c>
       <c r="G70" s="2">
-        <f>E70/10</f>
+        <f t="shared" si="5"/>
         <v>1.7600000000000002</v>
       </c>
       <c r="H70" s="2">
-        <f>F70/10</f>
+        <f t="shared" si="4"/>
         <v>1.89</v>
       </c>
       <c r="I70" s="3" t="s">
@@ -28743,7 +28747,7 @@
         <v>150772</v>
       </c>
       <c r="K70" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -28766,11 +28770,11 @@
         <v>22</v>
       </c>
       <c r="G71" s="2">
-        <f>E71/10</f>
+        <f t="shared" si="5"/>
         <v>2.06</v>
       </c>
       <c r="H71" s="2">
-        <f>F71/10</f>
+        <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="I71" s="3" t="s">
@@ -28780,7 +28784,7 @@
         <v>150772</v>
       </c>
       <c r="K71" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -28803,11 +28807,11 @@
         <v>22.9</v>
       </c>
       <c r="G72" s="2">
-        <f>E72/10</f>
+        <f t="shared" si="5"/>
         <v>2.25</v>
       </c>
       <c r="H72" s="2">
-        <f>F72/10</f>
+        <f t="shared" si="4"/>
         <v>2.29</v>
       </c>
       <c r="I72" s="3" t="s">
@@ -28817,7 +28821,7 @@
         <v>150772</v>
       </c>
       <c r="K72" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -28840,11 +28844,11 @@
         <v>22.9</v>
       </c>
       <c r="G73" s="2">
-        <f>E73/10</f>
+        <f t="shared" si="5"/>
         <v>2.19</v>
       </c>
       <c r="H73" s="2">
-        <f>F73/10</f>
+        <f t="shared" si="4"/>
         <v>2.29</v>
       </c>
       <c r="I73" s="3" t="s">
@@ -28854,7 +28858,7 @@
         <v>150772</v>
       </c>
       <c r="K73" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -28877,11 +28881,11 @@
         <v>20.100000000000001</v>
       </c>
       <c r="G74" s="2">
-        <f>E74/10</f>
+        <f t="shared" si="5"/>
         <v>1.89</v>
       </c>
       <c r="H74" s="2">
-        <f>F74/10</f>
+        <f t="shared" si="4"/>
         <v>2.0100000000000002</v>
       </c>
       <c r="I74" s="3" t="s">
@@ -28891,7 +28895,7 @@
         <v>150772</v>
       </c>
       <c r="K74" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -28914,11 +28918,11 @@
         <v>23.5</v>
       </c>
       <c r="G75" s="2">
-        <f>E75/10</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H75" s="2">
-        <f>F75/10</f>
+        <f t="shared" si="4"/>
         <v>2.35</v>
       </c>
       <c r="I75" s="3" t="s">
@@ -28928,7 +28932,7 @@
         <v>150772</v>
       </c>
       <c r="K75" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -28951,11 +28955,11 @@
         <v>25.3</v>
       </c>
       <c r="G76" s="2">
-        <f>E76/10</f>
+        <f t="shared" si="5"/>
         <v>2.3199999999999998</v>
       </c>
       <c r="H76" s="2">
-        <f>F76/10</f>
+        <f t="shared" si="4"/>
         <v>2.5300000000000002</v>
       </c>
       <c r="I76" s="3" t="s">
@@ -28965,7 +28969,7 @@
         <v>150772</v>
       </c>
       <c r="K76" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -28988,11 +28992,11 @@
         <v>22.3</v>
       </c>
       <c r="G77" s="2">
-        <f>E77/10</f>
+        <f t="shared" si="5"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="H77" s="2">
-        <f>F77/10</f>
+        <f t="shared" si="4"/>
         <v>2.23</v>
       </c>
       <c r="I77" s="3" t="s">
@@ -29002,7 +29006,7 @@
         <v>150772</v>
       </c>
       <c r="K77" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -29025,11 +29029,11 @@
         <v>23.6</v>
       </c>
       <c r="G78" s="2">
-        <f>E78/10</f>
+        <f t="shared" si="5"/>
         <v>2.2399999999999998</v>
       </c>
       <c r="H78" s="2">
-        <f>F78/10</f>
+        <f t="shared" si="4"/>
         <v>2.3600000000000003</v>
       </c>
       <c r="I78" s="3" t="s">
@@ -29039,7 +29043,7 @@
         <v>150772</v>
       </c>
       <c r="K78" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -29062,11 +29066,11 @@
         <v>22.7</v>
       </c>
       <c r="G79" s="2">
-        <f>E79/10</f>
+        <f t="shared" si="5"/>
         <v>2.15</v>
       </c>
       <c r="H79" s="2">
-        <f>F79/10</f>
+        <f t="shared" si="4"/>
         <v>2.27</v>
       </c>
       <c r="I79" s="3" t="s">
@@ -29076,7 +29080,7 @@
         <v>150772</v>
       </c>
       <c r="K79" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -29099,11 +29103,11 @@
         <v>22.2</v>
       </c>
       <c r="G80" s="2">
-        <f>E80/10</f>
+        <f t="shared" si="5"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="H80" s="2">
-        <f>F80/10</f>
+        <f t="shared" si="4"/>
         <v>2.2199999999999998</v>
       </c>
       <c r="I80" s="3" t="s">
@@ -29113,7 +29117,7 @@
         <v>150772</v>
       </c>
       <c r="K80" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -29136,11 +29140,11 @@
         <v>23.7</v>
       </c>
       <c r="G81" s="2">
-        <f>E81/10</f>
+        <f t="shared" si="5"/>
         <v>2.1399999999999997</v>
       </c>
       <c r="H81" s="2">
-        <f>F81/10</f>
+        <f t="shared" si="4"/>
         <v>2.37</v>
       </c>
       <c r="I81" s="3" t="s">
@@ -29150,7 +29154,7 @@
         <v>150772</v>
       </c>
       <c r="K81" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -29173,11 +29177,11 @@
         <v>23</v>
       </c>
       <c r="G82" s="2">
-        <f>E82/10</f>
+        <f t="shared" si="5"/>
         <v>2.1</v>
       </c>
       <c r="H82" s="2">
-        <f>F82/10</f>
+        <f t="shared" si="4"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="I82" s="3" t="s">
@@ -29187,7 +29191,7 @@
         <v>150772</v>
       </c>
       <c r="K82" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -29210,11 +29214,11 @@
         <v>23.8</v>
       </c>
       <c r="G83" s="2">
-        <f>E83/10</f>
+        <f t="shared" si="5"/>
         <v>2.25</v>
       </c>
       <c r="H83" s="2">
-        <f>F83/10</f>
+        <f t="shared" si="4"/>
         <v>2.38</v>
       </c>
       <c r="I83" s="3" t="s">
@@ -29224,7 +29228,7 @@
         <v>150772</v>
       </c>
       <c r="K83" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -29247,11 +29251,11 @@
         <v>21.6</v>
       </c>
       <c r="G84" s="2">
-        <f>E84/10</f>
+        <f t="shared" si="5"/>
         <v>1.98</v>
       </c>
       <c r="H84" s="2">
-        <f>F84/10</f>
+        <f t="shared" si="4"/>
         <v>2.16</v>
       </c>
       <c r="I84" s="3" t="s">
@@ -29261,7 +29265,7 @@
         <v>150772</v>
       </c>
       <c r="K84" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -29284,11 +29288,11 @@
         <v>23.6</v>
       </c>
       <c r="G85" s="2">
-        <f>E85/10</f>
+        <f t="shared" si="5"/>
         <v>2.23</v>
       </c>
       <c r="H85" s="2">
-        <f>F85/10</f>
+        <f t="shared" si="4"/>
         <v>2.3600000000000003</v>
       </c>
       <c r="I85" s="3" t="s">
@@ -29298,7 +29302,7 @@
         <v>150772</v>
       </c>
       <c r="K85" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -29321,11 +29325,11 @@
         <v>27.9</v>
       </c>
       <c r="G86" s="2">
-        <f>E86/10</f>
+        <f t="shared" si="5"/>
         <v>2.06</v>
       </c>
       <c r="H86" s="2">
-        <f>F86/10</f>
+        <f t="shared" si="4"/>
         <v>2.79</v>
       </c>
       <c r="I86" s="3" t="s">
@@ -29335,7 +29339,7 @@
         <v>150772</v>
       </c>
       <c r="K86" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -29358,11 +29362,11 @@
         <v>23.8</v>
       </c>
       <c r="G87" s="2">
-        <f>E87/10</f>
+        <f t="shared" si="5"/>
         <v>2.21</v>
       </c>
       <c r="H87" s="2">
-        <f>F87/10</f>
+        <f t="shared" si="4"/>
         <v>2.38</v>
       </c>
       <c r="I87" s="3" t="s">
@@ -29372,7 +29376,7 @@
         <v>150772</v>
       </c>
       <c r="K87" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -29395,11 +29399,11 @@
         <v>19.899999999999999</v>
       </c>
       <c r="G88" s="2">
-        <f>E88/10</f>
+        <f t="shared" si="5"/>
         <v>1.86</v>
       </c>
       <c r="H88" s="2">
-        <f>F88/10</f>
+        <f t="shared" si="4"/>
         <v>1.9899999999999998</v>
       </c>
       <c r="I88" s="3" t="s">
@@ -29409,7 +29413,7 @@
         <v>150772</v>
       </c>
       <c r="K88" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -29432,11 +29436,11 @@
         <v>22.7</v>
       </c>
       <c r="G89" s="2">
-        <f>E89/10</f>
+        <f t="shared" si="5"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="H89" s="2">
-        <f>F89/10</f>
+        <f t="shared" si="4"/>
         <v>2.27</v>
       </c>
       <c r="I89" s="3" t="s">
@@ -29446,7 +29450,7 @@
         <v>150772</v>
       </c>
       <c r="K89" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -29469,11 +29473,11 @@
         <v>21.1</v>
       </c>
       <c r="G90" s="2">
-        <f>E90/10</f>
+        <f t="shared" si="5"/>
         <v>1.8800000000000001</v>
       </c>
       <c r="H90" s="2">
-        <f>F90/10</f>
+        <f t="shared" si="4"/>
         <v>2.1100000000000003</v>
       </c>
       <c r="I90" s="3" t="s">
@@ -29483,7 +29487,7 @@
         <v>150772</v>
       </c>
       <c r="K90" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -29506,11 +29510,11 @@
         <v>23.6</v>
       </c>
       <c r="G91" s="2">
-        <f>E91/10</f>
+        <f t="shared" si="5"/>
         <v>2.16</v>
       </c>
       <c r="H91" s="2">
-        <f>F91/10</f>
+        <f t="shared" si="4"/>
         <v>2.3600000000000003</v>
       </c>
       <c r="I91" s="3" t="s">
@@ -29520,7 +29524,7 @@
         <v>150772</v>
       </c>
       <c r="K91" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -29543,11 +29547,11 @@
         <v>22.8</v>
       </c>
       <c r="G92" s="2">
-        <f>E92/10</f>
+        <f t="shared" si="5"/>
         <v>2.16</v>
       </c>
       <c r="H92" s="2">
-        <f>F92/10</f>
+        <f t="shared" si="4"/>
         <v>2.2800000000000002</v>
       </c>
       <c r="I92" s="3" t="s">
@@ -29557,7 +29561,7 @@
         <v>150772</v>
       </c>
       <c r="K92" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -29580,11 +29584,11 @@
         <v>21.4</v>
       </c>
       <c r="G93" s="2">
-        <f>E93/10</f>
+        <f t="shared" si="5"/>
         <v>1.97</v>
       </c>
       <c r="H93" s="2">
-        <f>F93/10</f>
+        <f t="shared" si="4"/>
         <v>2.1399999999999997</v>
       </c>
       <c r="I93" s="3" t="s">
@@ -29594,7 +29598,7 @@
         <v>150772</v>
       </c>
       <c r="K93" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -29617,11 +29621,11 @@
         <v>50.4</v>
       </c>
       <c r="G94" s="2">
-        <f>E94/10</f>
+        <f t="shared" si="5"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="H94" s="2">
-        <f>F94/10</f>
+        <f t="shared" si="4"/>
         <v>5.04</v>
       </c>
       <c r="I94" s="3" t="s">
@@ -29631,7 +29635,7 @@
         <v>138969</v>
       </c>
       <c r="K94" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -29654,11 +29658,11 @@
         <v>60</v>
       </c>
       <c r="G95" s="2">
-        <f>E95/10</f>
+        <f t="shared" si="5"/>
         <v>5.34</v>
       </c>
       <c r="H95" s="2">
-        <f>F95/10</f>
+        <f t="shared" ref="H95:H125" si="6">F95/10</f>
         <v>6</v>
       </c>
       <c r="I95" s="3" t="s">
@@ -29668,7 +29672,7 @@
         <v>138969</v>
       </c>
       <c r="K95" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -29691,11 +29695,11 @@
         <v>56.5</v>
       </c>
       <c r="G96" s="2">
-        <f>E96/10</f>
+        <f t="shared" ref="G96:G125" si="7">E96/10</f>
         <v>5.15</v>
       </c>
       <c r="H96" s="2">
-        <f>F96/10</f>
+        <f t="shared" si="6"/>
         <v>5.65</v>
       </c>
       <c r="I96" s="3" t="s">
@@ -29705,7 +29709,7 @@
         <v>138969</v>
       </c>
       <c r="K96" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -29728,11 +29732,11 @@
         <v>52.3</v>
       </c>
       <c r="G97" s="2">
-        <f>E97/10</f>
+        <f t="shared" si="7"/>
         <v>4.88</v>
       </c>
       <c r="H97" s="2">
-        <f>F97/10</f>
+        <f t="shared" si="6"/>
         <v>5.2299999999999995</v>
       </c>
       <c r="I97" s="3" t="s">
@@ -29742,7 +29746,7 @@
         <v>138969</v>
       </c>
       <c r="K97" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -29765,11 +29769,11 @@
         <v>57.5</v>
       </c>
       <c r="G98" s="2">
-        <f>E98/10</f>
+        <f t="shared" si="7"/>
         <v>5.26</v>
       </c>
       <c r="H98" s="2">
-        <f>F98/10</f>
+        <f t="shared" si="6"/>
         <v>5.75</v>
       </c>
       <c r="I98" s="3" t="s">
@@ -29779,7 +29783,7 @@
         <v>138969</v>
       </c>
       <c r="K98" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -29802,11 +29806,11 @@
         <v>46.1</v>
       </c>
       <c r="G99" s="2">
-        <f>E99/10</f>
+        <f t="shared" si="7"/>
         <v>4.0200000000000005</v>
       </c>
       <c r="H99" s="2">
-        <f>F99/10</f>
+        <f t="shared" si="6"/>
         <v>4.6100000000000003</v>
       </c>
       <c r="I99" s="3" t="s">
@@ -29816,7 +29820,7 @@
         <v>138969</v>
       </c>
       <c r="K99" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -29839,11 +29843,11 @@
         <v>58.9</v>
       </c>
       <c r="G100" s="2">
-        <f>E100/10</f>
+        <f t="shared" si="7"/>
         <v>5.45</v>
       </c>
       <c r="H100" s="2">
-        <f>F100/10</f>
+        <f t="shared" si="6"/>
         <v>5.89</v>
       </c>
       <c r="I100" s="3" t="s">
@@ -29853,7 +29857,7 @@
         <v>138969</v>
       </c>
       <c r="K100" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -29876,11 +29880,11 @@
         <v>60.7</v>
       </c>
       <c r="G101" s="2">
-        <f>E101/10</f>
+        <f t="shared" si="7"/>
         <v>5.4799999999999995</v>
       </c>
       <c r="H101" s="2">
-        <f>F101/10</f>
+        <f t="shared" si="6"/>
         <v>6.07</v>
       </c>
       <c r="I101" s="3" t="s">
@@ -29890,7 +29894,7 @@
         <v>138969</v>
       </c>
       <c r="K101" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -29913,11 +29917,11 @@
         <v>38.4</v>
       </c>
       <c r="G102" s="2">
-        <f>E102/10</f>
+        <f t="shared" si="7"/>
         <v>3.45</v>
       </c>
       <c r="H102" s="2">
-        <f>F102/10</f>
+        <f t="shared" si="6"/>
         <v>3.84</v>
       </c>
       <c r="I102" s="3" t="s">
@@ -29927,7 +29931,7 @@
         <v>138969</v>
       </c>
       <c r="K102" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -29950,11 +29954,11 @@
         <v>52</v>
       </c>
       <c r="G103" s="2">
-        <f>E103/10</f>
+        <f t="shared" si="7"/>
         <v>4.68</v>
       </c>
       <c r="H103" s="2">
-        <f>F103/10</f>
+        <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
       <c r="I103" s="3" t="s">
@@ -29964,7 +29968,7 @@
         <v>138969</v>
       </c>
       <c r="K103" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -29987,11 +29991,11 @@
         <v>56</v>
       </c>
       <c r="G104" s="2">
-        <f>E104/10</f>
+        <f t="shared" si="7"/>
         <v>4.93</v>
       </c>
       <c r="H104" s="2">
-        <f>F104/10</f>
+        <f t="shared" si="6"/>
         <v>5.6</v>
       </c>
       <c r="I104" s="3" t="s">
@@ -30001,7 +30005,7 @@
         <v>138969</v>
       </c>
       <c r="K104" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -30024,11 +30028,11 @@
         <v>47.4</v>
       </c>
       <c r="G105" s="2">
-        <f>E105/10</f>
+        <f t="shared" si="7"/>
         <v>4.29</v>
       </c>
       <c r="H105" s="2">
-        <f>F105/10</f>
+        <f t="shared" si="6"/>
         <v>4.74</v>
       </c>
       <c r="I105" s="3" t="s">
@@ -30038,7 +30042,7 @@
         <v>138969</v>
       </c>
       <c r="K105" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -30061,11 +30065,11 @@
         <v>54.4</v>
       </c>
       <c r="G106" s="2">
-        <f>E106/10</f>
+        <f t="shared" si="7"/>
         <v>4.96</v>
       </c>
       <c r="H106" s="2">
-        <f>F106/10</f>
+        <f t="shared" si="6"/>
         <v>5.4399999999999995</v>
       </c>
       <c r="I106" s="3" t="s">
@@ -30075,7 +30079,7 @@
         <v>138969</v>
       </c>
       <c r="K106" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -30098,11 +30102,11 @@
         <v>56.4</v>
       </c>
       <c r="G107" s="2">
-        <f>E107/10</f>
+        <f t="shared" si="7"/>
         <v>4.96</v>
       </c>
       <c r="H107" s="2">
-        <f>F107/10</f>
+        <f t="shared" si="6"/>
         <v>5.64</v>
       </c>
       <c r="I107" s="3" t="s">
@@ -30112,7 +30116,7 @@
         <v>138969</v>
       </c>
       <c r="K107" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -30135,11 +30139,11 @@
         <v>50.3</v>
       </c>
       <c r="G108" s="2">
-        <f>E108/10</f>
+        <f t="shared" si="7"/>
         <v>4.5600000000000005</v>
       </c>
       <c r="H108" s="2">
-        <f>F108/10</f>
+        <f t="shared" si="6"/>
         <v>5.0299999999999994</v>
       </c>
       <c r="I108" s="3" t="s">
@@ -30149,7 +30153,7 @@
         <v>138969</v>
       </c>
       <c r="K108" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -30172,11 +30176,11 @@
         <v>49.8</v>
       </c>
       <c r="G109" s="2">
-        <f>E109/10</f>
+        <f t="shared" si="7"/>
         <v>4.32</v>
       </c>
       <c r="H109" s="2">
-        <f>F109/10</f>
+        <f t="shared" si="6"/>
         <v>4.9799999999999995</v>
       </c>
       <c r="I109" s="3" t="s">
@@ -30186,7 +30190,7 @@
         <v>138969</v>
       </c>
       <c r="K109" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -30209,11 +30213,11 @@
         <v>47.6</v>
       </c>
       <c r="G110" s="2">
-        <f>E110/10</f>
+        <f t="shared" si="7"/>
         <v>4.2299999999999995</v>
       </c>
       <c r="H110" s="2">
-        <f>F110/10</f>
+        <f t="shared" si="6"/>
         <v>4.76</v>
       </c>
       <c r="I110" s="3" t="s">
@@ -30223,7 +30227,7 @@
         <v>138969</v>
       </c>
       <c r="K110" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -30246,11 +30250,11 @@
         <v>56.7</v>
       </c>
       <c r="G111" s="2">
-        <f>E111/10</f>
+        <f t="shared" si="7"/>
         <v>5.12</v>
       </c>
       <c r="H111" s="2">
-        <f>F111/10</f>
+        <f t="shared" si="6"/>
         <v>5.67</v>
       </c>
       <c r="I111" s="3" t="s">
@@ -30260,7 +30264,7 @@
         <v>138969</v>
       </c>
       <c r="K111" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -30283,11 +30287,11 @@
         <v>53.6</v>
       </c>
       <c r="G112" s="2">
-        <f>E112/10</f>
+        <f t="shared" si="7"/>
         <v>4.87</v>
       </c>
       <c r="H112" s="2">
-        <f>F112/10</f>
+        <f t="shared" si="6"/>
         <v>5.36</v>
       </c>
       <c r="I112" s="3" t="s">
@@ -30297,7 +30301,7 @@
         <v>138969</v>
       </c>
       <c r="K112" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -30320,11 +30324,11 @@
         <v>50.8</v>
       </c>
       <c r="G113" s="2">
-        <f>E113/10</f>
+        <f t="shared" si="7"/>
         <v>4.68</v>
       </c>
       <c r="H113" s="2">
-        <f>F113/10</f>
+        <f t="shared" si="6"/>
         <v>5.08</v>
       </c>
       <c r="I113" s="3" t="s">
@@ -30334,7 +30338,7 @@
         <v>138969</v>
       </c>
       <c r="K113" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -30357,11 +30361,11 @@
         <v>46.1</v>
       </c>
       <c r="G114" s="2">
-        <f>E114/10</f>
+        <f t="shared" si="7"/>
         <v>4.21</v>
       </c>
       <c r="H114" s="2">
-        <f>F114/10</f>
+        <f t="shared" si="6"/>
         <v>4.6100000000000003</v>
       </c>
       <c r="I114" s="3" t="s">
@@ -30371,7 +30375,7 @@
         <v>138969</v>
       </c>
       <c r="K114" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -30394,11 +30398,11 @@
         <v>46.3</v>
       </c>
       <c r="G115" s="2">
-        <f>E115/10</f>
+        <f t="shared" si="7"/>
         <v>4.1899999999999995</v>
       </c>
       <c r="H115" s="2">
-        <f>F115/10</f>
+        <f t="shared" si="6"/>
         <v>4.63</v>
       </c>
       <c r="I115" s="3" t="s">
@@ -30408,7 +30412,7 @@
         <v>138969</v>
       </c>
       <c r="K115" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -30431,11 +30435,11 @@
         <v>57</v>
       </c>
       <c r="G116" s="2">
-        <f>E116/10</f>
+        <f t="shared" si="7"/>
         <v>5.14</v>
       </c>
       <c r="H116" s="2">
-        <f>F116/10</f>
+        <f t="shared" si="6"/>
         <v>5.7</v>
       </c>
       <c r="I116" s="3" t="s">
@@ -30445,7 +30449,7 @@
         <v>138969</v>
       </c>
       <c r="K116" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -30468,11 +30472,11 @@
         <v>54.1</v>
       </c>
       <c r="G117" s="2">
-        <f>E117/10</f>
+        <f t="shared" si="7"/>
         <v>4.92</v>
       </c>
       <c r="H117" s="2">
-        <f>F117/10</f>
+        <f t="shared" si="6"/>
         <v>5.41</v>
       </c>
       <c r="I117" s="3" t="s">
@@ -30482,7 +30486,7 @@
         <v>138969</v>
       </c>
       <c r="K117" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -30505,11 +30509,11 @@
         <v>57</v>
       </c>
       <c r="G118" s="2">
-        <f>E118/10</f>
+        <f t="shared" si="7"/>
         <v>5.18</v>
       </c>
       <c r="H118" s="2">
-        <f>F118/10</f>
+        <f t="shared" si="6"/>
         <v>5.7</v>
       </c>
       <c r="I118" s="3" t="s">
@@ -30519,7 +30523,7 @@
         <v>138969</v>
       </c>
       <c r="K118" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -30542,11 +30546,11 @@
         <v>54.5</v>
       </c>
       <c r="G119" s="2">
-        <f>E119/10</f>
+        <f t="shared" si="7"/>
         <v>4.7700000000000005</v>
       </c>
       <c r="H119" s="2">
-        <f>F119/10</f>
+        <f t="shared" si="6"/>
         <v>5.45</v>
       </c>
       <c r="I119" s="3" t="s">
@@ -30556,7 +30560,7 @@
         <v>138969</v>
       </c>
       <c r="K119" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -30579,11 +30583,11 @@
         <v>34.200000000000003</v>
       </c>
       <c r="G120" s="2">
-        <f>E120/10</f>
+        <f t="shared" si="7"/>
         <v>3.1</v>
       </c>
       <c r="H120" s="2">
-        <f>F120/10</f>
+        <f t="shared" si="6"/>
         <v>3.4200000000000004</v>
       </c>
       <c r="I120" s="3" t="s">
@@ -30593,7 +30597,7 @@
         <v>138969</v>
       </c>
       <c r="K120" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -30616,11 +30620,11 @@
         <v>62</v>
       </c>
       <c r="G121" s="2">
-        <f>E121/10</f>
+        <f t="shared" si="7"/>
         <v>5.5200000000000005</v>
       </c>
       <c r="H121" s="2">
-        <f>F121/10</f>
+        <f t="shared" si="6"/>
         <v>6.2</v>
       </c>
       <c r="I121" s="3" t="s">
@@ -30630,7 +30634,7 @@
         <v>138969</v>
       </c>
       <c r="K121" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -30653,11 +30657,11 @@
         <v>46.7</v>
       </c>
       <c r="G122" s="2">
-        <f>E122/10</f>
+        <f t="shared" si="7"/>
         <v>4.1500000000000004</v>
       </c>
       <c r="H122" s="2">
-        <f>F122/10</f>
+        <f t="shared" si="6"/>
         <v>4.67</v>
       </c>
       <c r="I122" s="3" t="s">
@@ -30667,7 +30671,7 @@
         <v>138969</v>
       </c>
       <c r="K122" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -30690,11 +30694,11 @@
         <v>48.8</v>
       </c>
       <c r="G123" s="2">
-        <f>E123/10</f>
+        <f t="shared" si="7"/>
         <v>4.46</v>
       </c>
       <c r="H123" s="2">
-        <f>F123/10</f>
+        <f t="shared" si="6"/>
         <v>4.88</v>
       </c>
       <c r="I123" s="3" t="s">
@@ -30704,7 +30708,7 @@
         <v>138969</v>
       </c>
       <c r="K123" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -30727,11 +30731,11 @@
         <v>46.5</v>
       </c>
       <c r="G124" s="2">
-        <f>E124/10</f>
+        <f t="shared" si="7"/>
         <v>4.2799999999999994</v>
       </c>
       <c r="H124" s="2">
-        <f>F124/10</f>
+        <f t="shared" si="6"/>
         <v>4.6500000000000004</v>
       </c>
       <c r="I124" s="3" t="s">
@@ -30741,7 +30745,7 @@
         <v>138969</v>
       </c>
       <c r="K124" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -30764,11 +30768,11 @@
         <v>46.7</v>
       </c>
       <c r="G125" s="2">
-        <f>E125/10</f>
+        <f t="shared" si="7"/>
         <v>4.29</v>
       </c>
       <c r="H125" s="2">
-        <f>F125/10</f>
+        <f t="shared" si="6"/>
         <v>4.67</v>
       </c>
       <c r="I125" s="3" t="s">
@@ -30778,7 +30782,7 @@
         <v>138969</v>
       </c>
       <c r="K125" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -30790,7 +30794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A9004-4946-46ED-81D6-C124B8856BC0}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -30865,7 +30869,7 @@
         <v>138930</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -30902,7 +30906,7 @@
         <v>138930</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -30939,7 +30943,7 @@
         <v>138930</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -30976,7 +30980,7 @@
         <v>138930</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -31013,7 +31017,7 @@
         <v>138930</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -31050,7 +31054,7 @@
         <v>138930</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -31087,7 +31091,7 @@
         <v>138930</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -31124,7 +31128,7 @@
         <v>138930</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -31161,7 +31165,7 @@
         <v>138930</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -31198,7 +31202,7 @@
         <v>138930</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -31235,7 +31239,7 @@
         <v>138930</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -31272,7 +31276,7 @@
         <v>138930</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -31309,7 +31313,7 @@
         <v>138930</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -31346,7 +31350,7 @@
         <v>138930</v>
       </c>
       <c r="K15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -31383,7 +31387,7 @@
         <v>138930</v>
       </c>
       <c r="K16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -31420,7 +31424,7 @@
         <v>138930</v>
       </c>
       <c r="K17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -31457,7 +31461,7 @@
         <v>138930</v>
       </c>
       <c r="K18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -31494,7 +31498,7 @@
         <v>138930</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -31531,7 +31535,7 @@
         <v>138930</v>
       </c>
       <c r="K20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -31568,7 +31572,7 @@
         <v>138930</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -31605,7 +31609,7 @@
         <v>138930</v>
       </c>
       <c r="K22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -31642,7 +31646,7 @@
         <v>138930</v>
       </c>
       <c r="K23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -31679,7 +31683,7 @@
         <v>138930</v>
       </c>
       <c r="K24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -31716,7 +31720,7 @@
         <v>138930</v>
       </c>
       <c r="K25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -31753,7 +31757,7 @@
         <v>138930</v>
       </c>
       <c r="K26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -31790,7 +31794,7 @@
         <v>138930</v>
       </c>
       <c r="K27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -31827,7 +31831,7 @@
         <v>138930</v>
       </c>
       <c r="K28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -31864,7 +31868,7 @@
         <v>138930</v>
       </c>
       <c r="K29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -31901,7 +31905,7 @@
         <v>138930</v>
       </c>
       <c r="K30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -31938,7 +31942,7 @@
         <v>138930</v>
       </c>
       <c r="K31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -31975,7 +31979,7 @@
         <v>138930</v>
       </c>
       <c r="K32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -32012,7 +32016,7 @@
         <v>138930</v>
       </c>
       <c r="K33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -32049,7 +32053,7 @@
         <v>138930</v>
       </c>
       <c r="K34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -32086,7 +32090,7 @@
         <v>138930</v>
       </c>
       <c r="K35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -32123,7 +32127,7 @@
         <v>138930</v>
       </c>
       <c r="K36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -32160,7 +32164,7 @@
         <v>138930</v>
       </c>
       <c r="K37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -32197,7 +32201,7 @@
         <v>138930</v>
       </c>
       <c r="K38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -32234,7 +32238,7 @@
         <v>138930</v>
       </c>
       <c r="K39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -32271,7 +32275,7 @@
         <v>138930</v>
       </c>
       <c r="K40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -32308,7 +32312,7 @@
         <v>138930</v>
       </c>
       <c r="K41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -32345,7 +32349,7 @@
         <v>138930</v>
       </c>
       <c r="K42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -32382,7 +32386,7 @@
         <v>138930</v>
       </c>
       <c r="K43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -32419,7 +32423,7 @@
         <v>120834</v>
       </c>
       <c r="K44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -32456,7 +32460,7 @@
         <v>120834</v>
       </c>
       <c r="K45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -32493,7 +32497,7 @@
         <v>120834</v>
       </c>
       <c r="K46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -32530,7 +32534,7 @@
         <v>120834</v>
       </c>
       <c r="K47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -32567,7 +32571,7 @@
         <v>120834</v>
       </c>
       <c r="K48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -32604,7 +32608,7 @@
         <v>120834</v>
       </c>
       <c r="K49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -32641,7 +32645,7 @@
         <v>120834</v>
       </c>
       <c r="K50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -32678,7 +32682,7 @@
         <v>120834</v>
       </c>
       <c r="K51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -32715,7 +32719,7 @@
         <v>120834</v>
       </c>
       <c r="K52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -32752,7 +32756,7 @@
         <v>120834</v>
       </c>
       <c r="K53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -32789,7 +32793,7 @@
         <v>120834</v>
       </c>
       <c r="K54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -32826,7 +32830,7 @@
         <v>120834</v>
       </c>
       <c r="K55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -32863,7 +32867,7 @@
         <v>120834</v>
       </c>
       <c r="K56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -32900,7 +32904,7 @@
         <v>120834</v>
       </c>
       <c r="K57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -32937,7 +32941,7 @@
         <v>120834</v>
       </c>
       <c r="K58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -32974,7 +32978,7 @@
         <v>120834</v>
       </c>
       <c r="K59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -33011,7 +33015,7 @@
         <v>120834</v>
       </c>
       <c r="K60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -33048,7 +33052,7 @@
         <v>120834</v>
       </c>
       <c r="K61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -33085,7 +33089,7 @@
         <v>120834</v>
       </c>
       <c r="K62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -33122,7 +33126,7 @@
         <v>120834</v>
       </c>
       <c r="K63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -33159,7 +33163,7 @@
         <v>120834</v>
       </c>
       <c r="K64" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -33196,7 +33200,7 @@
         <v>120834</v>
       </c>
       <c r="K65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -33233,7 +33237,7 @@
         <v>120834</v>
       </c>
       <c r="K66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -33270,7 +33274,7 @@
         <v>120834</v>
       </c>
       <c r="K67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -33307,7 +33311,7 @@
         <v>120834</v>
       </c>
       <c r="K68" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -33344,7 +33348,7 @@
         <v>120834</v>
       </c>
       <c r="K69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Albatross_LWR_data/Albatross_LWR_Data.xlsx
+++ b/Data/Albatross_LWR_data/Albatross_LWR_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\AlbatrossPhillipinesLWR\Data\Albatross_LWR_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77A0EBF-31DB-451A-92F5-400F39988BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4594368E-1F69-4635-B6CD-9B601B13ED6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="13152" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Siganus fuscescens" sheetId="1" r:id="rId1"/>
@@ -194,9 +194,6 @@
     <t>Luzon_Port_San_Vicente</t>
   </si>
   <si>
-    <t>Linapacan_Island</t>
-  </si>
-  <si>
     <t>Gulf_of_Davao_Mindinao</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>Nakoda_Bay_Palawan</t>
+  </si>
+  <si>
+    <t>Port_San_Vicente_Luzon</t>
   </si>
 </sst>
 </file>
@@ -2977,7 +2977,7 @@
         <v>136752</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3014,7 +3014,7 @@
         <v>136752</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3051,7 +3051,7 @@
         <v>136752</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3088,7 +3088,7 @@
         <v>136752</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3125,7 +3125,7 @@
         <v>136752</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3162,7 +3162,7 @@
         <v>136752</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3199,7 +3199,7 @@
         <v>136752</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3236,7 +3236,7 @@
         <v>136752</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3273,7 +3273,7 @@
         <v>136752</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3310,7 +3310,7 @@
         <v>136752</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3347,7 +3347,7 @@
         <v>136752</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3384,7 +3384,7 @@
         <v>136752</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3421,7 +3421,7 @@
         <v>136752</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3458,7 +3458,7 @@
         <v>136752</v>
       </c>
       <c r="K15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3495,7 +3495,7 @@
         <v>136752</v>
       </c>
       <c r="K16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3532,7 +3532,7 @@
         <v>136752</v>
       </c>
       <c r="K17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3569,7 +3569,7 @@
         <v>136752</v>
       </c>
       <c r="K18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3606,7 +3606,7 @@
         <v>136752</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3643,7 +3643,7 @@
         <v>136752</v>
       </c>
       <c r="K20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3680,7 +3680,7 @@
         <v>136752</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3717,7 +3717,7 @@
         <v>136752</v>
       </c>
       <c r="K22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3754,7 +3754,7 @@
         <v>136752</v>
       </c>
       <c r="K23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3791,7 +3791,7 @@
         <v>136752</v>
       </c>
       <c r="K24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3828,7 +3828,7 @@
         <v>136726</v>
       </c>
       <c r="K25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3865,7 +3865,7 @@
         <v>136726</v>
       </c>
       <c r="K26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3902,7 +3902,7 @@
         <v>136726</v>
       </c>
       <c r="K27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3939,7 +3939,7 @@
         <v>136726</v>
       </c>
       <c r="K28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3976,7 +3976,7 @@
         <v>136726</v>
       </c>
       <c r="K29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4013,7 +4013,7 @@
         <v>136726</v>
       </c>
       <c r="K30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -4050,7 +4050,7 @@
         <v>136726</v>
       </c>
       <c r="K31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4087,7 +4087,7 @@
         <v>136726</v>
       </c>
       <c r="K32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -4124,7 +4124,7 @@
         <v>136726</v>
       </c>
       <c r="K33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4161,7 +4161,7 @@
         <v>136726</v>
       </c>
       <c r="K34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4198,7 +4198,7 @@
         <v>136726</v>
       </c>
       <c r="K35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4235,7 +4235,7 @@
         <v>136726</v>
       </c>
       <c r="K36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -4272,7 +4272,7 @@
         <v>136726</v>
       </c>
       <c r="K37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4309,7 +4309,7 @@
         <v>136726</v>
       </c>
       <c r="K38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -4346,7 +4346,7 @@
         <v>136726</v>
       </c>
       <c r="K39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -4383,7 +4383,7 @@
         <v>136726</v>
       </c>
       <c r="K40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -4420,7 +4420,7 @@
         <v>136726</v>
       </c>
       <c r="K41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -4457,7 +4457,7 @@
         <v>136726</v>
       </c>
       <c r="K42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -4494,7 +4494,7 @@
         <v>136726</v>
       </c>
       <c r="K43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -4531,7 +4531,7 @@
         <v>136726</v>
       </c>
       <c r="K44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -4568,7 +4568,7 @@
         <v>136726</v>
       </c>
       <c r="K45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -4605,7 +4605,7 @@
         <v>136726</v>
       </c>
       <c r="K46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -4642,7 +4642,7 @@
         <v>136726</v>
       </c>
       <c r="K47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -4679,7 +4679,7 @@
         <v>136726</v>
       </c>
       <c r="K48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4766,7 +4766,7 @@
         <v>149423</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4803,7 +4803,7 @@
         <v>149427</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4840,7 +4840,7 @@
         <v>149427</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4877,7 +4877,7 @@
         <v>149429</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4914,7 +4914,7 @@
         <v>149429</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4951,7 +4951,7 @@
         <v>149429</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4988,7 +4988,7 @@
         <v>149429</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5025,7 +5025,7 @@
         <v>149429</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5062,7 +5062,7 @@
         <v>149429</v>
       </c>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5099,7 +5099,7 @@
         <v>149429</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5136,7 +5136,7 @@
         <v>149429</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5223,7 +5223,7 @@
         <v>136831</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5260,7 +5260,7 @@
         <v>136831</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5297,7 +5297,7 @@
         <v>136831</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5334,7 +5334,7 @@
         <v>136831</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5371,7 +5371,7 @@
         <v>136831</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5408,7 +5408,7 @@
         <v>136831</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5445,7 +5445,7 @@
         <v>136831</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5482,7 +5482,7 @@
         <v>136831</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5519,7 +5519,7 @@
         <v>136831</v>
       </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5556,7 +5556,7 @@
         <v>136831</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5593,7 +5593,7 @@
         <v>136831</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5630,7 +5630,7 @@
         <v>136831</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5667,7 +5667,7 @@
         <v>136831</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5704,7 +5704,7 @@
         <v>136831</v>
       </c>
       <c r="K15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5741,7 +5741,7 @@
         <v>136831</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5778,7 +5778,7 @@
         <v>136831</v>
       </c>
       <c r="K17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5815,7 +5815,7 @@
         <v>136831</v>
       </c>
       <c r="K18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5852,7 +5852,7 @@
         <v>136831</v>
       </c>
       <c r="K19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -5889,7 +5889,7 @@
         <v>136831</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -5926,7 +5926,7 @@
         <v>136831</v>
       </c>
       <c r="K21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -5963,7 +5963,7 @@
         <v>136831</v>
       </c>
       <c r="K22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -6000,7 +6000,7 @@
         <v>136831</v>
       </c>
       <c r="K23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -6037,7 +6037,7 @@
         <v>136831</v>
       </c>
       <c r="K24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -6074,7 +6074,7 @@
         <v>136831</v>
       </c>
       <c r="K25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -6111,7 +6111,7 @@
         <v>136831</v>
       </c>
       <c r="K26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -6148,7 +6148,7 @@
         <v>136831</v>
       </c>
       <c r="K27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -6185,7 +6185,7 @@
         <v>136831</v>
       </c>
       <c r="K28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -6222,7 +6222,7 @@
         <v>136831</v>
       </c>
       <c r="K29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -6259,7 +6259,7 @@
         <v>136831</v>
       </c>
       <c r="K30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -6296,7 +6296,7 @@
         <v>136831</v>
       </c>
       <c r="K31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -6333,7 +6333,7 @@
         <v>136831</v>
       </c>
       <c r="K32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -6370,7 +6370,7 @@
         <v>136831</v>
       </c>
       <c r="K33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -6407,7 +6407,7 @@
         <v>136831</v>
       </c>
       <c r="K34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -6444,7 +6444,7 @@
         <v>136831</v>
       </c>
       <c r="K35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -6481,7 +6481,7 @@
         <v>136831</v>
       </c>
       <c r="K36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -6518,7 +6518,7 @@
         <v>136831</v>
       </c>
       <c r="K37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -6555,7 +6555,7 @@
         <v>136831</v>
       </c>
       <c r="K38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -6592,7 +6592,7 @@
         <v>136846</v>
       </c>
       <c r="K39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -6629,7 +6629,7 @@
         <v>136846</v>
       </c>
       <c r="K40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -6666,7 +6666,7 @@
         <v>136846</v>
       </c>
       <c r="K41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -6703,7 +6703,7 @@
         <v>136846</v>
       </c>
       <c r="K42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -6962,7 +6962,7 @@
         <v>136851</v>
       </c>
       <c r="K49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -6999,7 +6999,7 @@
         <v>136851</v>
       </c>
       <c r="K50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -7036,7 +7036,7 @@
         <v>136851</v>
       </c>
       <c r="K51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -7073,7 +7073,7 @@
         <v>136851</v>
       </c>
       <c r="K52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -7110,7 +7110,7 @@
         <v>136851</v>
       </c>
       <c r="K53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -7147,7 +7147,7 @@
         <v>136851</v>
       </c>
       <c r="K54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -7184,7 +7184,7 @@
         <v>136851</v>
       </c>
       <c r="K55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -7221,7 +7221,7 @@
         <v>136851</v>
       </c>
       <c r="K56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -7258,7 +7258,7 @@
         <v>136851</v>
       </c>
       <c r="K57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -7295,7 +7295,7 @@
         <v>136851</v>
       </c>
       <c r="K58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -7332,7 +7332,7 @@
         <v>136851</v>
       </c>
       <c r="K59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -7369,7 +7369,7 @@
         <v>136851</v>
       </c>
       <c r="K60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -7406,7 +7406,7 @@
         <v>136851</v>
       </c>
       <c r="K61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -7443,7 +7443,7 @@
         <v>136851</v>
       </c>
       <c r="K62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -7480,7 +7480,7 @@
         <v>136851</v>
       </c>
       <c r="K63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -7517,7 +7517,7 @@
         <v>136851</v>
       </c>
       <c r="K64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -7554,7 +7554,7 @@
         <v>136851</v>
       </c>
       <c r="K65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -7591,7 +7591,7 @@
         <v>136813</v>
       </c>
       <c r="K66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -7628,7 +7628,7 @@
         <v>136813</v>
       </c>
       <c r="K67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -7665,7 +7665,7 @@
         <v>136813</v>
       </c>
       <c r="K68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -7702,7 +7702,7 @@
         <v>136813</v>
       </c>
       <c r="K69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -7739,7 +7739,7 @@
         <v>136813</v>
       </c>
       <c r="K70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -7776,7 +7776,7 @@
         <v>136813</v>
       </c>
       <c r="K71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -7813,7 +7813,7 @@
         <v>136813</v>
       </c>
       <c r="K72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -7850,7 +7850,7 @@
         <v>136813</v>
       </c>
       <c r="K73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -7887,7 +7887,7 @@
         <v>136813</v>
       </c>
       <c r="K74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -7924,7 +7924,7 @@
         <v>136813</v>
       </c>
       <c r="K75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -7961,7 +7961,7 @@
         <v>136813</v>
       </c>
       <c r="K76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -7998,7 +7998,7 @@
         <v>136813</v>
       </c>
       <c r="K77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -8035,7 +8035,7 @@
         <v>136813</v>
       </c>
       <c r="K78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -8072,7 +8072,7 @@
         <v>136813</v>
       </c>
       <c r="K79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -8109,7 +8109,7 @@
         <v>136813</v>
       </c>
       <c r="K80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -8146,7 +8146,7 @@
         <v>136813</v>
       </c>
       <c r="K81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -8183,7 +8183,7 @@
         <v>136813</v>
       </c>
       <c r="K82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -8220,7 +8220,7 @@
         <v>136813</v>
       </c>
       <c r="K83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -8257,7 +8257,7 @@
         <v>136813</v>
       </c>
       <c r="K84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -8294,7 +8294,7 @@
         <v>136813</v>
       </c>
       <c r="K85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -8331,7 +8331,7 @@
         <v>136813</v>
       </c>
       <c r="K86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -8368,7 +8368,7 @@
         <v>136813</v>
       </c>
       <c r="K87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -8405,7 +8405,7 @@
         <v>136813</v>
       </c>
       <c r="K88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -8442,7 +8442,7 @@
         <v>136813</v>
       </c>
       <c r="K89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -8479,7 +8479,7 @@
         <v>136813</v>
       </c>
       <c r="K90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -8516,7 +8516,7 @@
         <v>136813</v>
       </c>
       <c r="K91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -8553,7 +8553,7 @@
         <v>136813</v>
       </c>
       <c r="K92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -8590,7 +8590,7 @@
         <v>136813</v>
       </c>
       <c r="K93" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -8627,7 +8627,7 @@
         <v>136813</v>
       </c>
       <c r="K94" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -8664,7 +8664,7 @@
         <v>136813</v>
       </c>
       <c r="K95" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -8701,7 +8701,7 @@
         <v>136813</v>
       </c>
       <c r="K96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -8738,7 +8738,7 @@
         <v>136813</v>
       </c>
       <c r="K97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -8775,7 +8775,7 @@
         <v>136813</v>
       </c>
       <c r="K98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -8812,7 +8812,7 @@
         <v>136813</v>
       </c>
       <c r="K99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -8849,7 +8849,7 @@
         <v>136813</v>
       </c>
       <c r="K100" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -8886,7 +8886,7 @@
         <v>136813</v>
       </c>
       <c r="K101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -8923,7 +8923,7 @@
         <v>136813</v>
       </c>
       <c r="K102" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -8960,7 +8960,7 @@
         <v>136813</v>
       </c>
       <c r="K103" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -8997,7 +8997,7 @@
         <v>136813</v>
       </c>
       <c r="K104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -9034,7 +9034,7 @@
         <v>136813</v>
       </c>
       <c r="K105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -9071,7 +9071,7 @@
         <v>136813</v>
       </c>
       <c r="K106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -9108,7 +9108,7 @@
         <v>136813</v>
       </c>
       <c r="K107" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -9145,7 +9145,7 @@
         <v>136813</v>
       </c>
       <c r="K108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -9182,7 +9182,7 @@
         <v>136813</v>
       </c>
       <c r="K109" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -9219,7 +9219,7 @@
         <v>136813</v>
       </c>
       <c r="K110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -9256,7 +9256,7 @@
         <v>136813</v>
       </c>
       <c r="K111" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -9293,7 +9293,7 @@
         <v>136813</v>
       </c>
       <c r="K112" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -9330,7 +9330,7 @@
         <v>136813</v>
       </c>
       <c r="K113" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -9367,7 +9367,7 @@
         <v>136813</v>
       </c>
       <c r="K114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -9404,7 +9404,7 @@
         <v>136813</v>
       </c>
       <c r="K115" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -9441,7 +9441,7 @@
         <v>136813</v>
       </c>
       <c r="K116" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -9478,7 +9478,7 @@
         <v>136813</v>
       </c>
       <c r="K117" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -9515,7 +9515,7 @@
         <v>136813</v>
       </c>
       <c r="K118" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -9552,7 +9552,7 @@
         <v>136813</v>
       </c>
       <c r="K119" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -9589,7 +9589,7 @@
         <v>136813</v>
       </c>
       <c r="K120" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -9626,7 +9626,7 @@
         <v>136813</v>
       </c>
       <c r="K121" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -9663,7 +9663,7 @@
         <v>136813</v>
       </c>
       <c r="K122" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -9700,7 +9700,7 @@
         <v>136813</v>
       </c>
       <c r="K123" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -9737,7 +9737,7 @@
         <v>136813</v>
       </c>
       <c r="K124" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -9774,7 +9774,7 @@
         <v>136813</v>
       </c>
       <c r="K125" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -9811,7 +9811,7 @@
         <v>136813</v>
       </c>
       <c r="K126" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -12562,7 +12562,7 @@
         <v>136804</v>
       </c>
       <c r="K74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -12599,7 +12599,7 @@
         <v>136804</v>
       </c>
       <c r="K75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -12636,7 +12636,7 @@
         <v>136804</v>
       </c>
       <c r="K76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -12673,7 +12673,7 @@
         <v>136804</v>
       </c>
       <c r="K77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -12710,7 +12710,7 @@
         <v>136804</v>
       </c>
       <c r="K78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -12747,7 +12747,7 @@
         <v>136804</v>
       </c>
       <c r="K79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -12784,7 +12784,7 @@
         <v>136804</v>
       </c>
       <c r="K80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -12821,7 +12821,7 @@
         <v>136804</v>
       </c>
       <c r="K81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -12858,7 +12858,7 @@
         <v>136804</v>
       </c>
       <c r="K82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -12895,7 +12895,7 @@
         <v>136804</v>
       </c>
       <c r="K83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -12932,7 +12932,7 @@
         <v>136804</v>
       </c>
       <c r="K84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -12969,7 +12969,7 @@
         <v>136804</v>
       </c>
       <c r="K85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -13006,7 +13006,7 @@
         <v>136804</v>
       </c>
       <c r="K86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -13043,7 +13043,7 @@
         <v>136804</v>
       </c>
       <c r="K87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -13080,7 +13080,7 @@
         <v>136804</v>
       </c>
       <c r="K88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -13117,7 +13117,7 @@
         <v>136804</v>
       </c>
       <c r="K89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -13154,7 +13154,7 @@
         <v>136804</v>
       </c>
       <c r="K90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -13191,7 +13191,7 @@
         <v>136804</v>
       </c>
       <c r="K91" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -13228,7 +13228,7 @@
         <v>136804</v>
       </c>
       <c r="K92" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -13265,7 +13265,7 @@
         <v>136804</v>
       </c>
       <c r="K93" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -13302,7 +13302,7 @@
         <v>136804</v>
       </c>
       <c r="K94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -13339,7 +13339,7 @@
         <v>136804</v>
       </c>
       <c r="K95" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -13376,7 +13376,7 @@
         <v>136804</v>
       </c>
       <c r="K96" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -13413,7 +13413,7 @@
         <v>136804</v>
       </c>
       <c r="K97" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -13450,7 +13450,7 @@
         <v>136804</v>
       </c>
       <c r="K98" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -13487,7 +13487,7 @@
         <v>136804</v>
       </c>
       <c r="K99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -13524,7 +13524,7 @@
         <v>136804</v>
       </c>
       <c r="K100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -13561,7 +13561,7 @@
         <v>136804</v>
       </c>
       <c r="K101" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -13598,7 +13598,7 @@
         <v>136818</v>
       </c>
       <c r="K102" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -13635,7 +13635,7 @@
         <v>136818</v>
       </c>
       <c r="K103" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -13672,7 +13672,7 @@
         <v>136818</v>
       </c>
       <c r="K104" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -13709,7 +13709,7 @@
         <v>136818</v>
       </c>
       <c r="K105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -13746,7 +13746,7 @@
         <v>136818</v>
       </c>
       <c r="K106" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -13783,7 +13783,7 @@
         <v>136818</v>
       </c>
       <c r="K107" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -13820,7 +13820,7 @@
         <v>136818</v>
       </c>
       <c r="K108" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -13857,7 +13857,7 @@
         <v>136818</v>
       </c>
       <c r="K109" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -13894,7 +13894,7 @@
         <v>136818</v>
       </c>
       <c r="K110" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -13931,7 +13931,7 @@
         <v>136818</v>
       </c>
       <c r="K111" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -13968,7 +13968,7 @@
         <v>136818</v>
       </c>
       <c r="K112" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -14005,7 +14005,7 @@
         <v>136818</v>
       </c>
       <c r="K113" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -14042,7 +14042,7 @@
         <v>136818</v>
       </c>
       <c r="K114" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -14079,7 +14079,7 @@
         <v>136818</v>
       </c>
       <c r="K115" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -14116,7 +14116,7 @@
         <v>136818</v>
       </c>
       <c r="K116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -14153,7 +14153,7 @@
         <v>136818</v>
       </c>
       <c r="K117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -14190,7 +14190,7 @@
         <v>136818</v>
       </c>
       <c r="K118" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -14227,7 +14227,7 @@
         <v>136818</v>
       </c>
       <c r="K119" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -14264,7 +14264,7 @@
         <v>136818</v>
       </c>
       <c r="K120" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -14301,7 +14301,7 @@
         <v>136818</v>
       </c>
       <c r="K121" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -14338,7 +14338,7 @@
         <v>136818</v>
       </c>
       <c r="K122" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -14375,7 +14375,7 @@
         <v>136818</v>
       </c>
       <c r="K123" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -14412,7 +14412,7 @@
         <v>136818</v>
       </c>
       <c r="K124" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -14449,7 +14449,7 @@
         <v>136818</v>
       </c>
       <c r="K125" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -14461,8 +14461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AA33B0-C369-4176-A0CE-A7B790CFC440}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14536,7 +14536,7 @@
         <v>183331</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -14573,7 +14573,7 @@
         <v>183331</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -14610,7 +14610,7 @@
         <v>183331</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -14647,7 +14647,7 @@
         <v>183331</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -14684,7 +14684,7 @@
         <v>183331</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -14721,7 +14721,7 @@
         <v>183331</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -14758,7 +14758,7 @@
         <v>183331</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -14795,7 +14795,7 @@
         <v>183331</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -14832,7 +14832,7 @@
         <v>183331</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -14869,7 +14869,7 @@
         <v>183331</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -14906,7 +14906,7 @@
         <v>183331</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -14943,7 +14943,7 @@
         <v>183331</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -14980,7 +14980,7 @@
         <v>183331</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -15017,7 +15017,7 @@
         <v>183331</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -15054,7 +15054,7 @@
         <v>183331</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -15091,7 +15091,7 @@
         <v>183331</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -15128,7 +15128,7 @@
         <v>183330</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -15165,7 +15165,7 @@
         <v>183330</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -15202,7 +15202,7 @@
         <v>183330</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -15239,7 +15239,7 @@
         <v>183330</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -15276,7 +15276,7 @@
         <v>183330</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -15313,7 +15313,7 @@
         <v>183330</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -15350,7 +15350,7 @@
         <v>183330</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -15387,7 +15387,7 @@
         <v>183330</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -15424,7 +15424,7 @@
         <v>183330</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -15461,7 +15461,7 @@
         <v>183330</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -15498,7 +15498,7 @@
         <v>183330</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -15535,7 +15535,7 @@
         <v>183330</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -15572,7 +15572,7 @@
         <v>183330</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -15609,7 +15609,7 @@
         <v>183330</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -15646,7 +15646,7 @@
         <v>183330</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -15683,7 +15683,7 @@
         <v>183330</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -15720,7 +15720,7 @@
         <v>183330</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -15757,7 +15757,7 @@
         <v>183330</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -15794,7 +15794,7 @@
         <v>183330</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -15831,7 +15831,7 @@
         <v>183330</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -15868,7 +15868,7 @@
         <v>183330</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -15905,7 +15905,7 @@
         <v>183330</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -15942,7 +15942,7 @@
         <v>183330</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -15979,7 +15979,7 @@
         <v>183327</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -16016,7 +16016,7 @@
         <v>183327</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -16053,7 +16053,7 @@
         <v>183327</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -16090,7 +16090,7 @@
         <v>183327</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -16127,7 +16127,7 @@
         <v>183327</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -16164,7 +16164,7 @@
         <v>183327</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -16201,7 +16201,7 @@
         <v>183327</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -16238,7 +16238,7 @@
         <v>183327</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -16275,7 +16275,7 @@
         <v>183327</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -16312,7 +16312,7 @@
         <v>183327</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -16349,7 +16349,7 @@
         <v>183327</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -16386,7 +16386,7 @@
         <v>183327</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -16423,7 +16423,7 @@
         <v>183327</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -16460,7 +16460,7 @@
         <v>183327</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -16497,7 +16497,7 @@
         <v>183327</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -16534,7 +16534,7 @@
         <v>183327</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -16571,7 +16571,7 @@
         <v>183327</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -16583,7 +16583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C56AFD7-721A-4188-A767-B33BD53034E1}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
@@ -16658,7 +16658,7 @@
         <v>120302</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -16695,7 +16695,7 @@
         <v>120302</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -16732,7 +16732,7 @@
         <v>120302</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -16769,7 +16769,7 @@
         <v>120302</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -16806,7 +16806,7 @@
         <v>120302</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -16843,7 +16843,7 @@
         <v>120302</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -16880,7 +16880,7 @@
         <v>120302</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -16917,7 +16917,7 @@
         <v>120302</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -16954,7 +16954,7 @@
         <v>120302</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -16991,7 +16991,7 @@
         <v>120302</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -17028,7 +17028,7 @@
         <v>120302</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -17065,7 +17065,7 @@
         <v>120302</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -17102,7 +17102,7 @@
         <v>120302</v>
       </c>
       <c r="K14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -17139,7 +17139,7 @@
         <v>120302</v>
       </c>
       <c r="K15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -17176,7 +17176,7 @@
         <v>120302</v>
       </c>
       <c r="K16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -17213,7 +17213,7 @@
         <v>120302</v>
       </c>
       <c r="K17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -17250,7 +17250,7 @@
         <v>120302</v>
       </c>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -17287,7 +17287,7 @@
         <v>120302</v>
       </c>
       <c r="K19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -17324,7 +17324,7 @@
         <v>120302</v>
       </c>
       <c r="K20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -17361,7 +17361,7 @@
         <v>120302</v>
       </c>
       <c r="K21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -17398,7 +17398,7 @@
         <v>120302</v>
       </c>
       <c r="K22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -17435,7 +17435,7 @@
         <v>120302</v>
       </c>
       <c r="K23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -17472,7 +17472,7 @@
         <v>120302</v>
       </c>
       <c r="K24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -17509,7 +17509,7 @@
         <v>120302</v>
       </c>
       <c r="K25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -17546,7 +17546,7 @@
         <v>120302</v>
       </c>
       <c r="K26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -17583,7 +17583,7 @@
         <v>120302</v>
       </c>
       <c r="K27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -17620,7 +17620,7 @@
         <v>120302</v>
       </c>
       <c r="K28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -17657,7 +17657,7 @@
         <v>120302</v>
       </c>
       <c r="K29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -17694,7 +17694,7 @@
         <v>120302</v>
       </c>
       <c r="K30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -17731,7 +17731,7 @@
         <v>120302</v>
       </c>
       <c r="K31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -17768,7 +17768,7 @@
         <v>120302</v>
       </c>
       <c r="K32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -17805,7 +17805,7 @@
         <v>120302</v>
       </c>
       <c r="K33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -17842,7 +17842,7 @@
         <v>120302</v>
       </c>
       <c r="K34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -17879,7 +17879,7 @@
         <v>120302</v>
       </c>
       <c r="K35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -17916,7 +17916,7 @@
         <v>120302</v>
       </c>
       <c r="K36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -17953,7 +17953,7 @@
         <v>120302</v>
       </c>
       <c r="K37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -17990,7 +17990,7 @@
         <v>120302</v>
       </c>
       <c r="K38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -18027,7 +18027,7 @@
         <v>120302</v>
       </c>
       <c r="K39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -18064,7 +18064,7 @@
         <v>120302</v>
       </c>
       <c r="K40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -18101,7 +18101,7 @@
         <v>120302</v>
       </c>
       <c r="K41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -18138,7 +18138,7 @@
         <v>120302</v>
       </c>
       <c r="K42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -18175,7 +18175,7 @@
         <v>120302</v>
       </c>
       <c r="K43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -18212,7 +18212,7 @@
         <v>120302</v>
       </c>
       <c r="K44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -18249,7 +18249,7 @@
         <v>120302</v>
       </c>
       <c r="K45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -18286,7 +18286,7 @@
         <v>120302</v>
       </c>
       <c r="K46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -18323,7 +18323,7 @@
         <v>120302</v>
       </c>
       <c r="K47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -18360,7 +18360,7 @@
         <v>120302</v>
       </c>
       <c r="K48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -18397,7 +18397,7 @@
         <v>120302</v>
       </c>
       <c r="K49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -18434,7 +18434,7 @@
         <v>120302</v>
       </c>
       <c r="K50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -18471,7 +18471,7 @@
         <v>120302</v>
       </c>
       <c r="K51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -18508,7 +18508,7 @@
         <v>139301</v>
       </c>
       <c r="K52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -18545,7 +18545,7 @@
         <v>139301</v>
       </c>
       <c r="K53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -18582,7 +18582,7 @@
         <v>139301</v>
       </c>
       <c r="K54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -18619,7 +18619,7 @@
         <v>139301</v>
       </c>
       <c r="K55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -18656,7 +18656,7 @@
         <v>139301</v>
       </c>
       <c r="K56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -18693,7 +18693,7 @@
         <v>139301</v>
       </c>
       <c r="K57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -18730,7 +18730,7 @@
         <v>139301</v>
       </c>
       <c r="K58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -18767,7 +18767,7 @@
         <v>139301</v>
       </c>
       <c r="K59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -18804,7 +18804,7 @@
         <v>139301</v>
       </c>
       <c r="K60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -18841,7 +18841,7 @@
         <v>139301</v>
       </c>
       <c r="K61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -18878,7 +18878,7 @@
         <v>139301</v>
       </c>
       <c r="K62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -18915,7 +18915,7 @@
         <v>139301</v>
       </c>
       <c r="K63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -18952,7 +18952,7 @@
         <v>139301</v>
       </c>
       <c r="K64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -18989,7 +18989,7 @@
         <v>139301</v>
       </c>
       <c r="K65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -19026,7 +19026,7 @@
         <v>139301</v>
       </c>
       <c r="K66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -19063,7 +19063,7 @@
         <v>139301</v>
       </c>
       <c r="K67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -19100,7 +19100,7 @@
         <v>139301</v>
       </c>
       <c r="K68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -19137,7 +19137,7 @@
         <v>139301</v>
       </c>
       <c r="K69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -19174,7 +19174,7 @@
         <v>139301</v>
       </c>
       <c r="K70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -19211,7 +19211,7 @@
         <v>139301</v>
       </c>
       <c r="K71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -19248,7 +19248,7 @@
         <v>139301</v>
       </c>
       <c r="K72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -19285,7 +19285,7 @@
         <v>139301</v>
       </c>
       <c r="K73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -19322,7 +19322,7 @@
         <v>139301</v>
       </c>
       <c r="K74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -19359,7 +19359,7 @@
         <v>139301</v>
       </c>
       <c r="K75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -19396,7 +19396,7 @@
         <v>139301</v>
       </c>
       <c r="K76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -19433,7 +19433,7 @@
         <v>139301</v>
       </c>
       <c r="K77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -19470,7 +19470,7 @@
         <v>139301</v>
       </c>
       <c r="K78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -19507,7 +19507,7 @@
         <v>139301</v>
       </c>
       <c r="K79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -19544,7 +19544,7 @@
         <v>139301</v>
       </c>
       <c r="K80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -19581,7 +19581,7 @@
         <v>139301</v>
       </c>
       <c r="K81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -19618,7 +19618,7 @@
         <v>135745</v>
       </c>
       <c r="K82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -19655,7 +19655,7 @@
         <v>135745</v>
       </c>
       <c r="K83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -19692,7 +19692,7 @@
         <v>135745</v>
       </c>
       <c r="K84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -19729,7 +19729,7 @@
         <v>135745</v>
       </c>
       <c r="K85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -19766,7 +19766,7 @@
         <v>135745</v>
       </c>
       <c r="K86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -19803,7 +19803,7 @@
         <v>135745</v>
       </c>
       <c r="K87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -19840,7 +19840,7 @@
         <v>135745</v>
       </c>
       <c r="K88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -19877,7 +19877,7 @@
         <v>135745</v>
       </c>
       <c r="K89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -19914,7 +19914,7 @@
         <v>135745</v>
       </c>
       <c r="K90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -19951,7 +19951,7 @@
         <v>135745</v>
       </c>
       <c r="K91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -19988,7 +19988,7 @@
         <v>135745</v>
       </c>
       <c r="K92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -20025,7 +20025,7 @@
         <v>135745</v>
       </c>
       <c r="K93" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -20112,7 +20112,7 @@
         <v>137219</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -20149,7 +20149,7 @@
         <v>137219</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -20186,7 +20186,7 @@
         <v>137219</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -20223,7 +20223,7 @@
         <v>137219</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -20260,7 +20260,7 @@
         <v>137219</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -20297,7 +20297,7 @@
         <v>137219</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -20334,7 +20334,7 @@
         <v>137219</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -20371,7 +20371,7 @@
         <v>137219</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -20408,7 +20408,7 @@
         <v>137219</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -20445,7 +20445,7 @@
         <v>137219</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -20482,7 +20482,7 @@
         <v>137219</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -20519,7 +20519,7 @@
         <v>137219</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -20556,7 +20556,7 @@
         <v>137219</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -20593,7 +20593,7 @@
         <v>137219</v>
       </c>
       <c r="K15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -20630,7 +20630,7 @@
         <v>137219</v>
       </c>
       <c r="K16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -20667,7 +20667,7 @@
         <v>137219</v>
       </c>
       <c r="K17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -20704,7 +20704,7 @@
         <v>137219</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -20741,7 +20741,7 @@
         <v>137219</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -20778,7 +20778,7 @@
         <v>137219</v>
       </c>
       <c r="K20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -20815,7 +20815,7 @@
         <v>137219</v>
       </c>
       <c r="K21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -20852,7 +20852,7 @@
         <v>137219</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -20889,7 +20889,7 @@
         <v>137219</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -20926,7 +20926,7 @@
         <v>137219</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -20963,7 +20963,7 @@
         <v>137219</v>
       </c>
       <c r="K25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -21000,7 +21000,7 @@
         <v>137219</v>
       </c>
       <c r="K26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -21037,7 +21037,7 @@
         <v>37</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -21074,7 +21074,7 @@
         <v>37</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -21111,7 +21111,7 @@
         <v>37</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -21148,7 +21148,7 @@
         <v>37</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -21185,7 +21185,7 @@
         <v>37</v>
       </c>
       <c r="K31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -21222,7 +21222,7 @@
         <v>37</v>
       </c>
       <c r="K32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -21259,7 +21259,7 @@
         <v>37</v>
       </c>
       <c r="K33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -21296,7 +21296,7 @@
         <v>37</v>
       </c>
       <c r="K34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -21333,7 +21333,7 @@
         <v>37</v>
       </c>
       <c r="K35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -21370,7 +21370,7 @@
         <v>37</v>
       </c>
       <c r="K36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -21407,7 +21407,7 @@
         <v>37</v>
       </c>
       <c r="K37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -21444,7 +21444,7 @@
         <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -21481,7 +21481,7 @@
         <v>37</v>
       </c>
       <c r="K39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -21518,7 +21518,7 @@
         <v>37</v>
       </c>
       <c r="K40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -21555,7 +21555,7 @@
         <v>37</v>
       </c>
       <c r="K41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -21592,7 +21592,7 @@
         <v>37</v>
       </c>
       <c r="K42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -21629,7 +21629,7 @@
         <v>37</v>
       </c>
       <c r="K43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -21666,7 +21666,7 @@
         <v>37</v>
       </c>
       <c r="K44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -21703,7 +21703,7 @@
         <v>37</v>
       </c>
       <c r="K45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -21740,7 +21740,7 @@
         <v>37</v>
       </c>
       <c r="K46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -21777,7 +21777,7 @@
         <v>37</v>
       </c>
       <c r="K47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -21814,7 +21814,7 @@
         <v>37</v>
       </c>
       <c r="K48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -21851,7 +21851,7 @@
         <v>37</v>
       </c>
       <c r="K49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -21888,7 +21888,7 @@
         <v>37</v>
       </c>
       <c r="K50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -21925,7 +21925,7 @@
         <v>37</v>
       </c>
       <c r="K51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -22012,7 +22012,7 @@
         <v>139655</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -22049,7 +22049,7 @@
         <v>139655</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -22086,7 +22086,7 @@
         <v>139655</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -22123,7 +22123,7 @@
         <v>139655</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -22160,7 +22160,7 @@
         <v>139655</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -22197,7 +22197,7 @@
         <v>139655</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -22234,7 +22234,7 @@
         <v>139655</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -22271,7 +22271,7 @@
         <v>139655</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -22308,7 +22308,7 @@
         <v>139655</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -22345,7 +22345,7 @@
         <v>139655</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -22382,7 +22382,7 @@
         <v>139655</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -22419,7 +22419,7 @@
         <v>139655</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -22456,7 +22456,7 @@
         <v>139655</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -22493,7 +22493,7 @@
         <v>139655</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -22530,7 +22530,7 @@
         <v>139655</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -22567,7 +22567,7 @@
         <v>139655</v>
       </c>
       <c r="K17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -22604,7 +22604,7 @@
         <v>139655</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -22641,7 +22641,7 @@
         <v>139655</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -22678,7 +22678,7 @@
         <v>139655</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -22715,7 +22715,7 @@
         <v>139655</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -22752,7 +22752,7 @@
         <v>139655</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -22789,7 +22789,7 @@
         <v>139655</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -22826,7 +22826,7 @@
         <v>139655</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -22863,7 +22863,7 @@
         <v>139655</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -22900,7 +22900,7 @@
         <v>139655</v>
       </c>
       <c r="K26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -22937,7 +22937,7 @@
         <v>139655</v>
       </c>
       <c r="K27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -22974,7 +22974,7 @@
         <v>139655</v>
       </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -23011,7 +23011,7 @@
         <v>139655</v>
       </c>
       <c r="K29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -23048,7 +23048,7 @@
         <v>139655</v>
       </c>
       <c r="K30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -23085,7 +23085,7 @@
         <v>139655</v>
       </c>
       <c r="K31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -23122,7 +23122,7 @@
         <v>139655</v>
       </c>
       <c r="K32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -23159,7 +23159,7 @@
         <v>139655</v>
       </c>
       <c r="K33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -23196,7 +23196,7 @@
         <v>139655</v>
       </c>
       <c r="K34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -23233,7 +23233,7 @@
         <v>139655</v>
       </c>
       <c r="K35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -23270,7 +23270,7 @@
         <v>139655</v>
       </c>
       <c r="K36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -23307,7 +23307,7 @@
         <v>139655</v>
       </c>
       <c r="K37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -23394,7 +23394,7 @@
         <v>180120</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -23431,7 +23431,7 @@
         <v>180120</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -23468,7 +23468,7 @@
         <v>180120</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -23505,7 +23505,7 @@
         <v>180120</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -23542,7 +23542,7 @@
         <v>180120</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -23579,7 +23579,7 @@
         <v>180120</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -23616,7 +23616,7 @@
         <v>180120</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -23653,7 +23653,7 @@
         <v>180120</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -23690,7 +23690,7 @@
         <v>180120</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -23727,7 +23727,7 @@
         <v>180120</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -23764,7 +23764,7 @@
         <v>180120</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -23801,7 +23801,7 @@
         <v>180120</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -23838,7 +23838,7 @@
         <v>180120</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -23875,7 +23875,7 @@
         <v>180120</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -23912,7 +23912,7 @@
         <v>180120</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -23949,7 +23949,7 @@
         <v>180120</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -23986,7 +23986,7 @@
         <v>180120</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -24023,7 +24023,7 @@
         <v>180120</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -24060,7 +24060,7 @@
         <v>180120</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -24097,7 +24097,7 @@
         <v>180120</v>
       </c>
       <c r="K21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -24134,7 +24134,7 @@
         <v>180120</v>
       </c>
       <c r="K22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -24171,7 +24171,7 @@
         <v>180120</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -24208,7 +24208,7 @@
         <v>180120</v>
       </c>
       <c r="K24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -24245,7 +24245,7 @@
         <v>180120</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -24282,7 +24282,7 @@
         <v>180120</v>
       </c>
       <c r="K26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -24319,7 +24319,7 @@
         <v>180120</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -24356,7 +24356,7 @@
         <v>180120</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -24393,7 +24393,7 @@
         <v>180120</v>
       </c>
       <c r="K29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -24430,7 +24430,7 @@
         <v>180120</v>
       </c>
       <c r="K30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -24467,7 +24467,7 @@
         <v>180120</v>
       </c>
       <c r="K31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -24504,7 +24504,7 @@
         <v>180120</v>
       </c>
       <c r="K32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -24541,7 +24541,7 @@
         <v>180120</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -24578,7 +24578,7 @@
         <v>180127</v>
       </c>
       <c r="K34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -24615,7 +24615,7 @@
         <v>180127</v>
       </c>
       <c r="K35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -24652,7 +24652,7 @@
         <v>180127</v>
       </c>
       <c r="K36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -24689,7 +24689,7 @@
         <v>180127</v>
       </c>
       <c r="K37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -24726,7 +24726,7 @@
         <v>180127</v>
       </c>
       <c r="K38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -24763,7 +24763,7 @@
         <v>180127</v>
       </c>
       <c r="K39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -24800,7 +24800,7 @@
         <v>180127</v>
       </c>
       <c r="K40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -24837,7 +24837,7 @@
         <v>180127</v>
       </c>
       <c r="K41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -24874,7 +24874,7 @@
         <v>180127</v>
       </c>
       <c r="K42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -24911,7 +24911,7 @@
         <v>180127</v>
       </c>
       <c r="K43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -24948,7 +24948,7 @@
         <v>180127</v>
       </c>
       <c r="K44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -24985,7 +24985,7 @@
         <v>180127</v>
       </c>
       <c r="K45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -25022,7 +25022,7 @@
         <v>180127</v>
       </c>
       <c r="K46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -25059,7 +25059,7 @@
         <v>180127</v>
       </c>
       <c r="K47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -25096,7 +25096,7 @@
         <v>180127</v>
       </c>
       <c r="K48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -25183,7 +25183,7 @@
         <v>184189</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -25220,7 +25220,7 @@
         <v>184189</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -25257,7 +25257,7 @@
         <v>184189</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -25294,7 +25294,7 @@
         <v>184189</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -25331,7 +25331,7 @@
         <v>184189</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -25368,7 +25368,7 @@
         <v>184189</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -25405,7 +25405,7 @@
         <v>184189</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -25442,7 +25442,7 @@
         <v>184189</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -25479,7 +25479,7 @@
         <v>184189</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -25516,7 +25516,7 @@
         <v>184189</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -25553,7 +25553,7 @@
         <v>184189</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -25590,7 +25590,7 @@
         <v>184189</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -25627,7 +25627,7 @@
         <v>184189</v>
       </c>
       <c r="K14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -25664,7 +25664,7 @@
         <v>184189</v>
       </c>
       <c r="K15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -25701,7 +25701,7 @@
         <v>184189</v>
       </c>
       <c r="K16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -25738,7 +25738,7 @@
         <v>184189</v>
       </c>
       <c r="K17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -25775,7 +25775,7 @@
         <v>184189</v>
       </c>
       <c r="K18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -25812,7 +25812,7 @@
         <v>184189</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -25849,7 +25849,7 @@
         <v>184189</v>
       </c>
       <c r="K20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -25886,7 +25886,7 @@
         <v>184189</v>
       </c>
       <c r="K21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -25923,7 +25923,7 @@
         <v>184189</v>
       </c>
       <c r="K22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -25960,7 +25960,7 @@
         <v>184189</v>
       </c>
       <c r="K23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -25997,7 +25997,7 @@
         <v>184189</v>
       </c>
       <c r="K24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -26034,7 +26034,7 @@
         <v>184189</v>
       </c>
       <c r="K25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -26071,7 +26071,7 @@
         <v>184189</v>
       </c>
       <c r="K26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -26108,7 +26108,7 @@
         <v>184189</v>
       </c>
       <c r="K27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -26145,7 +26145,7 @@
         <v>184189</v>
       </c>
       <c r="K28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -26232,7 +26232,7 @@
         <v>138978</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -26269,7 +26269,7 @@
         <v>138978</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -26306,7 +26306,7 @@
         <v>138978</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -26343,7 +26343,7 @@
         <v>138978</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -26380,7 +26380,7 @@
         <v>138978</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -26417,7 +26417,7 @@
         <v>138978</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -26454,7 +26454,7 @@
         <v>138978</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -26491,7 +26491,7 @@
         <v>138978</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -26528,7 +26528,7 @@
         <v>138978</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -26565,7 +26565,7 @@
         <v>138978</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -26602,7 +26602,7 @@
         <v>138978</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -26639,7 +26639,7 @@
         <v>138978</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -26676,7 +26676,7 @@
         <v>138978</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -26713,7 +26713,7 @@
         <v>138978</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -26750,7 +26750,7 @@
         <v>138978</v>
       </c>
       <c r="K16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -26787,7 +26787,7 @@
         <v>138978</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -26824,7 +26824,7 @@
         <v>138978</v>
       </c>
       <c r="K18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -26861,7 +26861,7 @@
         <v>138978</v>
       </c>
       <c r="K19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -26898,7 +26898,7 @@
         <v>138978</v>
       </c>
       <c r="K20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -26935,7 +26935,7 @@
         <v>138978</v>
       </c>
       <c r="K21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -26972,7 +26972,7 @@
         <v>138978</v>
       </c>
       <c r="K22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -27009,7 +27009,7 @@
         <v>138978</v>
       </c>
       <c r="K23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -27046,7 +27046,7 @@
         <v>138978</v>
       </c>
       <c r="K24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -27083,7 +27083,7 @@
         <v>138978</v>
       </c>
       <c r="K25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -27120,7 +27120,7 @@
         <v>138978</v>
       </c>
       <c r="K26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -27157,7 +27157,7 @@
         <v>138978</v>
       </c>
       <c r="K27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -27194,7 +27194,7 @@
         <v>138978</v>
       </c>
       <c r="K28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -27231,7 +27231,7 @@
         <v>138978</v>
       </c>
       <c r="K29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -27268,7 +27268,7 @@
         <v>138978</v>
       </c>
       <c r="K30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -27305,7 +27305,7 @@
         <v>138978</v>
       </c>
       <c r="K31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -27342,7 +27342,7 @@
         <v>138978</v>
       </c>
       <c r="K32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -27379,7 +27379,7 @@
         <v>138978</v>
       </c>
       <c r="K33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -27416,7 +27416,7 @@
         <v>138978</v>
       </c>
       <c r="K34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -27453,7 +27453,7 @@
         <v>138978</v>
       </c>
       <c r="K35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -27490,7 +27490,7 @@
         <v>138978</v>
       </c>
       <c r="K36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -27527,7 +27527,7 @@
         <v>138978</v>
       </c>
       <c r="K37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -27564,7 +27564,7 @@
         <v>138978</v>
       </c>
       <c r="K38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -27601,7 +27601,7 @@
         <v>138978</v>
       </c>
       <c r="K39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -27638,7 +27638,7 @@
         <v>138979</v>
       </c>
       <c r="K40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -27675,7 +27675,7 @@
         <v>138979</v>
       </c>
       <c r="K41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -27712,7 +27712,7 @@
         <v>138979</v>
       </c>
       <c r="K42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -27749,7 +27749,7 @@
         <v>138979</v>
       </c>
       <c r="K43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -27786,7 +27786,7 @@
         <v>138979</v>
       </c>
       <c r="K44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -27823,7 +27823,7 @@
         <v>138979</v>
       </c>
       <c r="K45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -27860,7 +27860,7 @@
         <v>138979</v>
       </c>
       <c r="K46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -27897,7 +27897,7 @@
         <v>138979</v>
       </c>
       <c r="K47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -27934,7 +27934,7 @@
         <v>138979</v>
       </c>
       <c r="K48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -27971,7 +27971,7 @@
         <v>138979</v>
       </c>
       <c r="K49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -28008,7 +28008,7 @@
         <v>138979</v>
       </c>
       <c r="K50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -28045,7 +28045,7 @@
         <v>138979</v>
       </c>
       <c r="K51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -28082,7 +28082,7 @@
         <v>138979</v>
       </c>
       <c r="K52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -28119,7 +28119,7 @@
         <v>138979</v>
       </c>
       <c r="K53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -28156,7 +28156,7 @@
         <v>138979</v>
       </c>
       <c r="K54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -28193,7 +28193,7 @@
         <v>138979</v>
       </c>
       <c r="K55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -28230,7 +28230,7 @@
         <v>138979</v>
       </c>
       <c r="K56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -28267,7 +28267,7 @@
         <v>138979</v>
       </c>
       <c r="K57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -28304,7 +28304,7 @@
         <v>138979</v>
       </c>
       <c r="K58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -28341,7 +28341,7 @@
         <v>138979</v>
       </c>
       <c r="K59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -28378,7 +28378,7 @@
         <v>138979</v>
       </c>
       <c r="K60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -28415,7 +28415,7 @@
         <v>138979</v>
       </c>
       <c r="K61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -28452,7 +28452,7 @@
         <v>138979</v>
       </c>
       <c r="K62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -28488,7 +28488,7 @@
         <v>138979</v>
       </c>
       <c r="K63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -28525,7 +28525,7 @@
         <v>138979</v>
       </c>
       <c r="K64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -28562,7 +28562,7 @@
         <v>138979</v>
       </c>
       <c r="K65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -28599,7 +28599,7 @@
         <v>138979</v>
       </c>
       <c r="K66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -28636,7 +28636,7 @@
         <v>138979</v>
       </c>
       <c r="K67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -28673,7 +28673,7 @@
         <v>150772</v>
       </c>
       <c r="K68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -28710,7 +28710,7 @@
         <v>150772</v>
       </c>
       <c r="K69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -28747,7 +28747,7 @@
         <v>150772</v>
       </c>
       <c r="K70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -28784,7 +28784,7 @@
         <v>150772</v>
       </c>
       <c r="K71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -28821,7 +28821,7 @@
         <v>150772</v>
       </c>
       <c r="K72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -28858,7 +28858,7 @@
         <v>150772</v>
       </c>
       <c r="K73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -28895,7 +28895,7 @@
         <v>150772</v>
       </c>
       <c r="K74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -28932,7 +28932,7 @@
         <v>150772</v>
       </c>
       <c r="K75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -28969,7 +28969,7 @@
         <v>150772</v>
       </c>
       <c r="K76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -29006,7 +29006,7 @@
         <v>150772</v>
       </c>
       <c r="K77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -29043,7 +29043,7 @@
         <v>150772</v>
       </c>
       <c r="K78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -29080,7 +29080,7 @@
         <v>150772</v>
       </c>
       <c r="K79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -29117,7 +29117,7 @@
         <v>150772</v>
       </c>
       <c r="K80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -29154,7 +29154,7 @@
         <v>150772</v>
       </c>
       <c r="K81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -29191,7 +29191,7 @@
         <v>150772</v>
       </c>
       <c r="K82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -29228,7 +29228,7 @@
         <v>150772</v>
       </c>
       <c r="K83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -29265,7 +29265,7 @@
         <v>150772</v>
       </c>
       <c r="K84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -29302,7 +29302,7 @@
         <v>150772</v>
       </c>
       <c r="K85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -29339,7 +29339,7 @@
         <v>150772</v>
       </c>
       <c r="K86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -29376,7 +29376,7 @@
         <v>150772</v>
       </c>
       <c r="K87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -29413,7 +29413,7 @@
         <v>150772</v>
       </c>
       <c r="K88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -29450,7 +29450,7 @@
         <v>150772</v>
       </c>
       <c r="K89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -29487,7 +29487,7 @@
         <v>150772</v>
       </c>
       <c r="K90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -29524,7 +29524,7 @@
         <v>150772</v>
       </c>
       <c r="K91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -29561,7 +29561,7 @@
         <v>150772</v>
       </c>
       <c r="K92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -29598,7 +29598,7 @@
         <v>150772</v>
       </c>
       <c r="K93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -29635,7 +29635,7 @@
         <v>138969</v>
       </c>
       <c r="K94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -29672,7 +29672,7 @@
         <v>138969</v>
       </c>
       <c r="K95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -29709,7 +29709,7 @@
         <v>138969</v>
       </c>
       <c r="K96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -29746,7 +29746,7 @@
         <v>138969</v>
       </c>
       <c r="K97" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -29783,7 +29783,7 @@
         <v>138969</v>
       </c>
       <c r="K98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -29820,7 +29820,7 @@
         <v>138969</v>
       </c>
       <c r="K99" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -29857,7 +29857,7 @@
         <v>138969</v>
       </c>
       <c r="K100" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -29894,7 +29894,7 @@
         <v>138969</v>
       </c>
       <c r="K101" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -29931,7 +29931,7 @@
         <v>138969</v>
       </c>
       <c r="K102" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -29968,7 +29968,7 @@
         <v>138969</v>
       </c>
       <c r="K103" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -30005,7 +30005,7 @@
         <v>138969</v>
       </c>
       <c r="K104" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -30042,7 +30042,7 @@
         <v>138969</v>
       </c>
       <c r="K105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -30079,7 +30079,7 @@
         <v>138969</v>
       </c>
       <c r="K106" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -30116,7 +30116,7 @@
         <v>138969</v>
       </c>
       <c r="K107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -30153,7 +30153,7 @@
         <v>138969</v>
       </c>
       <c r="K108" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -30190,7 +30190,7 @@
         <v>138969</v>
       </c>
       <c r="K109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -30227,7 +30227,7 @@
         <v>138969</v>
       </c>
       <c r="K110" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -30264,7 +30264,7 @@
         <v>138969</v>
       </c>
       <c r="K111" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -30301,7 +30301,7 @@
         <v>138969</v>
       </c>
       <c r="K112" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -30338,7 +30338,7 @@
         <v>138969</v>
       </c>
       <c r="K113" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -30375,7 +30375,7 @@
         <v>138969</v>
       </c>
       <c r="K114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -30412,7 +30412,7 @@
         <v>138969</v>
       </c>
       <c r="K115" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -30449,7 +30449,7 @@
         <v>138969</v>
       </c>
       <c r="K116" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -30486,7 +30486,7 @@
         <v>138969</v>
       </c>
       <c r="K117" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -30523,7 +30523,7 @@
         <v>138969</v>
       </c>
       <c r="K118" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -30560,7 +30560,7 @@
         <v>138969</v>
       </c>
       <c r="K119" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -30597,7 +30597,7 @@
         <v>138969</v>
       </c>
       <c r="K120" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -30634,7 +30634,7 @@
         <v>138969</v>
       </c>
       <c r="K121" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -30671,7 +30671,7 @@
         <v>138969</v>
       </c>
       <c r="K122" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -30708,7 +30708,7 @@
         <v>138969</v>
       </c>
       <c r="K123" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -30745,7 +30745,7 @@
         <v>138969</v>
       </c>
       <c r="K124" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -30782,7 +30782,7 @@
         <v>138969</v>
       </c>
       <c r="K125" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -30869,7 +30869,7 @@
         <v>138930</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -30906,7 +30906,7 @@
         <v>138930</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -30943,7 +30943,7 @@
         <v>138930</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -30980,7 +30980,7 @@
         <v>138930</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -31017,7 +31017,7 @@
         <v>138930</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -31054,7 +31054,7 @@
         <v>138930</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -31091,7 +31091,7 @@
         <v>138930</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -31128,7 +31128,7 @@
         <v>138930</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -31165,7 +31165,7 @@
         <v>138930</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -31202,7 +31202,7 @@
         <v>138930</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -31239,7 +31239,7 @@
         <v>138930</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -31276,7 +31276,7 @@
         <v>138930</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -31313,7 +31313,7 @@
         <v>138930</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -31350,7 +31350,7 @@
         <v>138930</v>
       </c>
       <c r="K15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -31387,7 +31387,7 @@
         <v>138930</v>
       </c>
       <c r="K16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -31424,7 +31424,7 @@
         <v>138930</v>
       </c>
       <c r="K17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -31461,7 +31461,7 @@
         <v>138930</v>
       </c>
       <c r="K18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -31498,7 +31498,7 @@
         <v>138930</v>
       </c>
       <c r="K19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -31535,7 +31535,7 @@
         <v>138930</v>
       </c>
       <c r="K20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -31572,7 +31572,7 @@
         <v>138930</v>
       </c>
       <c r="K21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -31609,7 +31609,7 @@
         <v>138930</v>
       </c>
       <c r="K22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -31646,7 +31646,7 @@
         <v>138930</v>
       </c>
       <c r="K23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -31683,7 +31683,7 @@
         <v>138930</v>
       </c>
       <c r="K24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -31720,7 +31720,7 @@
         <v>138930</v>
       </c>
       <c r="K25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -31757,7 +31757,7 @@
         <v>138930</v>
       </c>
       <c r="K26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -31794,7 +31794,7 @@
         <v>138930</v>
       </c>
       <c r="K27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -31831,7 +31831,7 @@
         <v>138930</v>
       </c>
       <c r="K28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -31868,7 +31868,7 @@
         <v>138930</v>
       </c>
       <c r="K29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -31905,7 +31905,7 @@
         <v>138930</v>
       </c>
       <c r="K30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -31942,7 +31942,7 @@
         <v>138930</v>
       </c>
       <c r="K31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -31979,7 +31979,7 @@
         <v>138930</v>
       </c>
       <c r="K32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -32016,7 +32016,7 @@
         <v>138930</v>
       </c>
       <c r="K33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -32053,7 +32053,7 @@
         <v>138930</v>
       </c>
       <c r="K34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -32090,7 +32090,7 @@
         <v>138930</v>
       </c>
       <c r="K35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -32127,7 +32127,7 @@
         <v>138930</v>
       </c>
       <c r="K36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -32164,7 +32164,7 @@
         <v>138930</v>
       </c>
       <c r="K37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -32201,7 +32201,7 @@
         <v>138930</v>
       </c>
       <c r="K38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -32238,7 +32238,7 @@
         <v>138930</v>
       </c>
       <c r="K39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -32275,7 +32275,7 @@
         <v>138930</v>
       </c>
       <c r="K40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -32312,7 +32312,7 @@
         <v>138930</v>
       </c>
       <c r="K41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -32349,7 +32349,7 @@
         <v>138930</v>
       </c>
       <c r="K42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -32386,7 +32386,7 @@
         <v>138930</v>
       </c>
       <c r="K43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -32423,7 +32423,7 @@
         <v>120834</v>
       </c>
       <c r="K44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -32460,7 +32460,7 @@
         <v>120834</v>
       </c>
       <c r="K45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -32497,7 +32497,7 @@
         <v>120834</v>
       </c>
       <c r="K46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -32534,7 +32534,7 @@
         <v>120834</v>
       </c>
       <c r="K47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -32571,7 +32571,7 @@
         <v>120834</v>
       </c>
       <c r="K48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -32608,7 +32608,7 @@
         <v>120834</v>
       </c>
       <c r="K49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -32645,7 +32645,7 @@
         <v>120834</v>
       </c>
       <c r="K50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -32682,7 +32682,7 @@
         <v>120834</v>
       </c>
       <c r="K51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -32719,7 +32719,7 @@
         <v>120834</v>
       </c>
       <c r="K52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -32756,7 +32756,7 @@
         <v>120834</v>
       </c>
       <c r="K53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -32793,7 +32793,7 @@
         <v>120834</v>
       </c>
       <c r="K54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -32830,7 +32830,7 @@
         <v>120834</v>
       </c>
       <c r="K55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -32867,7 +32867,7 @@
         <v>120834</v>
       </c>
       <c r="K56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -32904,7 +32904,7 @@
         <v>120834</v>
       </c>
       <c r="K57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -32941,7 +32941,7 @@
         <v>120834</v>
       </c>
       <c r="K58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -32978,7 +32978,7 @@
         <v>120834</v>
       </c>
       <c r="K59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -33015,7 +33015,7 @@
         <v>120834</v>
       </c>
       <c r="K60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -33052,7 +33052,7 @@
         <v>120834</v>
       </c>
       <c r="K61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -33089,7 +33089,7 @@
         <v>120834</v>
       </c>
       <c r="K62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -33126,7 +33126,7 @@
         <v>120834</v>
       </c>
       <c r="K63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -33163,7 +33163,7 @@
         <v>120834</v>
       </c>
       <c r="K64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -33200,7 +33200,7 @@
         <v>120834</v>
       </c>
       <c r="K65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -33237,7 +33237,7 @@
         <v>120834</v>
       </c>
       <c r="K66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -33274,7 +33274,7 @@
         <v>120834</v>
       </c>
       <c r="K67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -33311,7 +33311,7 @@
         <v>120834</v>
       </c>
       <c r="K68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -33348,7 +33348,7 @@
         <v>120834</v>
       </c>
       <c r="K69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Albatross_LWR_data/Albatross_LWR_Data.xlsx
+++ b/Data/Albatross_LWR_data/Albatross_LWR_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\AlbatrossPhillipinesLWR\Data\Albatross_LWR_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4594368E-1F69-4635-B6CD-9B601B13ED6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0034C219-6BB8-4DE9-8E8D-485F654021AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="13152" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="832" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Siganus fuscescens" sheetId="1" r:id="rId1"/>
@@ -173,13 +173,7 @@
     <t>Locality</t>
   </si>
   <si>
-    <t>Mindinao_River_Cotabato_Mindanao</t>
-  </si>
-  <si>
     <t>Pandanon_Island_between_Cebu_and_Bohol</t>
-  </si>
-  <si>
-    <t>Surigao_Mindinao</t>
   </si>
   <si>
     <t>Guijulugan_Negros</t>
@@ -273,6 +267,12 @@
   </si>
   <si>
     <t>Port_San_Vicente_Luzon</t>
+  </si>
+  <si>
+    <t>Mindanao_River_Cotabato_Mindanao</t>
+  </si>
+  <si>
+    <t>Surigao_Mindanao</t>
   </si>
 </sst>
 </file>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -705,7 +705,7 @@
         <v>182970</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -742,7 +742,7 @@
         <v>182970</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -779,7 +779,7 @@
         <v>182970</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -816,7 +816,7 @@
         <v>182970</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -853,7 +853,7 @@
         <v>182970</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -890,7 +890,7 @@
         <v>182970</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -927,7 +927,7 @@
         <v>182970</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -964,7 +964,7 @@
         <v>182970</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1001,7 +1001,7 @@
         <v>182970</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1038,7 +1038,7 @@
         <v>182970</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1075,7 +1075,7 @@
         <v>182970</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1112,7 +1112,7 @@
         <v>182970</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1149,7 +1149,7 @@
         <v>182970</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1186,7 +1186,7 @@
         <v>182970</v>
       </c>
       <c r="K15" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1223,7 +1223,7 @@
         <v>182970</v>
       </c>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1260,7 +1260,7 @@
         <v>182970</v>
       </c>
       <c r="K17" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1297,7 +1297,7 @@
         <v>182970</v>
       </c>
       <c r="K18" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1334,7 +1334,7 @@
         <v>182970</v>
       </c>
       <c r="K19" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1371,7 +1371,7 @@
         <v>182970</v>
       </c>
       <c r="K20" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1408,7 +1408,7 @@
         <v>182970</v>
       </c>
       <c r="K21" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1445,7 +1445,7 @@
         <v>182970</v>
       </c>
       <c r="K22" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1482,7 +1482,7 @@
         <v>182726</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1519,7 +1519,7 @@
         <v>182726</v>
       </c>
       <c r="K24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1556,7 +1556,7 @@
         <v>182726</v>
       </c>
       <c r="K25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1593,7 +1593,7 @@
         <v>182726</v>
       </c>
       <c r="K26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1630,7 +1630,7 @@
         <v>182726</v>
       </c>
       <c r="K27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1667,7 +1667,7 @@
         <v>182726</v>
       </c>
       <c r="K28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1704,7 +1704,7 @@
         <v>182726</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1741,7 +1741,7 @@
         <v>182726</v>
       </c>
       <c r="K30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1778,7 +1778,7 @@
         <v>182726</v>
       </c>
       <c r="K31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1815,7 +1815,7 @@
         <v>182726</v>
       </c>
       <c r="K32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1852,7 +1852,7 @@
         <v>182726</v>
       </c>
       <c r="K33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1889,7 +1889,7 @@
         <v>182726</v>
       </c>
       <c r="K34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1926,7 +1926,7 @@
         <v>182982</v>
       </c>
       <c r="K35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1963,7 +1963,7 @@
         <v>182982</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2000,7 +2000,7 @@
         <v>182982</v>
       </c>
       <c r="K37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2037,7 +2037,7 @@
         <v>182979</v>
       </c>
       <c r="K38" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2074,7 +2074,7 @@
         <v>182979</v>
       </c>
       <c r="K39" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2111,7 +2111,7 @@
         <v>182979</v>
       </c>
       <c r="K40" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2148,7 +2148,7 @@
         <v>182979</v>
       </c>
       <c r="K41" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2185,7 +2185,7 @@
         <v>182979</v>
       </c>
       <c r="K42" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2222,7 +2222,7 @@
         <v>182979</v>
       </c>
       <c r="K43" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2259,7 +2259,7 @@
         <v>182979</v>
       </c>
       <c r="K44" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2296,7 +2296,7 @@
         <v>182979</v>
       </c>
       <c r="K45" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2333,7 +2333,7 @@
         <v>182979</v>
       </c>
       <c r="K46" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2370,7 +2370,7 @@
         <v>182979</v>
       </c>
       <c r="K47" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2407,7 +2407,7 @@
         <v>182979</v>
       </c>
       <c r="K48" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2444,7 +2444,7 @@
         <v>182979</v>
       </c>
       <c r="K49" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2481,7 +2481,7 @@
         <v>182979</v>
       </c>
       <c r="K50" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2518,7 +2518,7 @@
         <v>182979</v>
       </c>
       <c r="K51" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2555,7 +2555,7 @@
         <v>182979</v>
       </c>
       <c r="K52" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2592,7 +2592,7 @@
         <v>182979</v>
       </c>
       <c r="K53" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2629,7 +2629,7 @@
         <v>182979</v>
       </c>
       <c r="K54" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2666,7 +2666,7 @@
         <v>182979</v>
       </c>
       <c r="K55" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2703,7 +2703,7 @@
         <v>182979</v>
       </c>
       <c r="K56" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2740,7 +2740,7 @@
         <v>182965</v>
       </c>
       <c r="K57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2777,7 +2777,7 @@
         <v>182965</v>
       </c>
       <c r="K58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2814,7 +2814,7 @@
         <v>182938</v>
       </c>
       <c r="K59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2851,7 +2851,7 @@
         <v>195492</v>
       </c>
       <c r="K60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2888,7 +2888,7 @@
         <v>195476</v>
       </c>
       <c r="K61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2977,7 +2977,7 @@
         <v>136752</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3014,7 +3014,7 @@
         <v>136752</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3051,7 +3051,7 @@
         <v>136752</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3088,7 +3088,7 @@
         <v>136752</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3125,7 +3125,7 @@
         <v>136752</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3162,7 +3162,7 @@
         <v>136752</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3199,7 +3199,7 @@
         <v>136752</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3236,7 +3236,7 @@
         <v>136752</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3273,7 +3273,7 @@
         <v>136752</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3310,7 +3310,7 @@
         <v>136752</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3347,7 +3347,7 @@
         <v>136752</v>
       </c>
       <c r="K12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3384,7 +3384,7 @@
         <v>136752</v>
       </c>
       <c r="K13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3421,7 +3421,7 @@
         <v>136752</v>
       </c>
       <c r="K14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3458,7 +3458,7 @@
         <v>136752</v>
       </c>
       <c r="K15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3495,7 +3495,7 @@
         <v>136752</v>
       </c>
       <c r="K16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3532,7 +3532,7 @@
         <v>136752</v>
       </c>
       <c r="K17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3569,7 +3569,7 @@
         <v>136752</v>
       </c>
       <c r="K18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3606,7 +3606,7 @@
         <v>136752</v>
       </c>
       <c r="K19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3643,7 +3643,7 @@
         <v>136752</v>
       </c>
       <c r="K20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3680,7 +3680,7 @@
         <v>136752</v>
       </c>
       <c r="K21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3717,7 +3717,7 @@
         <v>136752</v>
       </c>
       <c r="K22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3754,7 +3754,7 @@
         <v>136752</v>
       </c>
       <c r="K23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3791,7 +3791,7 @@
         <v>136752</v>
       </c>
       <c r="K24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3828,7 +3828,7 @@
         <v>136726</v>
       </c>
       <c r="K25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3865,7 +3865,7 @@
         <v>136726</v>
       </c>
       <c r="K26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3902,7 +3902,7 @@
         <v>136726</v>
       </c>
       <c r="K27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3939,7 +3939,7 @@
         <v>136726</v>
       </c>
       <c r="K28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3976,7 +3976,7 @@
         <v>136726</v>
       </c>
       <c r="K29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4013,7 +4013,7 @@
         <v>136726</v>
       </c>
       <c r="K30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -4050,7 +4050,7 @@
         <v>136726</v>
       </c>
       <c r="K31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4087,7 +4087,7 @@
         <v>136726</v>
       </c>
       <c r="K32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -4124,7 +4124,7 @@
         <v>136726</v>
       </c>
       <c r="K33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4161,7 +4161,7 @@
         <v>136726</v>
       </c>
       <c r="K34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4198,7 +4198,7 @@
         <v>136726</v>
       </c>
       <c r="K35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4235,7 +4235,7 @@
         <v>136726</v>
       </c>
       <c r="K36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -4272,7 +4272,7 @@
         <v>136726</v>
       </c>
       <c r="K37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4309,7 +4309,7 @@
         <v>136726</v>
       </c>
       <c r="K38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -4346,7 +4346,7 @@
         <v>136726</v>
       </c>
       <c r="K39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -4383,7 +4383,7 @@
         <v>136726</v>
       </c>
       <c r="K40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -4420,7 +4420,7 @@
         <v>136726</v>
       </c>
       <c r="K41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -4457,7 +4457,7 @@
         <v>136726</v>
       </c>
       <c r="K42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -4494,7 +4494,7 @@
         <v>136726</v>
       </c>
       <c r="K43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -4531,7 +4531,7 @@
         <v>136726</v>
       </c>
       <c r="K44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -4568,7 +4568,7 @@
         <v>136726</v>
       </c>
       <c r="K45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -4605,7 +4605,7 @@
         <v>136726</v>
       </c>
       <c r="K46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -4642,7 +4642,7 @@
         <v>136726</v>
       </c>
       <c r="K47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -4679,7 +4679,7 @@
         <v>136726</v>
       </c>
       <c r="K48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4766,7 +4766,7 @@
         <v>149423</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4803,7 +4803,7 @@
         <v>149427</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4840,7 +4840,7 @@
         <v>149427</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4877,7 +4877,7 @@
         <v>149429</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4914,7 +4914,7 @@
         <v>149429</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4951,7 +4951,7 @@
         <v>149429</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4988,7 +4988,7 @@
         <v>149429</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5025,7 +5025,7 @@
         <v>149429</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5062,7 +5062,7 @@
         <v>149429</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5099,7 +5099,7 @@
         <v>149429</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5136,7 +5136,7 @@
         <v>149429</v>
       </c>
       <c r="K12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -5148,8 +5148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C642F94-9666-4AD7-8016-E40E9A93C1DD}">
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5223,7 +5223,7 @@
         <v>136831</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5260,7 +5260,7 @@
         <v>136831</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5297,7 +5297,7 @@
         <v>136831</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5334,7 +5334,7 @@
         <v>136831</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5371,7 +5371,7 @@
         <v>136831</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5408,7 +5408,7 @@
         <v>136831</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5445,7 +5445,7 @@
         <v>136831</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5482,7 +5482,7 @@
         <v>136831</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5519,7 +5519,7 @@
         <v>136831</v>
       </c>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5556,7 +5556,7 @@
         <v>136831</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5593,7 +5593,7 @@
         <v>136831</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5630,7 +5630,7 @@
         <v>136831</v>
       </c>
       <c r="K13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5667,7 +5667,7 @@
         <v>136831</v>
       </c>
       <c r="K14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5704,7 +5704,7 @@
         <v>136831</v>
       </c>
       <c r="K15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5741,7 +5741,7 @@
         <v>136831</v>
       </c>
       <c r="K16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5778,7 +5778,7 @@
         <v>136831</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5815,7 +5815,7 @@
         <v>136831</v>
       </c>
       <c r="K18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5852,7 +5852,7 @@
         <v>136831</v>
       </c>
       <c r="K19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -5889,7 +5889,7 @@
         <v>136831</v>
       </c>
       <c r="K20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -5926,7 +5926,7 @@
         <v>136831</v>
       </c>
       <c r="K21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -5963,7 +5963,7 @@
         <v>136831</v>
       </c>
       <c r="K22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -6000,7 +6000,7 @@
         <v>136831</v>
       </c>
       <c r="K23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -6037,7 +6037,7 @@
         <v>136831</v>
       </c>
       <c r="K24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -6074,7 +6074,7 @@
         <v>136831</v>
       </c>
       <c r="K25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -6111,7 +6111,7 @@
         <v>136831</v>
       </c>
       <c r="K26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -6148,7 +6148,7 @@
         <v>136831</v>
       </c>
       <c r="K27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -6185,7 +6185,7 @@
         <v>136831</v>
       </c>
       <c r="K28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -6222,7 +6222,7 @@
         <v>136831</v>
       </c>
       <c r="K29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -6259,7 +6259,7 @@
         <v>136831</v>
       </c>
       <c r="K30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -6296,7 +6296,7 @@
         <v>136831</v>
       </c>
       <c r="K31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -6333,7 +6333,7 @@
         <v>136831</v>
       </c>
       <c r="K32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -6370,7 +6370,7 @@
         <v>136831</v>
       </c>
       <c r="K33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -6407,7 +6407,7 @@
         <v>136831</v>
       </c>
       <c r="K34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -6444,7 +6444,7 @@
         <v>136831</v>
       </c>
       <c r="K35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -6481,7 +6481,7 @@
         <v>136831</v>
       </c>
       <c r="K36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -6518,7 +6518,7 @@
         <v>136831</v>
       </c>
       <c r="K37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -6555,7 +6555,7 @@
         <v>136831</v>
       </c>
       <c r="K38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -6592,7 +6592,7 @@
         <v>136846</v>
       </c>
       <c r="K39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -6629,7 +6629,7 @@
         <v>136846</v>
       </c>
       <c r="K40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -6666,7 +6666,7 @@
         <v>136846</v>
       </c>
       <c r="K41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -6703,7 +6703,7 @@
         <v>136846</v>
       </c>
       <c r="K42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -6740,7 +6740,7 @@
         <v>136827</v>
       </c>
       <c r="K43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -6777,7 +6777,7 @@
         <v>136827</v>
       </c>
       <c r="K44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -6814,7 +6814,7 @@
         <v>136827</v>
       </c>
       <c r="K45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -6851,7 +6851,7 @@
         <v>136827</v>
       </c>
       <c r="K46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -6888,7 +6888,7 @@
         <v>136827</v>
       </c>
       <c r="K47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -6925,7 +6925,7 @@
         <v>136827</v>
       </c>
       <c r="K48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -6962,7 +6962,7 @@
         <v>136851</v>
       </c>
       <c r="K49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -6999,7 +6999,7 @@
         <v>136851</v>
       </c>
       <c r="K50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -7036,7 +7036,7 @@
         <v>136851</v>
       </c>
       <c r="K51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -7073,7 +7073,7 @@
         <v>136851</v>
       </c>
       <c r="K52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -7110,7 +7110,7 @@
         <v>136851</v>
       </c>
       <c r="K53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -7147,7 +7147,7 @@
         <v>136851</v>
       </c>
       <c r="K54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -7184,7 +7184,7 @@
         <v>136851</v>
       </c>
       <c r="K55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -7221,7 +7221,7 @@
         <v>136851</v>
       </c>
       <c r="K56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -7258,7 +7258,7 @@
         <v>136851</v>
       </c>
       <c r="K57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -7295,7 +7295,7 @@
         <v>136851</v>
       </c>
       <c r="K58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -7332,7 +7332,7 @@
         <v>136851</v>
       </c>
       <c r="K59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -7369,7 +7369,7 @@
         <v>136851</v>
       </c>
       <c r="K60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -7406,7 +7406,7 @@
         <v>136851</v>
       </c>
       <c r="K61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -7443,7 +7443,7 @@
         <v>136851</v>
       </c>
       <c r="K62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -7480,7 +7480,7 @@
         <v>136851</v>
       </c>
       <c r="K63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -7517,7 +7517,7 @@
         <v>136851</v>
       </c>
       <c r="K64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -7554,7 +7554,7 @@
         <v>136851</v>
       </c>
       <c r="K65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -7591,7 +7591,7 @@
         <v>136813</v>
       </c>
       <c r="K66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -7628,7 +7628,7 @@
         <v>136813</v>
       </c>
       <c r="K67" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -7665,7 +7665,7 @@
         <v>136813</v>
       </c>
       <c r="K68" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -7702,7 +7702,7 @@
         <v>136813</v>
       </c>
       <c r="K69" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -7739,7 +7739,7 @@
         <v>136813</v>
       </c>
       <c r="K70" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -7776,7 +7776,7 @@
         <v>136813</v>
       </c>
       <c r="K71" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -7813,7 +7813,7 @@
         <v>136813</v>
       </c>
       <c r="K72" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -7850,7 +7850,7 @@
         <v>136813</v>
       </c>
       <c r="K73" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -7887,7 +7887,7 @@
         <v>136813</v>
       </c>
       <c r="K74" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -7924,7 +7924,7 @@
         <v>136813</v>
       </c>
       <c r="K75" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -7961,7 +7961,7 @@
         <v>136813</v>
       </c>
       <c r="K76" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -7998,7 +7998,7 @@
         <v>136813</v>
       </c>
       <c r="K77" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -8035,7 +8035,7 @@
         <v>136813</v>
       </c>
       <c r="K78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -8072,7 +8072,7 @@
         <v>136813</v>
       </c>
       <c r="K79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -8109,7 +8109,7 @@
         <v>136813</v>
       </c>
       <c r="K80" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -8146,7 +8146,7 @@
         <v>136813</v>
       </c>
       <c r="K81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -8183,7 +8183,7 @@
         <v>136813</v>
       </c>
       <c r="K82" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -8220,7 +8220,7 @@
         <v>136813</v>
       </c>
       <c r="K83" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -8257,7 +8257,7 @@
         <v>136813</v>
       </c>
       <c r="K84" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -8294,7 +8294,7 @@
         <v>136813</v>
       </c>
       <c r="K85" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -8331,7 +8331,7 @@
         <v>136813</v>
       </c>
       <c r="K86" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -8368,7 +8368,7 @@
         <v>136813</v>
       </c>
       <c r="K87" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -8405,7 +8405,7 @@
         <v>136813</v>
       </c>
       <c r="K88" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -8442,7 +8442,7 @@
         <v>136813</v>
       </c>
       <c r="K89" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -8479,7 +8479,7 @@
         <v>136813</v>
       </c>
       <c r="K90" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -8516,7 +8516,7 @@
         <v>136813</v>
       </c>
       <c r="K91" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -8553,7 +8553,7 @@
         <v>136813</v>
       </c>
       <c r="K92" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -8590,7 +8590,7 @@
         <v>136813</v>
       </c>
       <c r="K93" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -8627,7 +8627,7 @@
         <v>136813</v>
       </c>
       <c r="K94" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -8664,7 +8664,7 @@
         <v>136813</v>
       </c>
       <c r="K95" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -8701,7 +8701,7 @@
         <v>136813</v>
       </c>
       <c r="K96" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -8738,7 +8738,7 @@
         <v>136813</v>
       </c>
       <c r="K97" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -8775,7 +8775,7 @@
         <v>136813</v>
       </c>
       <c r="K98" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -8812,7 +8812,7 @@
         <v>136813</v>
       </c>
       <c r="K99" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -8849,7 +8849,7 @@
         <v>136813</v>
       </c>
       <c r="K100" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -8886,7 +8886,7 @@
         <v>136813</v>
       </c>
       <c r="K101" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -8923,7 +8923,7 @@
         <v>136813</v>
       </c>
       <c r="K102" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -8960,7 +8960,7 @@
         <v>136813</v>
       </c>
       <c r="K103" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -8997,7 +8997,7 @@
         <v>136813</v>
       </c>
       <c r="K104" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -9034,7 +9034,7 @@
         <v>136813</v>
       </c>
       <c r="K105" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -9071,7 +9071,7 @@
         <v>136813</v>
       </c>
       <c r="K106" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -9108,7 +9108,7 @@
         <v>136813</v>
       </c>
       <c r="K107" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -9145,7 +9145,7 @@
         <v>136813</v>
       </c>
       <c r="K108" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -9182,7 +9182,7 @@
         <v>136813</v>
       </c>
       <c r="K109" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -9219,7 +9219,7 @@
         <v>136813</v>
       </c>
       <c r="K110" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -9256,7 +9256,7 @@
         <v>136813</v>
       </c>
       <c r="K111" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -9293,7 +9293,7 @@
         <v>136813</v>
       </c>
       <c r="K112" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -9330,7 +9330,7 @@
         <v>136813</v>
       </c>
       <c r="K113" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -9367,7 +9367,7 @@
         <v>136813</v>
       </c>
       <c r="K114" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -9404,7 +9404,7 @@
         <v>136813</v>
       </c>
       <c r="K115" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -9441,7 +9441,7 @@
         <v>136813</v>
       </c>
       <c r="K116" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -9478,7 +9478,7 @@
         <v>136813</v>
       </c>
       <c r="K117" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -9515,7 +9515,7 @@
         <v>136813</v>
       </c>
       <c r="K118" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -9552,7 +9552,7 @@
         <v>136813</v>
       </c>
       <c r="K119" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -9589,7 +9589,7 @@
         <v>136813</v>
       </c>
       <c r="K120" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -9626,7 +9626,7 @@
         <v>136813</v>
       </c>
       <c r="K121" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -9663,7 +9663,7 @@
         <v>136813</v>
       </c>
       <c r="K122" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -9700,7 +9700,7 @@
         <v>136813</v>
       </c>
       <c r="K123" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -9737,7 +9737,7 @@
         <v>136813</v>
       </c>
       <c r="K124" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -9774,7 +9774,7 @@
         <v>136813</v>
       </c>
       <c r="K125" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -9811,7 +9811,7 @@
         <v>136813</v>
       </c>
       <c r="K126" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -9898,7 +9898,7 @@
         <v>136807</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -9935,7 +9935,7 @@
         <v>136807</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -9972,7 +9972,7 @@
         <v>136807</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -10009,7 +10009,7 @@
         <v>136807</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -10046,7 +10046,7 @@
         <v>136807</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -10083,7 +10083,7 @@
         <v>136807</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -10120,7 +10120,7 @@
         <v>136807</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -10157,7 +10157,7 @@
         <v>136807</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -10194,7 +10194,7 @@
         <v>136807</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -10231,7 +10231,7 @@
         <v>136807</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -10268,7 +10268,7 @@
         <v>136807</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -10305,7 +10305,7 @@
         <v>136807</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -10342,7 +10342,7 @@
         <v>136807</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -10379,7 +10379,7 @@
         <v>136807</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -10416,7 +10416,7 @@
         <v>136807</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -10453,7 +10453,7 @@
         <v>136807</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -10490,7 +10490,7 @@
         <v>136807</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -10527,7 +10527,7 @@
         <v>136807</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -10564,7 +10564,7 @@
         <v>136807</v>
       </c>
       <c r="K20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -10601,7 +10601,7 @@
         <v>136807</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -10638,7 +10638,7 @@
         <v>136807</v>
       </c>
       <c r="K22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -10675,7 +10675,7 @@
         <v>136807</v>
       </c>
       <c r="K23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -10712,7 +10712,7 @@
         <v>136807</v>
       </c>
       <c r="K24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -10749,7 +10749,7 @@
         <v>136807</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -10786,7 +10786,7 @@
         <v>136807</v>
       </c>
       <c r="K26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -10823,7 +10823,7 @@
         <v>136807</v>
       </c>
       <c r="K27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -10860,7 +10860,7 @@
         <v>136807</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -10897,7 +10897,7 @@
         <v>136807</v>
       </c>
       <c r="K29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -10934,7 +10934,7 @@
         <v>136807</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -10971,7 +10971,7 @@
         <v>136807</v>
       </c>
       <c r="K31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -11008,7 +11008,7 @@
         <v>136807</v>
       </c>
       <c r="K32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -11045,7 +11045,7 @@
         <v>136807</v>
       </c>
       <c r="K33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -11082,7 +11082,7 @@
         <v>136807</v>
       </c>
       <c r="K34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -11119,7 +11119,7 @@
         <v>136807</v>
       </c>
       <c r="K35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -11156,7 +11156,7 @@
         <v>136807</v>
       </c>
       <c r="K36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -11193,7 +11193,7 @@
         <v>136807</v>
       </c>
       <c r="K37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -11230,7 +11230,7 @@
         <v>136807</v>
       </c>
       <c r="K38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -11267,7 +11267,7 @@
         <v>136807</v>
       </c>
       <c r="K39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -11304,7 +11304,7 @@
         <v>136807</v>
       </c>
       <c r="K40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -11341,7 +11341,7 @@
         <v>136807</v>
       </c>
       <c r="K41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -11378,7 +11378,7 @@
         <v>136807</v>
       </c>
       <c r="K42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -11415,7 +11415,7 @@
         <v>136807</v>
       </c>
       <c r="K43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -11452,7 +11452,7 @@
         <v>136807</v>
       </c>
       <c r="K44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -11489,7 +11489,7 @@
         <v>136807</v>
       </c>
       <c r="K45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -11526,7 +11526,7 @@
         <v>136807</v>
       </c>
       <c r="K46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -11563,7 +11563,7 @@
         <v>136807</v>
       </c>
       <c r="K47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -11600,7 +11600,7 @@
         <v>136807</v>
       </c>
       <c r="K48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -11637,7 +11637,7 @@
         <v>136807</v>
       </c>
       <c r="K49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -11674,7 +11674,7 @@
         <v>136807</v>
       </c>
       <c r="K50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -11711,7 +11711,7 @@
         <v>136807</v>
       </c>
       <c r="K51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -11748,7 +11748,7 @@
         <v>136807</v>
       </c>
       <c r="K52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -11785,7 +11785,7 @@
         <v>136807</v>
       </c>
       <c r="K53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -11822,7 +11822,7 @@
         <v>136807</v>
       </c>
       <c r="K54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -11859,7 +11859,7 @@
         <v>136807</v>
       </c>
       <c r="K55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -11896,7 +11896,7 @@
         <v>136807</v>
       </c>
       <c r="K56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -11933,7 +11933,7 @@
         <v>136807</v>
       </c>
       <c r="K57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -11970,7 +11970,7 @@
         <v>136807</v>
       </c>
       <c r="K58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -12007,7 +12007,7 @@
         <v>136807</v>
       </c>
       <c r="K59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -12044,7 +12044,7 @@
         <v>136807</v>
       </c>
       <c r="K60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -12081,7 +12081,7 @@
         <v>136807</v>
       </c>
       <c r="K61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -12118,7 +12118,7 @@
         <v>136807</v>
       </c>
       <c r="K62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -12155,7 +12155,7 @@
         <v>136807</v>
       </c>
       <c r="K63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -12192,7 +12192,7 @@
         <v>136807</v>
       </c>
       <c r="K64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -12229,7 +12229,7 @@
         <v>136807</v>
       </c>
       <c r="K65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -12266,7 +12266,7 @@
         <v>136807</v>
       </c>
       <c r="K66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -12303,7 +12303,7 @@
         <v>136807</v>
       </c>
       <c r="K67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -12340,7 +12340,7 @@
         <v>136807</v>
       </c>
       <c r="K68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -12377,7 +12377,7 @@
         <v>136807</v>
       </c>
       <c r="K69" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -12414,7 +12414,7 @@
         <v>136807</v>
       </c>
       <c r="K70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -12451,7 +12451,7 @@
         <v>136807</v>
       </c>
       <c r="K71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -12488,7 +12488,7 @@
         <v>136807</v>
       </c>
       <c r="K72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -12525,7 +12525,7 @@
         <v>136807</v>
       </c>
       <c r="K73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -12562,7 +12562,7 @@
         <v>136804</v>
       </c>
       <c r="K74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -12599,7 +12599,7 @@
         <v>136804</v>
       </c>
       <c r="K75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -12636,7 +12636,7 @@
         <v>136804</v>
       </c>
       <c r="K76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -12673,7 +12673,7 @@
         <v>136804</v>
       </c>
       <c r="K77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -12710,7 +12710,7 @@
         <v>136804</v>
       </c>
       <c r="K78" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -12747,7 +12747,7 @@
         <v>136804</v>
       </c>
       <c r="K79" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -12784,7 +12784,7 @@
         <v>136804</v>
       </c>
       <c r="K80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -12821,7 +12821,7 @@
         <v>136804</v>
       </c>
       <c r="K81" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -12858,7 +12858,7 @@
         <v>136804</v>
       </c>
       <c r="K82" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -12895,7 +12895,7 @@
         <v>136804</v>
       </c>
       <c r="K83" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -12932,7 +12932,7 @@
         <v>136804</v>
       </c>
       <c r="K84" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -12969,7 +12969,7 @@
         <v>136804</v>
       </c>
       <c r="K85" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -13006,7 +13006,7 @@
         <v>136804</v>
       </c>
       <c r="K86" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -13043,7 +13043,7 @@
         <v>136804</v>
       </c>
       <c r="K87" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -13080,7 +13080,7 @@
         <v>136804</v>
       </c>
       <c r="K88" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -13117,7 +13117,7 @@
         <v>136804</v>
       </c>
       <c r="K89" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -13154,7 +13154,7 @@
         <v>136804</v>
       </c>
       <c r="K90" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -13191,7 +13191,7 @@
         <v>136804</v>
       </c>
       <c r="K91" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -13228,7 +13228,7 @@
         <v>136804</v>
       </c>
       <c r="K92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -13265,7 +13265,7 @@
         <v>136804</v>
       </c>
       <c r="K93" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -13302,7 +13302,7 @@
         <v>136804</v>
       </c>
       <c r="K94" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -13339,7 +13339,7 @@
         <v>136804</v>
       </c>
       <c r="K95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -13376,7 +13376,7 @@
         <v>136804</v>
       </c>
       <c r="K96" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -13413,7 +13413,7 @@
         <v>136804</v>
       </c>
       <c r="K97" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -13450,7 +13450,7 @@
         <v>136804</v>
       </c>
       <c r="K98" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -13487,7 +13487,7 @@
         <v>136804</v>
       </c>
       <c r="K99" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -13524,7 +13524,7 @@
         <v>136804</v>
       </c>
       <c r="K100" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -13561,7 +13561,7 @@
         <v>136804</v>
       </c>
       <c r="K101" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -13598,7 +13598,7 @@
         <v>136818</v>
       </c>
       <c r="K102" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -13635,7 +13635,7 @@
         <v>136818</v>
       </c>
       <c r="K103" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -13672,7 +13672,7 @@
         <v>136818</v>
       </c>
       <c r="K104" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -13709,7 +13709,7 @@
         <v>136818</v>
       </c>
       <c r="K105" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -13746,7 +13746,7 @@
         <v>136818</v>
       </c>
       <c r="K106" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -13783,7 +13783,7 @@
         <v>136818</v>
       </c>
       <c r="K107" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -13820,7 +13820,7 @@
         <v>136818</v>
       </c>
       <c r="K108" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -13857,7 +13857,7 @@
         <v>136818</v>
       </c>
       <c r="K109" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -13894,7 +13894,7 @@
         <v>136818</v>
       </c>
       <c r="K110" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -13931,7 +13931,7 @@
         <v>136818</v>
       </c>
       <c r="K111" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -13968,7 +13968,7 @@
         <v>136818</v>
       </c>
       <c r="K112" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -14005,7 +14005,7 @@
         <v>136818</v>
       </c>
       <c r="K113" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -14042,7 +14042,7 @@
         <v>136818</v>
       </c>
       <c r="K114" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -14079,7 +14079,7 @@
         <v>136818</v>
       </c>
       <c r="K115" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -14116,7 +14116,7 @@
         <v>136818</v>
       </c>
       <c r="K116" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -14153,7 +14153,7 @@
         <v>136818</v>
       </c>
       <c r="K117" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -14190,7 +14190,7 @@
         <v>136818</v>
       </c>
       <c r="K118" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -14227,7 +14227,7 @@
         <v>136818</v>
       </c>
       <c r="K119" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -14264,7 +14264,7 @@
         <v>136818</v>
       </c>
       <c r="K120" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -14301,7 +14301,7 @@
         <v>136818</v>
       </c>
       <c r="K121" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -14338,7 +14338,7 @@
         <v>136818</v>
       </c>
       <c r="K122" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -14375,7 +14375,7 @@
         <v>136818</v>
       </c>
       <c r="K123" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -14412,7 +14412,7 @@
         <v>136818</v>
       </c>
       <c r="K124" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -14449,7 +14449,7 @@
         <v>136818</v>
       </c>
       <c r="K125" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -14461,7 +14461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AA33B0-C369-4176-A0CE-A7B790CFC440}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
@@ -14536,7 +14536,7 @@
         <v>183331</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -14573,7 +14573,7 @@
         <v>183331</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -14610,7 +14610,7 @@
         <v>183331</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -14647,7 +14647,7 @@
         <v>183331</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -14684,7 +14684,7 @@
         <v>183331</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -14721,7 +14721,7 @@
         <v>183331</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -14758,7 +14758,7 @@
         <v>183331</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -14795,7 +14795,7 @@
         <v>183331</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -14832,7 +14832,7 @@
         <v>183331</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -14869,7 +14869,7 @@
         <v>183331</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -14906,7 +14906,7 @@
         <v>183331</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -14943,7 +14943,7 @@
         <v>183331</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -14980,7 +14980,7 @@
         <v>183331</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -15017,7 +15017,7 @@
         <v>183331</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -15054,7 +15054,7 @@
         <v>183331</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -15091,7 +15091,7 @@
         <v>183331</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -15128,7 +15128,7 @@
         <v>183330</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -15165,7 +15165,7 @@
         <v>183330</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -15202,7 +15202,7 @@
         <v>183330</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -15239,7 +15239,7 @@
         <v>183330</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -15276,7 +15276,7 @@
         <v>183330</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -15313,7 +15313,7 @@
         <v>183330</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -15350,7 +15350,7 @@
         <v>183330</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -15387,7 +15387,7 @@
         <v>183330</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -15424,7 +15424,7 @@
         <v>183330</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -15461,7 +15461,7 @@
         <v>183330</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -15498,7 +15498,7 @@
         <v>183330</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -15535,7 +15535,7 @@
         <v>183330</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -15572,7 +15572,7 @@
         <v>183330</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -15609,7 +15609,7 @@
         <v>183330</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -15646,7 +15646,7 @@
         <v>183330</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -15683,7 +15683,7 @@
         <v>183330</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -15720,7 +15720,7 @@
         <v>183330</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -15757,7 +15757,7 @@
         <v>183330</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -15794,7 +15794,7 @@
         <v>183330</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -15831,7 +15831,7 @@
         <v>183330</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -15868,7 +15868,7 @@
         <v>183330</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -15905,7 +15905,7 @@
         <v>183330</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -15942,7 +15942,7 @@
         <v>183330</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -15979,7 +15979,7 @@
         <v>183327</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -16016,7 +16016,7 @@
         <v>183327</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -16053,7 +16053,7 @@
         <v>183327</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -16090,7 +16090,7 @@
         <v>183327</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -16127,7 +16127,7 @@
         <v>183327</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -16164,7 +16164,7 @@
         <v>183327</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -16201,7 +16201,7 @@
         <v>183327</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -16238,7 +16238,7 @@
         <v>183327</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -16275,7 +16275,7 @@
         <v>183327</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -16312,7 +16312,7 @@
         <v>183327</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -16349,7 +16349,7 @@
         <v>183327</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -16386,7 +16386,7 @@
         <v>183327</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -16423,7 +16423,7 @@
         <v>183327</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -16460,7 +16460,7 @@
         <v>183327</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -16497,7 +16497,7 @@
         <v>183327</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -16534,7 +16534,7 @@
         <v>183327</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -16571,7 +16571,7 @@
         <v>183327</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -16658,7 +16658,7 @@
         <v>120302</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -16695,7 +16695,7 @@
         <v>120302</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -16732,7 +16732,7 @@
         <v>120302</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -16769,7 +16769,7 @@
         <v>120302</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -16806,7 +16806,7 @@
         <v>120302</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -16843,7 +16843,7 @@
         <v>120302</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -16880,7 +16880,7 @@
         <v>120302</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -16917,7 +16917,7 @@
         <v>120302</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -16954,7 +16954,7 @@
         <v>120302</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -16991,7 +16991,7 @@
         <v>120302</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -17028,7 +17028,7 @@
         <v>120302</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -17065,7 +17065,7 @@
         <v>120302</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -17102,7 +17102,7 @@
         <v>120302</v>
       </c>
       <c r="K14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -17139,7 +17139,7 @@
         <v>120302</v>
       </c>
       <c r="K15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -17176,7 +17176,7 @@
         <v>120302</v>
       </c>
       <c r="K16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -17213,7 +17213,7 @@
         <v>120302</v>
       </c>
       <c r="K17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -17250,7 +17250,7 @@
         <v>120302</v>
       </c>
       <c r="K18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -17287,7 +17287,7 @@
         <v>120302</v>
       </c>
       <c r="K19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -17324,7 +17324,7 @@
         <v>120302</v>
       </c>
       <c r="K20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -17361,7 +17361,7 @@
         <v>120302</v>
       </c>
       <c r="K21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -17398,7 +17398,7 @@
         <v>120302</v>
       </c>
       <c r="K22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -17435,7 +17435,7 @@
         <v>120302</v>
       </c>
       <c r="K23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -17472,7 +17472,7 @@
         <v>120302</v>
       </c>
       <c r="K24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -17509,7 +17509,7 @@
         <v>120302</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -17546,7 +17546,7 @@
         <v>120302</v>
       </c>
       <c r="K26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -17583,7 +17583,7 @@
         <v>120302</v>
       </c>
       <c r="K27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -17620,7 +17620,7 @@
         <v>120302</v>
       </c>
       <c r="K28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -17657,7 +17657,7 @@
         <v>120302</v>
       </c>
       <c r="K29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -17694,7 +17694,7 @@
         <v>120302</v>
       </c>
       <c r="K30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -17731,7 +17731,7 @@
         <v>120302</v>
       </c>
       <c r="K31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -17768,7 +17768,7 @@
         <v>120302</v>
       </c>
       <c r="K32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -17805,7 +17805,7 @@
         <v>120302</v>
       </c>
       <c r="K33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -17842,7 +17842,7 @@
         <v>120302</v>
       </c>
       <c r="K34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -17879,7 +17879,7 @@
         <v>120302</v>
       </c>
       <c r="K35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -17916,7 +17916,7 @@
         <v>120302</v>
       </c>
       <c r="K36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -17953,7 +17953,7 @@
         <v>120302</v>
       </c>
       <c r="K37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -17990,7 +17990,7 @@
         <v>120302</v>
       </c>
       <c r="K38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -18027,7 +18027,7 @@
         <v>120302</v>
       </c>
       <c r="K39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -18064,7 +18064,7 @@
         <v>120302</v>
       </c>
       <c r="K40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -18101,7 +18101,7 @@
         <v>120302</v>
       </c>
       <c r="K41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -18138,7 +18138,7 @@
         <v>120302</v>
       </c>
       <c r="K42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -18175,7 +18175,7 @@
         <v>120302</v>
       </c>
       <c r="K43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -18212,7 +18212,7 @@
         <v>120302</v>
       </c>
       <c r="K44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -18249,7 +18249,7 @@
         <v>120302</v>
       </c>
       <c r="K45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -18286,7 +18286,7 @@
         <v>120302</v>
       </c>
       <c r="K46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -18323,7 +18323,7 @@
         <v>120302</v>
       </c>
       <c r="K47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -18360,7 +18360,7 @@
         <v>120302</v>
       </c>
       <c r="K48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -18397,7 +18397,7 @@
         <v>120302</v>
       </c>
       <c r="K49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -18434,7 +18434,7 @@
         <v>120302</v>
       </c>
       <c r="K50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -18471,7 +18471,7 @@
         <v>120302</v>
       </c>
       <c r="K51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -18508,7 +18508,7 @@
         <v>139301</v>
       </c>
       <c r="K52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -18545,7 +18545,7 @@
         <v>139301</v>
       </c>
       <c r="K53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -18582,7 +18582,7 @@
         <v>139301</v>
       </c>
       <c r="K54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -18619,7 +18619,7 @@
         <v>139301</v>
       </c>
       <c r="K55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -18656,7 +18656,7 @@
         <v>139301</v>
       </c>
       <c r="K56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -18693,7 +18693,7 @@
         <v>139301</v>
       </c>
       <c r="K57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -18730,7 +18730,7 @@
         <v>139301</v>
       </c>
       <c r="K58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -18767,7 +18767,7 @@
         <v>139301</v>
       </c>
       <c r="K59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -18804,7 +18804,7 @@
         <v>139301</v>
       </c>
       <c r="K60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -18841,7 +18841,7 @@
         <v>139301</v>
       </c>
       <c r="K61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -18878,7 +18878,7 @@
         <v>139301</v>
       </c>
       <c r="K62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -18915,7 +18915,7 @@
         <v>139301</v>
       </c>
       <c r="K63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -18952,7 +18952,7 @@
         <v>139301</v>
       </c>
       <c r="K64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -18989,7 +18989,7 @@
         <v>139301</v>
       </c>
       <c r="K65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -19026,7 +19026,7 @@
         <v>139301</v>
       </c>
       <c r="K66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -19063,7 +19063,7 @@
         <v>139301</v>
       </c>
       <c r="K67" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -19100,7 +19100,7 @@
         <v>139301</v>
       </c>
       <c r="K68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -19137,7 +19137,7 @@
         <v>139301</v>
       </c>
       <c r="K69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -19174,7 +19174,7 @@
         <v>139301</v>
       </c>
       <c r="K70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -19211,7 +19211,7 @@
         <v>139301</v>
       </c>
       <c r="K71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -19248,7 +19248,7 @@
         <v>139301</v>
       </c>
       <c r="K72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -19285,7 +19285,7 @@
         <v>139301</v>
       </c>
       <c r="K73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -19322,7 +19322,7 @@
         <v>139301</v>
       </c>
       <c r="K74" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -19359,7 +19359,7 @@
         <v>139301</v>
       </c>
       <c r="K75" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -19396,7 +19396,7 @@
         <v>139301</v>
       </c>
       <c r="K76" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -19433,7 +19433,7 @@
         <v>139301</v>
       </c>
       <c r="K77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -19470,7 +19470,7 @@
         <v>139301</v>
       </c>
       <c r="K78" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -19507,7 +19507,7 @@
         <v>139301</v>
       </c>
       <c r="K79" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -19544,7 +19544,7 @@
         <v>139301</v>
       </c>
       <c r="K80" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -19581,7 +19581,7 @@
         <v>139301</v>
       </c>
       <c r="K81" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -19618,7 +19618,7 @@
         <v>135745</v>
       </c>
       <c r="K82" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -19655,7 +19655,7 @@
         <v>135745</v>
       </c>
       <c r="K83" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -19692,7 +19692,7 @@
         <v>135745</v>
       </c>
       <c r="K84" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -19729,7 +19729,7 @@
         <v>135745</v>
       </c>
       <c r="K85" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -19766,7 +19766,7 @@
         <v>135745</v>
       </c>
       <c r="K86" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -19803,7 +19803,7 @@
         <v>135745</v>
       </c>
       <c r="K87" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -19840,7 +19840,7 @@
         <v>135745</v>
       </c>
       <c r="K88" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -19877,7 +19877,7 @@
         <v>135745</v>
       </c>
       <c r="K89" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -19914,7 +19914,7 @@
         <v>135745</v>
       </c>
       <c r="K90" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -19951,7 +19951,7 @@
         <v>135745</v>
       </c>
       <c r="K91" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -19988,7 +19988,7 @@
         <v>135745</v>
       </c>
       <c r="K92" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -20025,7 +20025,7 @@
         <v>135745</v>
       </c>
       <c r="K93" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -20112,7 +20112,7 @@
         <v>137219</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -20149,7 +20149,7 @@
         <v>137219</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -20186,7 +20186,7 @@
         <v>137219</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -20223,7 +20223,7 @@
         <v>137219</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -20260,7 +20260,7 @@
         <v>137219</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -20297,7 +20297,7 @@
         <v>137219</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -20334,7 +20334,7 @@
         <v>137219</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -20371,7 +20371,7 @@
         <v>137219</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -20408,7 +20408,7 @@
         <v>137219</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -20445,7 +20445,7 @@
         <v>137219</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -20482,7 +20482,7 @@
         <v>137219</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -20519,7 +20519,7 @@
         <v>137219</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -20556,7 +20556,7 @@
         <v>137219</v>
       </c>
       <c r="K14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -20593,7 +20593,7 @@
         <v>137219</v>
       </c>
       <c r="K15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -20630,7 +20630,7 @@
         <v>137219</v>
       </c>
       <c r="K16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -20667,7 +20667,7 @@
         <v>137219</v>
       </c>
       <c r="K17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -20704,7 +20704,7 @@
         <v>137219</v>
       </c>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -20741,7 +20741,7 @@
         <v>137219</v>
       </c>
       <c r="K19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -20778,7 +20778,7 @@
         <v>137219</v>
       </c>
       <c r="K20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -20815,7 +20815,7 @@
         <v>137219</v>
       </c>
       <c r="K21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -20852,7 +20852,7 @@
         <v>137219</v>
       </c>
       <c r="K22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -20889,7 +20889,7 @@
         <v>137219</v>
       </c>
       <c r="K23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -20926,7 +20926,7 @@
         <v>137219</v>
       </c>
       <c r="K24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -20963,7 +20963,7 @@
         <v>137219</v>
       </c>
       <c r="K25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -21000,7 +21000,7 @@
         <v>137219</v>
       </c>
       <c r="K26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -21037,7 +21037,7 @@
         <v>37</v>
       </c>
       <c r="K27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -21074,7 +21074,7 @@
         <v>37</v>
       </c>
       <c r="K28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -21111,7 +21111,7 @@
         <v>37</v>
       </c>
       <c r="K29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -21148,7 +21148,7 @@
         <v>37</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -21185,7 +21185,7 @@
         <v>37</v>
       </c>
       <c r="K31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -21222,7 +21222,7 @@
         <v>37</v>
       </c>
       <c r="K32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -21259,7 +21259,7 @@
         <v>37</v>
       </c>
       <c r="K33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -21296,7 +21296,7 @@
         <v>37</v>
       </c>
       <c r="K34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -21333,7 +21333,7 @@
         <v>37</v>
       </c>
       <c r="K35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -21370,7 +21370,7 @@
         <v>37</v>
       </c>
       <c r="K36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -21407,7 +21407,7 @@
         <v>37</v>
       </c>
       <c r="K37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -21444,7 +21444,7 @@
         <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -21481,7 +21481,7 @@
         <v>37</v>
       </c>
       <c r="K39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -21518,7 +21518,7 @@
         <v>37</v>
       </c>
       <c r="K40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -21555,7 +21555,7 @@
         <v>37</v>
       </c>
       <c r="K41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -21592,7 +21592,7 @@
         <v>37</v>
       </c>
       <c r="K42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -21629,7 +21629,7 @@
         <v>37</v>
       </c>
       <c r="K43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -21666,7 +21666,7 @@
         <v>37</v>
       </c>
       <c r="K44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -21703,7 +21703,7 @@
         <v>37</v>
       </c>
       <c r="K45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -21740,7 +21740,7 @@
         <v>37</v>
       </c>
       <c r="K46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -21777,7 +21777,7 @@
         <v>37</v>
       </c>
       <c r="K47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -21814,7 +21814,7 @@
         <v>37</v>
       </c>
       <c r="K48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -21851,7 +21851,7 @@
         <v>37</v>
       </c>
       <c r="K49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -21888,7 +21888,7 @@
         <v>37</v>
       </c>
       <c r="K50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -21925,7 +21925,7 @@
         <v>37</v>
       </c>
       <c r="K51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -22012,7 +22012,7 @@
         <v>139655</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -22049,7 +22049,7 @@
         <v>139655</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -22086,7 +22086,7 @@
         <v>139655</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -22123,7 +22123,7 @@
         <v>139655</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -22160,7 +22160,7 @@
         <v>139655</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -22197,7 +22197,7 @@
         <v>139655</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -22234,7 +22234,7 @@
         <v>139655</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -22271,7 +22271,7 @@
         <v>139655</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -22308,7 +22308,7 @@
         <v>139655</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -22345,7 +22345,7 @@
         <v>139655</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -22382,7 +22382,7 @@
         <v>139655</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -22419,7 +22419,7 @@
         <v>139655</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -22456,7 +22456,7 @@
         <v>139655</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -22493,7 +22493,7 @@
         <v>139655</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -22530,7 +22530,7 @@
         <v>139655</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -22567,7 +22567,7 @@
         <v>139655</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -22604,7 +22604,7 @@
         <v>139655</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -22641,7 +22641,7 @@
         <v>139655</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -22678,7 +22678,7 @@
         <v>139655</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -22715,7 +22715,7 @@
         <v>139655</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -22752,7 +22752,7 @@
         <v>139655</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -22789,7 +22789,7 @@
         <v>139655</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -22826,7 +22826,7 @@
         <v>139655</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -22863,7 +22863,7 @@
         <v>139655</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -22900,7 +22900,7 @@
         <v>139655</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -22937,7 +22937,7 @@
         <v>139655</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -22974,7 +22974,7 @@
         <v>139655</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -23011,7 +23011,7 @@
         <v>139655</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -23048,7 +23048,7 @@
         <v>139655</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -23085,7 +23085,7 @@
         <v>139655</v>
       </c>
       <c r="K31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -23122,7 +23122,7 @@
         <v>139655</v>
       </c>
       <c r="K32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -23159,7 +23159,7 @@
         <v>139655</v>
       </c>
       <c r="K33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -23196,7 +23196,7 @@
         <v>139655</v>
       </c>
       <c r="K34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -23233,7 +23233,7 @@
         <v>139655</v>
       </c>
       <c r="K35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -23270,7 +23270,7 @@
         <v>139655</v>
       </c>
       <c r="K36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -23307,7 +23307,7 @@
         <v>139655</v>
       </c>
       <c r="K37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -23319,7 +23319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6006933B-F91F-4119-B5D7-9BBDBDC17FE2}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
@@ -23394,7 +23394,7 @@
         <v>180120</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -23431,7 +23431,7 @@
         <v>180120</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -23468,7 +23468,7 @@
         <v>180120</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -23505,7 +23505,7 @@
         <v>180120</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -23542,7 +23542,7 @@
         <v>180120</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -23579,7 +23579,7 @@
         <v>180120</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -23616,7 +23616,7 @@
         <v>180120</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -23653,7 +23653,7 @@
         <v>180120</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -23690,7 +23690,7 @@
         <v>180120</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -23727,7 +23727,7 @@
         <v>180120</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -23764,7 +23764,7 @@
         <v>180120</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -23801,7 +23801,7 @@
         <v>180120</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -23838,7 +23838,7 @@
         <v>180120</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -23875,7 +23875,7 @@
         <v>180120</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -23912,7 +23912,7 @@
         <v>180120</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -23949,7 +23949,7 @@
         <v>180120</v>
       </c>
       <c r="K17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -23986,7 +23986,7 @@
         <v>180120</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -24023,7 +24023,7 @@
         <v>180120</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -24060,7 +24060,7 @@
         <v>180120</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -24097,7 +24097,7 @@
         <v>180120</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -24134,7 +24134,7 @@
         <v>180120</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -24171,7 +24171,7 @@
         <v>180120</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -24208,7 +24208,7 @@
         <v>180120</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -24245,7 +24245,7 @@
         <v>180120</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -24282,7 +24282,7 @@
         <v>180120</v>
       </c>
       <c r="K26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -24319,7 +24319,7 @@
         <v>180120</v>
       </c>
       <c r="K27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -24356,7 +24356,7 @@
         <v>180120</v>
       </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -24393,7 +24393,7 @@
         <v>180120</v>
       </c>
       <c r="K29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -24430,7 +24430,7 @@
         <v>180120</v>
       </c>
       <c r="K30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -24467,7 +24467,7 @@
         <v>180120</v>
       </c>
       <c r="K31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -24504,7 +24504,7 @@
         <v>180120</v>
       </c>
       <c r="K32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -24541,7 +24541,7 @@
         <v>180120</v>
       </c>
       <c r="K33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -24578,7 +24578,7 @@
         <v>180127</v>
       </c>
       <c r="K34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -24615,7 +24615,7 @@
         <v>180127</v>
       </c>
       <c r="K35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -24652,7 +24652,7 @@
         <v>180127</v>
       </c>
       <c r="K36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -24689,7 +24689,7 @@
         <v>180127</v>
       </c>
       <c r="K37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -24726,7 +24726,7 @@
         <v>180127</v>
       </c>
       <c r="K38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -24763,7 +24763,7 @@
         <v>180127</v>
       </c>
       <c r="K39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -24800,7 +24800,7 @@
         <v>180127</v>
       </c>
       <c r="K40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -24837,7 +24837,7 @@
         <v>180127</v>
       </c>
       <c r="K41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -24874,7 +24874,7 @@
         <v>180127</v>
       </c>
       <c r="K42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -24911,7 +24911,7 @@
         <v>180127</v>
       </c>
       <c r="K43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -24948,7 +24948,7 @@
         <v>180127</v>
       </c>
       <c r="K44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -24985,7 +24985,7 @@
         <v>180127</v>
       </c>
       <c r="K45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -25022,7 +25022,7 @@
         <v>180127</v>
       </c>
       <c r="K46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -25059,7 +25059,7 @@
         <v>180127</v>
       </c>
       <c r="K47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -25096,7 +25096,7 @@
         <v>180127</v>
       </c>
       <c r="K48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -25183,7 +25183,7 @@
         <v>184189</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -25220,7 +25220,7 @@
         <v>184189</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -25257,7 +25257,7 @@
         <v>184189</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -25294,7 +25294,7 @@
         <v>184189</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -25331,7 +25331,7 @@
         <v>184189</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -25368,7 +25368,7 @@
         <v>184189</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -25405,7 +25405,7 @@
         <v>184189</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -25442,7 +25442,7 @@
         <v>184189</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -25479,7 +25479,7 @@
         <v>184189</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -25516,7 +25516,7 @@
         <v>184189</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -25553,7 +25553,7 @@
         <v>184189</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -25590,7 +25590,7 @@
         <v>184189</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -25627,7 +25627,7 @@
         <v>184189</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -25664,7 +25664,7 @@
         <v>184189</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -25701,7 +25701,7 @@
         <v>184189</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -25738,7 +25738,7 @@
         <v>184189</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -25775,7 +25775,7 @@
         <v>184189</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -25812,7 +25812,7 @@
         <v>184189</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -25849,7 +25849,7 @@
         <v>184189</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -25886,7 +25886,7 @@
         <v>184189</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -25923,7 +25923,7 @@
         <v>184189</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -25960,7 +25960,7 @@
         <v>184189</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -25997,7 +25997,7 @@
         <v>184189</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -26034,7 +26034,7 @@
         <v>184189</v>
       </c>
       <c r="K25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -26071,7 +26071,7 @@
         <v>184189</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -26108,7 +26108,7 @@
         <v>184189</v>
       </c>
       <c r="K27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -26145,7 +26145,7 @@
         <v>184189</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -26232,7 +26232,7 @@
         <v>138978</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -26269,7 +26269,7 @@
         <v>138978</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -26306,7 +26306,7 @@
         <v>138978</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -26343,7 +26343,7 @@
         <v>138978</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -26380,7 +26380,7 @@
         <v>138978</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -26417,7 +26417,7 @@
         <v>138978</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -26454,7 +26454,7 @@
         <v>138978</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -26491,7 +26491,7 @@
         <v>138978</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -26528,7 +26528,7 @@
         <v>138978</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -26565,7 +26565,7 @@
         <v>138978</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -26602,7 +26602,7 @@
         <v>138978</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -26639,7 +26639,7 @@
         <v>138978</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -26676,7 +26676,7 @@
         <v>138978</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -26713,7 +26713,7 @@
         <v>138978</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -26750,7 +26750,7 @@
         <v>138978</v>
       </c>
       <c r="K16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -26787,7 +26787,7 @@
         <v>138978</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -26824,7 +26824,7 @@
         <v>138978</v>
       </c>
       <c r="K18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -26861,7 +26861,7 @@
         <v>138978</v>
       </c>
       <c r="K19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -26898,7 +26898,7 @@
         <v>138978</v>
       </c>
       <c r="K20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -26935,7 +26935,7 @@
         <v>138978</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -26972,7 +26972,7 @@
         <v>138978</v>
       </c>
       <c r="K22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -27009,7 +27009,7 @@
         <v>138978</v>
       </c>
       <c r="K23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -27046,7 +27046,7 @@
         <v>138978</v>
       </c>
       <c r="K24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -27083,7 +27083,7 @@
         <v>138978</v>
       </c>
       <c r="K25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -27120,7 +27120,7 @@
         <v>138978</v>
       </c>
       <c r="K26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -27157,7 +27157,7 @@
         <v>138978</v>
       </c>
       <c r="K27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -27194,7 +27194,7 @@
         <v>138978</v>
       </c>
       <c r="K28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -27231,7 +27231,7 @@
         <v>138978</v>
       </c>
       <c r="K29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -27268,7 +27268,7 @@
         <v>138978</v>
       </c>
       <c r="K30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -27305,7 +27305,7 @@
         <v>138978</v>
       </c>
       <c r="K31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -27342,7 +27342,7 @@
         <v>138978</v>
       </c>
       <c r="K32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -27379,7 +27379,7 @@
         <v>138978</v>
       </c>
       <c r="K33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -27416,7 +27416,7 @@
         <v>138978</v>
       </c>
       <c r="K34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -27453,7 +27453,7 @@
         <v>138978</v>
       </c>
       <c r="K35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -27490,7 +27490,7 @@
         <v>138978</v>
       </c>
       <c r="K36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -27527,7 +27527,7 @@
         <v>138978</v>
       </c>
       <c r="K37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -27564,7 +27564,7 @@
         <v>138978</v>
       </c>
       <c r="K38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -27601,7 +27601,7 @@
         <v>138978</v>
       </c>
       <c r="K39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -27638,7 +27638,7 @@
         <v>138979</v>
       </c>
       <c r="K40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -27675,7 +27675,7 @@
         <v>138979</v>
       </c>
       <c r="K41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -27712,7 +27712,7 @@
         <v>138979</v>
       </c>
       <c r="K42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -27749,7 +27749,7 @@
         <v>138979</v>
       </c>
       <c r="K43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -27786,7 +27786,7 @@
         <v>138979</v>
       </c>
       <c r="K44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -27823,7 +27823,7 @@
         <v>138979</v>
       </c>
       <c r="K45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -27860,7 +27860,7 @@
         <v>138979</v>
       </c>
       <c r="K46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -27897,7 +27897,7 @@
         <v>138979</v>
       </c>
       <c r="K47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -27934,7 +27934,7 @@
         <v>138979</v>
       </c>
       <c r="K48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -27971,7 +27971,7 @@
         <v>138979</v>
       </c>
       <c r="K49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -28008,7 +28008,7 @@
         <v>138979</v>
       </c>
       <c r="K50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -28045,7 +28045,7 @@
         <v>138979</v>
       </c>
       <c r="K51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -28082,7 +28082,7 @@
         <v>138979</v>
       </c>
       <c r="K52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -28119,7 +28119,7 @@
         <v>138979</v>
       </c>
       <c r="K53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -28156,7 +28156,7 @@
         <v>138979</v>
       </c>
       <c r="K54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -28193,7 +28193,7 @@
         <v>138979</v>
       </c>
       <c r="K55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -28230,7 +28230,7 @@
         <v>138979</v>
       </c>
       <c r="K56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -28267,7 +28267,7 @@
         <v>138979</v>
       </c>
       <c r="K57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -28304,7 +28304,7 @@
         <v>138979</v>
       </c>
       <c r="K58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -28341,7 +28341,7 @@
         <v>138979</v>
       </c>
       <c r="K59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -28378,7 +28378,7 @@
         <v>138979</v>
       </c>
       <c r="K60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -28415,7 +28415,7 @@
         <v>138979</v>
       </c>
       <c r="K61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -28452,7 +28452,7 @@
         <v>138979</v>
       </c>
       <c r="K62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -28488,7 +28488,7 @@
         <v>138979</v>
       </c>
       <c r="K63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -28525,7 +28525,7 @@
         <v>138979</v>
       </c>
       <c r="K64" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -28562,7 +28562,7 @@
         <v>138979</v>
       </c>
       <c r="K65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -28599,7 +28599,7 @@
         <v>138979</v>
       </c>
       <c r="K66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -28636,7 +28636,7 @@
         <v>138979</v>
       </c>
       <c r="K67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -28673,7 +28673,7 @@
         <v>150772</v>
       </c>
       <c r="K68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -28710,7 +28710,7 @@
         <v>150772</v>
       </c>
       <c r="K69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -28747,7 +28747,7 @@
         <v>150772</v>
       </c>
       <c r="K70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -28784,7 +28784,7 @@
         <v>150772</v>
       </c>
       <c r="K71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -28821,7 +28821,7 @@
         <v>150772</v>
       </c>
       <c r="K72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -28858,7 +28858,7 @@
         <v>150772</v>
       </c>
       <c r="K73" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -28895,7 +28895,7 @@
         <v>150772</v>
       </c>
       <c r="K74" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -28932,7 +28932,7 @@
         <v>150772</v>
       </c>
       <c r="K75" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -28969,7 +28969,7 @@
         <v>150772</v>
       </c>
       <c r="K76" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -29006,7 +29006,7 @@
         <v>150772</v>
       </c>
       <c r="K77" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -29043,7 +29043,7 @@
         <v>150772</v>
       </c>
       <c r="K78" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -29080,7 +29080,7 @@
         <v>150772</v>
       </c>
       <c r="K79" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -29117,7 +29117,7 @@
         <v>150772</v>
       </c>
       <c r="K80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -29154,7 +29154,7 @@
         <v>150772</v>
       </c>
       <c r="K81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -29191,7 +29191,7 @@
         <v>150772</v>
       </c>
       <c r="K82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -29228,7 +29228,7 @@
         <v>150772</v>
       </c>
       <c r="K83" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -29265,7 +29265,7 @@
         <v>150772</v>
       </c>
       <c r="K84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -29302,7 +29302,7 @@
         <v>150772</v>
       </c>
       <c r="K85" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -29339,7 +29339,7 @@
         <v>150772</v>
       </c>
       <c r="K86" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -29376,7 +29376,7 @@
         <v>150772</v>
       </c>
       <c r="K87" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -29413,7 +29413,7 @@
         <v>150772</v>
       </c>
       <c r="K88" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -29450,7 +29450,7 @@
         <v>150772</v>
       </c>
       <c r="K89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -29487,7 +29487,7 @@
         <v>150772</v>
       </c>
       <c r="K90" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -29524,7 +29524,7 @@
         <v>150772</v>
       </c>
       <c r="K91" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -29561,7 +29561,7 @@
         <v>150772</v>
       </c>
       <c r="K92" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -29598,7 +29598,7 @@
         <v>150772</v>
       </c>
       <c r="K93" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -29635,7 +29635,7 @@
         <v>138969</v>
       </c>
       <c r="K94" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -29672,7 +29672,7 @@
         <v>138969</v>
       </c>
       <c r="K95" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -29709,7 +29709,7 @@
         <v>138969</v>
       </c>
       <c r="K96" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -29746,7 +29746,7 @@
         <v>138969</v>
       </c>
       <c r="K97" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -29783,7 +29783,7 @@
         <v>138969</v>
       </c>
       <c r="K98" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -29820,7 +29820,7 @@
         <v>138969</v>
       </c>
       <c r="K99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -29857,7 +29857,7 @@
         <v>138969</v>
       </c>
       <c r="K100" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -29894,7 +29894,7 @@
         <v>138969</v>
       </c>
       <c r="K101" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -29931,7 +29931,7 @@
         <v>138969</v>
       </c>
       <c r="K102" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -29968,7 +29968,7 @@
         <v>138969</v>
       </c>
       <c r="K103" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -30005,7 +30005,7 @@
         <v>138969</v>
       </c>
       <c r="K104" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -30042,7 +30042,7 @@
         <v>138969</v>
       </c>
       <c r="K105" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -30079,7 +30079,7 @@
         <v>138969</v>
       </c>
       <c r="K106" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -30116,7 +30116,7 @@
         <v>138969</v>
       </c>
       <c r="K107" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -30153,7 +30153,7 @@
         <v>138969</v>
       </c>
       <c r="K108" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -30190,7 +30190,7 @@
         <v>138969</v>
       </c>
       <c r="K109" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -30227,7 +30227,7 @@
         <v>138969</v>
       </c>
       <c r="K110" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -30264,7 +30264,7 @@
         <v>138969</v>
       </c>
       <c r="K111" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -30301,7 +30301,7 @@
         <v>138969</v>
       </c>
       <c r="K112" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -30338,7 +30338,7 @@
         <v>138969</v>
       </c>
       <c r="K113" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -30375,7 +30375,7 @@
         <v>138969</v>
       </c>
       <c r="K114" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -30412,7 +30412,7 @@
         <v>138969</v>
       </c>
       <c r="K115" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -30449,7 +30449,7 @@
         <v>138969</v>
       </c>
       <c r="K116" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -30486,7 +30486,7 @@
         <v>138969</v>
       </c>
       <c r="K117" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -30523,7 +30523,7 @@
         <v>138969</v>
       </c>
       <c r="K118" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -30560,7 +30560,7 @@
         <v>138969</v>
       </c>
       <c r="K119" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -30597,7 +30597,7 @@
         <v>138969</v>
       </c>
       <c r="K120" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -30634,7 +30634,7 @@
         <v>138969</v>
       </c>
       <c r="K121" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -30671,7 +30671,7 @@
         <v>138969</v>
       </c>
       <c r="K122" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -30708,7 +30708,7 @@
         <v>138969</v>
       </c>
       <c r="K123" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -30745,7 +30745,7 @@
         <v>138969</v>
       </c>
       <c r="K124" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -30782,7 +30782,7 @@
         <v>138969</v>
       </c>
       <c r="K125" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -30869,7 +30869,7 @@
         <v>138930</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -30906,7 +30906,7 @@
         <v>138930</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -30943,7 +30943,7 @@
         <v>138930</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -30980,7 +30980,7 @@
         <v>138930</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -31017,7 +31017,7 @@
         <v>138930</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -31054,7 +31054,7 @@
         <v>138930</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -31091,7 +31091,7 @@
         <v>138930</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -31128,7 +31128,7 @@
         <v>138930</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -31165,7 +31165,7 @@
         <v>138930</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -31202,7 +31202,7 @@
         <v>138930</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -31239,7 +31239,7 @@
         <v>138930</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -31276,7 +31276,7 @@
         <v>138930</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -31313,7 +31313,7 @@
         <v>138930</v>
       </c>
       <c r="K14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -31350,7 +31350,7 @@
         <v>138930</v>
       </c>
       <c r="K15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -31387,7 +31387,7 @@
         <v>138930</v>
       </c>
       <c r="K16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -31424,7 +31424,7 @@
         <v>138930</v>
       </c>
       <c r="K17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -31461,7 +31461,7 @@
         <v>138930</v>
       </c>
       <c r="K18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -31498,7 +31498,7 @@
         <v>138930</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -31535,7 +31535,7 @@
         <v>138930</v>
       </c>
       <c r="K20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -31572,7 +31572,7 @@
         <v>138930</v>
       </c>
       <c r="K21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -31609,7 +31609,7 @@
         <v>138930</v>
       </c>
       <c r="K22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -31646,7 +31646,7 @@
         <v>138930</v>
       </c>
       <c r="K23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -31683,7 +31683,7 @@
         <v>138930</v>
       </c>
       <c r="K24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -31720,7 +31720,7 @@
         <v>138930</v>
       </c>
       <c r="K25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -31757,7 +31757,7 @@
         <v>138930</v>
       </c>
       <c r="K26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -31794,7 +31794,7 @@
         <v>138930</v>
       </c>
       <c r="K27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -31831,7 +31831,7 @@
         <v>138930</v>
       </c>
       <c r="K28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -31868,7 +31868,7 @@
         <v>138930</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -31905,7 +31905,7 @@
         <v>138930</v>
       </c>
       <c r="K30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -31942,7 +31942,7 @@
         <v>138930</v>
       </c>
       <c r="K31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -31979,7 +31979,7 @@
         <v>138930</v>
       </c>
       <c r="K32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -32016,7 +32016,7 @@
         <v>138930</v>
       </c>
       <c r="K33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -32053,7 +32053,7 @@
         <v>138930</v>
       </c>
       <c r="K34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -32090,7 +32090,7 @@
         <v>138930</v>
       </c>
       <c r="K35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -32127,7 +32127,7 @@
         <v>138930</v>
       </c>
       <c r="K36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -32164,7 +32164,7 @@
         <v>138930</v>
       </c>
       <c r="K37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -32201,7 +32201,7 @@
         <v>138930</v>
       </c>
       <c r="K38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -32238,7 +32238,7 @@
         <v>138930</v>
       </c>
       <c r="K39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -32275,7 +32275,7 @@
         <v>138930</v>
       </c>
       <c r="K40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -32312,7 +32312,7 @@
         <v>138930</v>
       </c>
       <c r="K41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -32349,7 +32349,7 @@
         <v>138930</v>
       </c>
       <c r="K42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -32386,7 +32386,7 @@
         <v>138930</v>
       </c>
       <c r="K43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -32423,7 +32423,7 @@
         <v>120834</v>
       </c>
       <c r="K44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -32460,7 +32460,7 @@
         <v>120834</v>
       </c>
       <c r="K45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -32497,7 +32497,7 @@
         <v>120834</v>
       </c>
       <c r="K46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -32534,7 +32534,7 @@
         <v>120834</v>
       </c>
       <c r="K47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -32571,7 +32571,7 @@
         <v>120834</v>
       </c>
       <c r="K48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -32608,7 +32608,7 @@
         <v>120834</v>
       </c>
       <c r="K49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -32645,7 +32645,7 @@
         <v>120834</v>
       </c>
       <c r="K50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -32682,7 +32682,7 @@
         <v>120834</v>
       </c>
       <c r="K51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -32719,7 +32719,7 @@
         <v>120834</v>
       </c>
       <c r="K52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -32756,7 +32756,7 @@
         <v>120834</v>
       </c>
       <c r="K53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -32793,7 +32793,7 @@
         <v>120834</v>
       </c>
       <c r="K54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -32830,7 +32830,7 @@
         <v>120834</v>
       </c>
       <c r="K55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -32867,7 +32867,7 @@
         <v>120834</v>
       </c>
       <c r="K56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -32904,7 +32904,7 @@
         <v>120834</v>
       </c>
       <c r="K57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -32941,7 +32941,7 @@
         <v>120834</v>
       </c>
       <c r="K58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -32978,7 +32978,7 @@
         <v>120834</v>
       </c>
       <c r="K59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -33015,7 +33015,7 @@
         <v>120834</v>
       </c>
       <c r="K60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -33052,7 +33052,7 @@
         <v>120834</v>
       </c>
       <c r="K61" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -33089,7 +33089,7 @@
         <v>120834</v>
       </c>
       <c r="K62" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -33126,7 +33126,7 @@
         <v>120834</v>
       </c>
       <c r="K63" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -33163,7 +33163,7 @@
         <v>120834</v>
       </c>
       <c r="K64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -33200,7 +33200,7 @@
         <v>120834</v>
       </c>
       <c r="K65" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -33237,7 +33237,7 @@
         <v>120834</v>
       </c>
       <c r="K66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -33274,7 +33274,7 @@
         <v>120834</v>
       </c>
       <c r="K67" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -33311,7 +33311,7 @@
         <v>120834</v>
       </c>
       <c r="K68" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -33348,7 +33348,7 @@
         <v>120834</v>
       </c>
       <c r="K69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Albatross_LWR_data/Albatross_LWR_Data.xlsx
+++ b/Data/Albatross_LWR_data/Albatross_LWR_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\AlbatrossPhillipinesLWR\Data\Albatross_LWR_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0034C219-6BB8-4DE9-8E8D-485F654021AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7472CB-449F-422D-95E3-488BF6202496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="832" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="832" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Siganus fuscescens" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="76">
   <si>
     <t>Species</t>
   </si>
@@ -203,12 +203,6 @@
     <t>Balayan_Bay_Verde_Island</t>
   </si>
   <si>
-    <t>Chase_Head_village_Palawan</t>
-  </si>
-  <si>
-    <t>Paucol_Malawpaya_Palawan</t>
-  </si>
-  <si>
     <t>Mahinog_Camiguin</t>
   </si>
   <si>
@@ -231,9 +225,6 @@
   </si>
   <si>
     <t>Busin_Harbor_Burias_Island</t>
-  </si>
-  <si>
-    <t>Atulayan_Bay_Luzon_Island</t>
   </si>
   <si>
     <t>Bolinao_Bay_Luzon</t>
@@ -273,6 +264,21 @@
   </si>
   <si>
     <t>Surigao_Mindanao</t>
+  </si>
+  <si>
+    <t>Endeavor_Strait_Palawan</t>
+  </si>
+  <si>
+    <t>Pacol_Malampaya_Palawan</t>
+  </si>
+  <si>
+    <t>Port_Busin_Burias_Island</t>
+  </si>
+  <si>
+    <t>Pandanon_Island</t>
+  </si>
+  <si>
+    <t>Atulayan_Bay_Luzon</t>
   </si>
 </sst>
 </file>
@@ -705,7 +711,7 @@
         <v>182970</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -742,7 +748,7 @@
         <v>182970</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -779,7 +785,7 @@
         <v>182970</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -816,7 +822,7 @@
         <v>182970</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -853,7 +859,7 @@
         <v>182970</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -890,7 +896,7 @@
         <v>182970</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -927,7 +933,7 @@
         <v>182970</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -964,7 +970,7 @@
         <v>182970</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1001,7 +1007,7 @@
         <v>182970</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1038,7 +1044,7 @@
         <v>182970</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1075,7 +1081,7 @@
         <v>182970</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1112,7 +1118,7 @@
         <v>182970</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1149,7 +1155,7 @@
         <v>182970</v>
       </c>
       <c r="K14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1186,7 +1192,7 @@
         <v>182970</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1223,7 +1229,7 @@
         <v>182970</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1260,7 +1266,7 @@
         <v>182970</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1297,7 +1303,7 @@
         <v>182970</v>
       </c>
       <c r="K18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1334,7 +1340,7 @@
         <v>182970</v>
       </c>
       <c r="K19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1371,7 +1377,7 @@
         <v>182970</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1408,7 +1414,7 @@
         <v>182970</v>
       </c>
       <c r="K21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1445,7 +1451,7 @@
         <v>182970</v>
       </c>
       <c r="K22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2037,7 +2043,7 @@
         <v>182979</v>
       </c>
       <c r="K38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2074,7 +2080,7 @@
         <v>182979</v>
       </c>
       <c r="K39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2111,7 +2117,7 @@
         <v>182979</v>
       </c>
       <c r="K40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2148,7 +2154,7 @@
         <v>182979</v>
       </c>
       <c r="K41" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2185,7 +2191,7 @@
         <v>182979</v>
       </c>
       <c r="K42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2222,7 +2228,7 @@
         <v>182979</v>
       </c>
       <c r="K43" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2259,7 +2265,7 @@
         <v>182979</v>
       </c>
       <c r="K44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2296,7 +2302,7 @@
         <v>182979</v>
       </c>
       <c r="K45" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2333,7 +2339,7 @@
         <v>182979</v>
       </c>
       <c r="K46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2370,7 +2376,7 @@
         <v>182979</v>
       </c>
       <c r="K47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2407,7 +2413,7 @@
         <v>182979</v>
       </c>
       <c r="K48" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2444,7 +2450,7 @@
         <v>182979</v>
       </c>
       <c r="K49" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2481,7 +2487,7 @@
         <v>182979</v>
       </c>
       <c r="K50" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2518,7 +2524,7 @@
         <v>182979</v>
       </c>
       <c r="K51" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2555,7 +2561,7 @@
         <v>182979</v>
       </c>
       <c r="K52" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2592,7 +2598,7 @@
         <v>182979</v>
       </c>
       <c r="K53" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2629,7 +2635,7 @@
         <v>182979</v>
       </c>
       <c r="K54" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2666,7 +2672,7 @@
         <v>182979</v>
       </c>
       <c r="K55" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2703,7 +2709,7 @@
         <v>182979</v>
       </c>
       <c r="K56" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2977,7 +2983,7 @@
         <v>136752</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3014,7 +3020,7 @@
         <v>136752</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3051,7 +3057,7 @@
         <v>136752</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3088,7 +3094,7 @@
         <v>136752</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3125,7 +3131,7 @@
         <v>136752</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3162,7 +3168,7 @@
         <v>136752</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3199,7 +3205,7 @@
         <v>136752</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3236,7 +3242,7 @@
         <v>136752</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3273,7 +3279,7 @@
         <v>136752</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3310,7 +3316,7 @@
         <v>136752</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3347,7 +3353,7 @@
         <v>136752</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3384,7 +3390,7 @@
         <v>136752</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3421,7 +3427,7 @@
         <v>136752</v>
       </c>
       <c r="K14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3458,7 +3464,7 @@
         <v>136752</v>
       </c>
       <c r="K15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3495,7 +3501,7 @@
         <v>136752</v>
       </c>
       <c r="K16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3532,7 +3538,7 @@
         <v>136752</v>
       </c>
       <c r="K17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3569,7 +3575,7 @@
         <v>136752</v>
       </c>
       <c r="K18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3606,7 +3612,7 @@
         <v>136752</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3643,7 +3649,7 @@
         <v>136752</v>
       </c>
       <c r="K20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3680,7 +3686,7 @@
         <v>136752</v>
       </c>
       <c r="K21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3717,7 +3723,7 @@
         <v>136752</v>
       </c>
       <c r="K22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3754,7 +3760,7 @@
         <v>136752</v>
       </c>
       <c r="K23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3791,7 +3797,7 @@
         <v>136752</v>
       </c>
       <c r="K24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3828,7 +3834,7 @@
         <v>136726</v>
       </c>
       <c r="K25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3865,7 +3871,7 @@
         <v>136726</v>
       </c>
       <c r="K26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3902,7 +3908,7 @@
         <v>136726</v>
       </c>
       <c r="K27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3939,7 +3945,7 @@
         <v>136726</v>
       </c>
       <c r="K28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3976,7 +3982,7 @@
         <v>136726</v>
       </c>
       <c r="K29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4013,7 +4019,7 @@
         <v>136726</v>
       </c>
       <c r="K30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -4050,7 +4056,7 @@
         <v>136726</v>
       </c>
       <c r="K31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4087,7 +4093,7 @@
         <v>136726</v>
       </c>
       <c r="K32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -4124,7 +4130,7 @@
         <v>136726</v>
       </c>
       <c r="K33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4161,7 +4167,7 @@
         <v>136726</v>
       </c>
       <c r="K34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4198,7 +4204,7 @@
         <v>136726</v>
       </c>
       <c r="K35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4235,7 +4241,7 @@
         <v>136726</v>
       </c>
       <c r="K36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -4272,7 +4278,7 @@
         <v>136726</v>
       </c>
       <c r="K37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4309,7 +4315,7 @@
         <v>136726</v>
       </c>
       <c r="K38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -4346,7 +4352,7 @@
         <v>136726</v>
       </c>
       <c r="K39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -4383,7 +4389,7 @@
         <v>136726</v>
       </c>
       <c r="K40" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -4420,7 +4426,7 @@
         <v>136726</v>
       </c>
       <c r="K41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -4457,7 +4463,7 @@
         <v>136726</v>
       </c>
       <c r="K42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -4494,7 +4500,7 @@
         <v>136726</v>
       </c>
       <c r="K43" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -4531,7 +4537,7 @@
         <v>136726</v>
       </c>
       <c r="K44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -4568,7 +4574,7 @@
         <v>136726</v>
       </c>
       <c r="K45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -4605,7 +4611,7 @@
         <v>136726</v>
       </c>
       <c r="K46" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -4642,7 +4648,7 @@
         <v>136726</v>
       </c>
       <c r="K47" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -4679,7 +4685,7 @@
         <v>136726</v>
       </c>
       <c r="K48" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4766,7 +4772,7 @@
         <v>149423</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4803,7 +4809,7 @@
         <v>149427</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4840,7 +4846,7 @@
         <v>149427</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4877,7 +4883,7 @@
         <v>149429</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4914,7 +4920,7 @@
         <v>149429</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4951,7 +4957,7 @@
         <v>149429</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4988,7 +4994,7 @@
         <v>149429</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5025,7 +5031,7 @@
         <v>149429</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5062,7 +5068,7 @@
         <v>149429</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5099,7 +5105,7 @@
         <v>149429</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5136,7 +5142,7 @@
         <v>149429</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5148,8 +5154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C642F94-9666-4AD7-8016-E40E9A93C1DD}">
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5223,7 +5229,7 @@
         <v>136831</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5260,7 +5266,7 @@
         <v>136831</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5297,7 +5303,7 @@
         <v>136831</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5334,7 +5340,7 @@
         <v>136831</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5371,7 +5377,7 @@
         <v>136831</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5408,7 +5414,7 @@
         <v>136831</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5445,7 +5451,7 @@
         <v>136831</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5482,7 +5488,7 @@
         <v>136831</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5519,7 +5525,7 @@
         <v>136831</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5556,7 +5562,7 @@
         <v>136831</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5593,7 +5599,7 @@
         <v>136831</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5630,7 +5636,7 @@
         <v>136831</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5667,7 +5673,7 @@
         <v>136831</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5704,7 +5710,7 @@
         <v>136831</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5741,7 +5747,7 @@
         <v>136831</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5778,7 +5784,7 @@
         <v>136831</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5815,7 +5821,7 @@
         <v>136831</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5852,7 +5858,7 @@
         <v>136831</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -5889,7 +5895,7 @@
         <v>136831</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -5926,7 +5932,7 @@
         <v>136831</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -5963,7 +5969,7 @@
         <v>136831</v>
       </c>
       <c r="K22" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -6000,7 +6006,7 @@
         <v>136831</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -6037,7 +6043,7 @@
         <v>136831</v>
       </c>
       <c r="K24" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -6074,7 +6080,7 @@
         <v>136831</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -6111,7 +6117,7 @@
         <v>136831</v>
       </c>
       <c r="K26" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -6148,7 +6154,7 @@
         <v>136831</v>
       </c>
       <c r="K27" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -6185,7 +6191,7 @@
         <v>136831</v>
       </c>
       <c r="K28" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -6222,7 +6228,7 @@
         <v>136831</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -6259,7 +6265,7 @@
         <v>136831</v>
       </c>
       <c r="K30" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -6296,7 +6302,7 @@
         <v>136831</v>
       </c>
       <c r="K31" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -6333,7 +6339,7 @@
         <v>136831</v>
       </c>
       <c r="K32" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -6370,7 +6376,7 @@
         <v>136831</v>
       </c>
       <c r="K33" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -6407,7 +6413,7 @@
         <v>136831</v>
       </c>
       <c r="K34" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -6444,7 +6450,7 @@
         <v>136831</v>
       </c>
       <c r="K35" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -6481,7 +6487,7 @@
         <v>136831</v>
       </c>
       <c r="K36" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -6518,7 +6524,7 @@
         <v>136831</v>
       </c>
       <c r="K37" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -6555,7 +6561,7 @@
         <v>136831</v>
       </c>
       <c r="K38" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -6592,7 +6598,7 @@
         <v>136846</v>
       </c>
       <c r="K39" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -6629,7 +6635,7 @@
         <v>136846</v>
       </c>
       <c r="K40" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -6666,7 +6672,7 @@
         <v>136846</v>
       </c>
       <c r="K41" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -6703,7 +6709,7 @@
         <v>136846</v>
       </c>
       <c r="K42" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -6740,7 +6746,7 @@
         <v>136827</v>
       </c>
       <c r="K43" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -6777,7 +6783,7 @@
         <v>136827</v>
       </c>
       <c r="K44" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -6814,7 +6820,7 @@
         <v>136827</v>
       </c>
       <c r="K45" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -6851,7 +6857,7 @@
         <v>136827</v>
       </c>
       <c r="K46" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -6888,7 +6894,7 @@
         <v>136827</v>
       </c>
       <c r="K47" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -6925,7 +6931,7 @@
         <v>136827</v>
       </c>
       <c r="K48" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -6962,7 +6968,7 @@
         <v>136851</v>
       </c>
       <c r="K49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -6999,7 +7005,7 @@
         <v>136851</v>
       </c>
       <c r="K50" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -7036,7 +7042,7 @@
         <v>136851</v>
       </c>
       <c r="K51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -7073,7 +7079,7 @@
         <v>136851</v>
       </c>
       <c r="K52" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -7110,7 +7116,7 @@
         <v>136851</v>
       </c>
       <c r="K53" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -7147,7 +7153,7 @@
         <v>136851</v>
       </c>
       <c r="K54" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -7184,7 +7190,7 @@
         <v>136851</v>
       </c>
       <c r="K55" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -7221,7 +7227,7 @@
         <v>136851</v>
       </c>
       <c r="K56" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -7258,7 +7264,7 @@
         <v>136851</v>
       </c>
       <c r="K57" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -7295,7 +7301,7 @@
         <v>136851</v>
       </c>
       <c r="K58" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -7332,7 +7338,7 @@
         <v>136851</v>
       </c>
       <c r="K59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -7369,7 +7375,7 @@
         <v>136851</v>
       </c>
       <c r="K60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -7406,7 +7412,7 @@
         <v>136851</v>
       </c>
       <c r="K61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -7443,7 +7449,7 @@
         <v>136851</v>
       </c>
       <c r="K62" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -7480,7 +7486,7 @@
         <v>136851</v>
       </c>
       <c r="K63" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -7517,7 +7523,7 @@
         <v>136851</v>
       </c>
       <c r="K64" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -7554,7 +7560,7 @@
         <v>136851</v>
       </c>
       <c r="K65" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -7591,7 +7597,7 @@
         <v>136813</v>
       </c>
       <c r="K66" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -7628,7 +7634,7 @@
         <v>136813</v>
       </c>
       <c r="K67" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -7665,7 +7671,7 @@
         <v>136813</v>
       </c>
       <c r="K68" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -7702,7 +7708,7 @@
         <v>136813</v>
       </c>
       <c r="K69" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -7739,7 +7745,7 @@
         <v>136813</v>
       </c>
       <c r="K70" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -7776,7 +7782,7 @@
         <v>136813</v>
       </c>
       <c r="K71" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -7813,7 +7819,7 @@
         <v>136813</v>
       </c>
       <c r="K72" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -7850,7 +7856,7 @@
         <v>136813</v>
       </c>
       <c r="K73" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -7887,7 +7893,7 @@
         <v>136813</v>
       </c>
       <c r="K74" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -7924,7 +7930,7 @@
         <v>136813</v>
       </c>
       <c r="K75" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -7961,7 +7967,7 @@
         <v>136813</v>
       </c>
       <c r="K76" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -7998,7 +8004,7 @@
         <v>136813</v>
       </c>
       <c r="K77" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -8035,7 +8041,7 @@
         <v>136813</v>
       </c>
       <c r="K78" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -8072,7 +8078,7 @@
         <v>136813</v>
       </c>
       <c r="K79" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -8109,7 +8115,7 @@
         <v>136813</v>
       </c>
       <c r="K80" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -8146,7 +8152,7 @@
         <v>136813</v>
       </c>
       <c r="K81" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -8183,7 +8189,7 @@
         <v>136813</v>
       </c>
       <c r="K82" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -8220,7 +8226,7 @@
         <v>136813</v>
       </c>
       <c r="K83" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -8257,7 +8263,7 @@
         <v>136813</v>
       </c>
       <c r="K84" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -8294,7 +8300,7 @@
         <v>136813</v>
       </c>
       <c r="K85" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -8331,7 +8337,7 @@
         <v>136813</v>
       </c>
       <c r="K86" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -8368,7 +8374,7 @@
         <v>136813</v>
       </c>
       <c r="K87" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -8405,7 +8411,7 @@
         <v>136813</v>
       </c>
       <c r="K88" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -8442,7 +8448,7 @@
         <v>136813</v>
       </c>
       <c r="K89" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -8479,7 +8485,7 @@
         <v>136813</v>
       </c>
       <c r="K90" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -8516,7 +8522,7 @@
         <v>136813</v>
       </c>
       <c r="K91" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -8553,7 +8559,7 @@
         <v>136813</v>
       </c>
       <c r="K92" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -8590,7 +8596,7 @@
         <v>136813</v>
       </c>
       <c r="K93" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -8627,7 +8633,7 @@
         <v>136813</v>
       </c>
       <c r="K94" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -8664,7 +8670,7 @@
         <v>136813</v>
       </c>
       <c r="K95" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -8701,7 +8707,7 @@
         <v>136813</v>
       </c>
       <c r="K96" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -8738,7 +8744,7 @@
         <v>136813</v>
       </c>
       <c r="K97" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -8775,7 +8781,7 @@
         <v>136813</v>
       </c>
       <c r="K98" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -8812,7 +8818,7 @@
         <v>136813</v>
       </c>
       <c r="K99" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -8849,7 +8855,7 @@
         <v>136813</v>
       </c>
       <c r="K100" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -8886,7 +8892,7 @@
         <v>136813</v>
       </c>
       <c r="K101" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -8923,7 +8929,7 @@
         <v>136813</v>
       </c>
       <c r="K102" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -8960,7 +8966,7 @@
         <v>136813</v>
       </c>
       <c r="K103" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -8997,7 +9003,7 @@
         <v>136813</v>
       </c>
       <c r="K104" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -9034,7 +9040,7 @@
         <v>136813</v>
       </c>
       <c r="K105" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -9071,7 +9077,7 @@
         <v>136813</v>
       </c>
       <c r="K106" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -9108,7 +9114,7 @@
         <v>136813</v>
       </c>
       <c r="K107" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -9145,7 +9151,7 @@
         <v>136813</v>
       </c>
       <c r="K108" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -9182,7 +9188,7 @@
         <v>136813</v>
       </c>
       <c r="K109" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -9219,7 +9225,7 @@
         <v>136813</v>
       </c>
       <c r="K110" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -9256,7 +9262,7 @@
         <v>136813</v>
       </c>
       <c r="K111" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -9293,7 +9299,7 @@
         <v>136813</v>
       </c>
       <c r="K112" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -9330,7 +9336,7 @@
         <v>136813</v>
       </c>
       <c r="K113" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -9367,7 +9373,7 @@
         <v>136813</v>
       </c>
       <c r="K114" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -9404,7 +9410,7 @@
         <v>136813</v>
       </c>
       <c r="K115" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -9441,7 +9447,7 @@
         <v>136813</v>
       </c>
       <c r="K116" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -9478,7 +9484,7 @@
         <v>136813</v>
       </c>
       <c r="K117" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -9515,7 +9521,7 @@
         <v>136813</v>
       </c>
       <c r="K118" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -9552,7 +9558,7 @@
         <v>136813</v>
       </c>
       <c r="K119" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -9589,7 +9595,7 @@
         <v>136813</v>
       </c>
       <c r="K120" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -9626,7 +9632,7 @@
         <v>136813</v>
       </c>
       <c r="K121" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -9663,7 +9669,7 @@
         <v>136813</v>
       </c>
       <c r="K122" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -9700,7 +9706,7 @@
         <v>136813</v>
       </c>
       <c r="K123" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -9737,7 +9743,7 @@
         <v>136813</v>
       </c>
       <c r="K124" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -9774,7 +9780,7 @@
         <v>136813</v>
       </c>
       <c r="K125" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -9811,7 +9817,7 @@
         <v>136813</v>
       </c>
       <c r="K126" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -12562,7 +12568,7 @@
         <v>136804</v>
       </c>
       <c r="K74" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -12599,7 +12605,7 @@
         <v>136804</v>
       </c>
       <c r="K75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -12636,7 +12642,7 @@
         <v>136804</v>
       </c>
       <c r="K76" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -12673,7 +12679,7 @@
         <v>136804</v>
       </c>
       <c r="K77" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -12710,7 +12716,7 @@
         <v>136804</v>
       </c>
       <c r="K78" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -12747,7 +12753,7 @@
         <v>136804</v>
       </c>
       <c r="K79" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -12784,7 +12790,7 @@
         <v>136804</v>
       </c>
       <c r="K80" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -12821,7 +12827,7 @@
         <v>136804</v>
       </c>
       <c r="K81" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -12858,7 +12864,7 @@
         <v>136804</v>
       </c>
       <c r="K82" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -12895,7 +12901,7 @@
         <v>136804</v>
       </c>
       <c r="K83" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -12932,7 +12938,7 @@
         <v>136804</v>
       </c>
       <c r="K84" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -12969,7 +12975,7 @@
         <v>136804</v>
       </c>
       <c r="K85" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -13006,7 +13012,7 @@
         <v>136804</v>
       </c>
       <c r="K86" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -13043,7 +13049,7 @@
         <v>136804</v>
       </c>
       <c r="K87" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -13080,7 +13086,7 @@
         <v>136804</v>
       </c>
       <c r="K88" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -13117,7 +13123,7 @@
         <v>136804</v>
       </c>
       <c r="K89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -13154,7 +13160,7 @@
         <v>136804</v>
       </c>
       <c r="K90" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -13191,7 +13197,7 @@
         <v>136804</v>
       </c>
       <c r="K91" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -13228,7 +13234,7 @@
         <v>136804</v>
       </c>
       <c r="K92" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -13265,7 +13271,7 @@
         <v>136804</v>
       </c>
       <c r="K93" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -13302,7 +13308,7 @@
         <v>136804</v>
       </c>
       <c r="K94" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -13339,7 +13345,7 @@
         <v>136804</v>
       </c>
       <c r="K95" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -13376,7 +13382,7 @@
         <v>136804</v>
       </c>
       <c r="K96" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -13413,7 +13419,7 @@
         <v>136804</v>
       </c>
       <c r="K97" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -13450,7 +13456,7 @@
         <v>136804</v>
       </c>
       <c r="K98" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -13487,7 +13493,7 @@
         <v>136804</v>
       </c>
       <c r="K99" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -13524,7 +13530,7 @@
         <v>136804</v>
       </c>
       <c r="K100" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -13561,7 +13567,7 @@
         <v>136804</v>
       </c>
       <c r="K101" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -13598,7 +13604,7 @@
         <v>136818</v>
       </c>
       <c r="K102" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -13635,7 +13641,7 @@
         <v>136818</v>
       </c>
       <c r="K103" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -13672,7 +13678,7 @@
         <v>136818</v>
       </c>
       <c r="K104" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -13709,7 +13715,7 @@
         <v>136818</v>
       </c>
       <c r="K105" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -13746,7 +13752,7 @@
         <v>136818</v>
       </c>
       <c r="K106" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -13783,7 +13789,7 @@
         <v>136818</v>
       </c>
       <c r="K107" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -13820,7 +13826,7 @@
         <v>136818</v>
       </c>
       <c r="K108" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -13857,7 +13863,7 @@
         <v>136818</v>
       </c>
       <c r="K109" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -13894,7 +13900,7 @@
         <v>136818</v>
       </c>
       <c r="K110" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -13931,7 +13937,7 @@
         <v>136818</v>
       </c>
       <c r="K111" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -13968,7 +13974,7 @@
         <v>136818</v>
       </c>
       <c r="K112" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -14005,7 +14011,7 @@
         <v>136818</v>
       </c>
       <c r="K113" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -14042,7 +14048,7 @@
         <v>136818</v>
       </c>
       <c r="K114" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -14079,7 +14085,7 @@
         <v>136818</v>
       </c>
       <c r="K115" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -14116,7 +14122,7 @@
         <v>136818</v>
       </c>
       <c r="K116" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -14153,7 +14159,7 @@
         <v>136818</v>
       </c>
       <c r="K117" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -14190,7 +14196,7 @@
         <v>136818</v>
       </c>
       <c r="K118" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -14227,7 +14233,7 @@
         <v>136818</v>
       </c>
       <c r="K119" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -14264,7 +14270,7 @@
         <v>136818</v>
       </c>
       <c r="K120" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -14301,7 +14307,7 @@
         <v>136818</v>
       </c>
       <c r="K121" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -14338,7 +14344,7 @@
         <v>136818</v>
       </c>
       <c r="K122" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -14375,7 +14381,7 @@
         <v>136818</v>
       </c>
       <c r="K123" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -14412,7 +14418,7 @@
         <v>136818</v>
       </c>
       <c r="K124" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -14449,7 +14455,7 @@
         <v>136818</v>
       </c>
       <c r="K125" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -14536,7 +14542,7 @@
         <v>183331</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -14573,7 +14579,7 @@
         <v>183331</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -14610,7 +14616,7 @@
         <v>183331</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -14647,7 +14653,7 @@
         <v>183331</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -14684,7 +14690,7 @@
         <v>183331</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -14721,7 +14727,7 @@
         <v>183331</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -14758,7 +14764,7 @@
         <v>183331</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -14795,7 +14801,7 @@
         <v>183331</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -14832,7 +14838,7 @@
         <v>183331</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -14869,7 +14875,7 @@
         <v>183331</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -14906,7 +14912,7 @@
         <v>183331</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -14943,7 +14949,7 @@
         <v>183331</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -14980,7 +14986,7 @@
         <v>183331</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -15017,7 +15023,7 @@
         <v>183331</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -15054,7 +15060,7 @@
         <v>183331</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -15091,7 +15097,7 @@
         <v>183331</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -15128,7 +15134,7 @@
         <v>183330</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -15165,7 +15171,7 @@
         <v>183330</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -15202,7 +15208,7 @@
         <v>183330</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -15239,7 +15245,7 @@
         <v>183330</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -15276,7 +15282,7 @@
         <v>183330</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -15313,7 +15319,7 @@
         <v>183330</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -15350,7 +15356,7 @@
         <v>183330</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -15387,7 +15393,7 @@
         <v>183330</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -15424,7 +15430,7 @@
         <v>183330</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -15461,7 +15467,7 @@
         <v>183330</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -15498,7 +15504,7 @@
         <v>183330</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -15535,7 +15541,7 @@
         <v>183330</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -15572,7 +15578,7 @@
         <v>183330</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -15609,7 +15615,7 @@
         <v>183330</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -15646,7 +15652,7 @@
         <v>183330</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -15683,7 +15689,7 @@
         <v>183330</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -15720,7 +15726,7 @@
         <v>183330</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -15757,7 +15763,7 @@
         <v>183330</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -15794,7 +15800,7 @@
         <v>183330</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -15831,7 +15837,7 @@
         <v>183330</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -15868,7 +15874,7 @@
         <v>183330</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -15905,7 +15911,7 @@
         <v>183330</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -15942,7 +15948,7 @@
         <v>183330</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -18508,7 +18514,7 @@
         <v>139301</v>
       </c>
       <c r="K52" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -18545,7 +18551,7 @@
         <v>139301</v>
       </c>
       <c r="K53" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -18582,7 +18588,7 @@
         <v>139301</v>
       </c>
       <c r="K54" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -18619,7 +18625,7 @@
         <v>139301</v>
       </c>
       <c r="K55" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -18656,7 +18662,7 @@
         <v>139301</v>
       </c>
       <c r="K56" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -18693,7 +18699,7 @@
         <v>139301</v>
       </c>
       <c r="K57" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -18730,7 +18736,7 @@
         <v>139301</v>
       </c>
       <c r="K58" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -18767,7 +18773,7 @@
         <v>139301</v>
       </c>
       <c r="K59" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -18804,7 +18810,7 @@
         <v>139301</v>
       </c>
       <c r="K60" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -18841,7 +18847,7 @@
         <v>139301</v>
       </c>
       <c r="K61" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -18878,7 +18884,7 @@
         <v>139301</v>
       </c>
       <c r="K62" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -18915,7 +18921,7 @@
         <v>139301</v>
       </c>
       <c r="K63" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -18952,7 +18958,7 @@
         <v>139301</v>
       </c>
       <c r="K64" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -18989,7 +18995,7 @@
         <v>139301</v>
       </c>
       <c r="K65" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -19026,7 +19032,7 @@
         <v>139301</v>
       </c>
       <c r="K66" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -19063,7 +19069,7 @@
         <v>139301</v>
       </c>
       <c r="K67" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -19100,7 +19106,7 @@
         <v>139301</v>
       </c>
       <c r="K68" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -19137,7 +19143,7 @@
         <v>139301</v>
       </c>
       <c r="K69" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -19174,7 +19180,7 @@
         <v>139301</v>
       </c>
       <c r="K70" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -19211,7 +19217,7 @@
         <v>139301</v>
       </c>
       <c r="K71" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -19248,7 +19254,7 @@
         <v>139301</v>
       </c>
       <c r="K72" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -19285,7 +19291,7 @@
         <v>139301</v>
       </c>
       <c r="K73" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -19322,7 +19328,7 @@
         <v>139301</v>
       </c>
       <c r="K74" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -19359,7 +19365,7 @@
         <v>139301</v>
       </c>
       <c r="K75" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -19396,7 +19402,7 @@
         <v>139301</v>
       </c>
       <c r="K76" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -19433,7 +19439,7 @@
         <v>139301</v>
       </c>
       <c r="K77" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -19470,7 +19476,7 @@
         <v>139301</v>
       </c>
       <c r="K78" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -19507,7 +19513,7 @@
         <v>139301</v>
       </c>
       <c r="K79" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -19544,7 +19550,7 @@
         <v>139301</v>
       </c>
       <c r="K80" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -19581,7 +19587,7 @@
         <v>139301</v>
       </c>
       <c r="K81" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -19618,7 +19624,7 @@
         <v>135745</v>
       </c>
       <c r="K82" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -19655,7 +19661,7 @@
         <v>135745</v>
       </c>
       <c r="K83" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -19692,7 +19698,7 @@
         <v>135745</v>
       </c>
       <c r="K84" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -19729,7 +19735,7 @@
         <v>135745</v>
       </c>
       <c r="K85" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -19766,7 +19772,7 @@
         <v>135745</v>
       </c>
       <c r="K86" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -19803,7 +19809,7 @@
         <v>135745</v>
       </c>
       <c r="K87" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -19840,7 +19846,7 @@
         <v>135745</v>
       </c>
       <c r="K88" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -19877,7 +19883,7 @@
         <v>135745</v>
       </c>
       <c r="K89" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -19914,7 +19920,7 @@
         <v>135745</v>
       </c>
       <c r="K90" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -19951,7 +19957,7 @@
         <v>135745</v>
       </c>
       <c r="K91" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -19988,7 +19994,7 @@
         <v>135745</v>
       </c>
       <c r="K92" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -20025,7 +20031,7 @@
         <v>135745</v>
       </c>
       <c r="K93" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -23319,8 +23325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6006933B-F91F-4119-B5D7-9BBDBDC17FE2}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34:K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23394,7 +23400,7 @@
         <v>180120</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -23431,7 +23437,7 @@
         <v>180120</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -23468,7 +23474,7 @@
         <v>180120</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -23505,7 +23511,7 @@
         <v>180120</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -23542,7 +23548,7 @@
         <v>180120</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -23579,7 +23585,7 @@
         <v>180120</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -23616,7 +23622,7 @@
         <v>180120</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -23653,7 +23659,7 @@
         <v>180120</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -23690,7 +23696,7 @@
         <v>180120</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -23727,7 +23733,7 @@
         <v>180120</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -23764,7 +23770,7 @@
         <v>180120</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -23801,7 +23807,7 @@
         <v>180120</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -23838,7 +23844,7 @@
         <v>180120</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -23875,7 +23881,7 @@
         <v>180120</v>
       </c>
       <c r="K15" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -23912,7 +23918,7 @@
         <v>180120</v>
       </c>
       <c r="K16" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -23949,7 +23955,7 @@
         <v>180120</v>
       </c>
       <c r="K17" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -23986,7 +23992,7 @@
         <v>180120</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -24023,7 +24029,7 @@
         <v>180120</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -24060,7 +24066,7 @@
         <v>180120</v>
       </c>
       <c r="K20" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -24097,7 +24103,7 @@
         <v>180120</v>
       </c>
       <c r="K21" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -24134,7 +24140,7 @@
         <v>180120</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -24171,7 +24177,7 @@
         <v>180120</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -24208,7 +24214,7 @@
         <v>180120</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -24245,7 +24251,7 @@
         <v>180120</v>
       </c>
       <c r="K25" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -24282,7 +24288,7 @@
         <v>180120</v>
       </c>
       <c r="K26" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -24319,7 +24325,7 @@
         <v>180120</v>
       </c>
       <c r="K27" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -24356,7 +24362,7 @@
         <v>180120</v>
       </c>
       <c r="K28" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -24393,7 +24399,7 @@
         <v>180120</v>
       </c>
       <c r="K29" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -24430,7 +24436,7 @@
         <v>180120</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -24467,7 +24473,7 @@
         <v>180120</v>
       </c>
       <c r="K31" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -24504,7 +24510,7 @@
         <v>180120</v>
       </c>
       <c r="K32" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -24541,7 +24547,7 @@
         <v>180120</v>
       </c>
       <c r="K33" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -24578,7 +24584,7 @@
         <v>180127</v>
       </c>
       <c r="K34" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -24615,7 +24621,7 @@
         <v>180127</v>
       </c>
       <c r="K35" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -24652,7 +24658,7 @@
         <v>180127</v>
       </c>
       <c r="K36" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -24689,7 +24695,7 @@
         <v>180127</v>
       </c>
       <c r="K37" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -24726,7 +24732,7 @@
         <v>180127</v>
       </c>
       <c r="K38" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -24763,7 +24769,7 @@
         <v>180127</v>
       </c>
       <c r="K39" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -24800,7 +24806,7 @@
         <v>180127</v>
       </c>
       <c r="K40" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -24837,7 +24843,7 @@
         <v>180127</v>
       </c>
       <c r="K41" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -24874,7 +24880,7 @@
         <v>180127</v>
       </c>
       <c r="K42" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -24911,7 +24917,7 @@
         <v>180127</v>
       </c>
       <c r="K43" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -24948,7 +24954,7 @@
         <v>180127</v>
       </c>
       <c r="K44" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -24985,7 +24991,7 @@
         <v>180127</v>
       </c>
       <c r="K45" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -25022,7 +25028,7 @@
         <v>180127</v>
       </c>
       <c r="K46" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -25059,7 +25065,7 @@
         <v>180127</v>
       </c>
       <c r="K47" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -25096,7 +25102,7 @@
         <v>180127</v>
       </c>
       <c r="K48" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -25183,7 +25189,7 @@
         <v>184189</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -25220,7 +25226,7 @@
         <v>184189</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -25257,7 +25263,7 @@
         <v>184189</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -25294,7 +25300,7 @@
         <v>184189</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -25331,7 +25337,7 @@
         <v>184189</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -25368,7 +25374,7 @@
         <v>184189</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -25405,7 +25411,7 @@
         <v>184189</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -25442,7 +25448,7 @@
         <v>184189</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -25479,7 +25485,7 @@
         <v>184189</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -25516,7 +25522,7 @@
         <v>184189</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -25553,7 +25559,7 @@
         <v>184189</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -25590,7 +25596,7 @@
         <v>184189</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -25627,7 +25633,7 @@
         <v>184189</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -25664,7 +25670,7 @@
         <v>184189</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -25701,7 +25707,7 @@
         <v>184189</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -25738,7 +25744,7 @@
         <v>184189</v>
       </c>
       <c r="K17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -25775,7 +25781,7 @@
         <v>184189</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -25812,7 +25818,7 @@
         <v>184189</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -25849,7 +25855,7 @@
         <v>184189</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -25886,7 +25892,7 @@
         <v>184189</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -25923,7 +25929,7 @@
         <v>184189</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -25960,7 +25966,7 @@
         <v>184189</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -25997,7 +26003,7 @@
         <v>184189</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -26034,7 +26040,7 @@
         <v>184189</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -26071,7 +26077,7 @@
         <v>184189</v>
       </c>
       <c r="K26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -26108,7 +26114,7 @@
         <v>184189</v>
       </c>
       <c r="K27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -26145,7 +26151,7 @@
         <v>184189</v>
       </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -26232,7 +26238,7 @@
         <v>138978</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -26269,7 +26275,7 @@
         <v>138978</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -26306,7 +26312,7 @@
         <v>138978</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -26343,7 +26349,7 @@
         <v>138978</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -26380,7 +26386,7 @@
         <v>138978</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -26417,7 +26423,7 @@
         <v>138978</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -26454,7 +26460,7 @@
         <v>138978</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -26491,7 +26497,7 @@
         <v>138978</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -26528,7 +26534,7 @@
         <v>138978</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -26565,7 +26571,7 @@
         <v>138978</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -26602,7 +26608,7 @@
         <v>138978</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -26639,7 +26645,7 @@
         <v>138978</v>
       </c>
       <c r="K13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -26676,7 +26682,7 @@
         <v>138978</v>
       </c>
       <c r="K14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -26713,7 +26719,7 @@
         <v>138978</v>
       </c>
       <c r="K15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -26750,7 +26756,7 @@
         <v>138978</v>
       </c>
       <c r="K16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -26787,7 +26793,7 @@
         <v>138978</v>
       </c>
       <c r="K17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -26824,7 +26830,7 @@
         <v>138978</v>
       </c>
       <c r="K18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -26861,7 +26867,7 @@
         <v>138978</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -26898,7 +26904,7 @@
         <v>138978</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -26935,7 +26941,7 @@
         <v>138978</v>
       </c>
       <c r="K21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -26972,7 +26978,7 @@
         <v>138978</v>
       </c>
       <c r="K22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -27009,7 +27015,7 @@
         <v>138978</v>
       </c>
       <c r="K23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -27046,7 +27052,7 @@
         <v>138978</v>
       </c>
       <c r="K24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -27083,7 +27089,7 @@
         <v>138978</v>
       </c>
       <c r="K25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -27120,7 +27126,7 @@
         <v>138978</v>
       </c>
       <c r="K26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -27157,7 +27163,7 @@
         <v>138978</v>
       </c>
       <c r="K27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -27194,7 +27200,7 @@
         <v>138978</v>
       </c>
       <c r="K28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -27231,7 +27237,7 @@
         <v>138978</v>
       </c>
       <c r="K29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -27268,7 +27274,7 @@
         <v>138978</v>
       </c>
       <c r="K30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -27305,7 +27311,7 @@
         <v>138978</v>
       </c>
       <c r="K31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -27342,7 +27348,7 @@
         <v>138978</v>
       </c>
       <c r="K32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -27379,7 +27385,7 @@
         <v>138978</v>
       </c>
       <c r="K33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -27416,7 +27422,7 @@
         <v>138978</v>
       </c>
       <c r="K34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -27453,7 +27459,7 @@
         <v>138978</v>
       </c>
       <c r="K35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -27490,7 +27496,7 @@
         <v>138978</v>
       </c>
       <c r="K36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -27527,7 +27533,7 @@
         <v>138978</v>
       </c>
       <c r="K37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -27564,7 +27570,7 @@
         <v>138978</v>
       </c>
       <c r="K38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -27601,7 +27607,7 @@
         <v>138978</v>
       </c>
       <c r="K39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -27638,7 +27644,7 @@
         <v>138979</v>
       </c>
       <c r="K40" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -27675,7 +27681,7 @@
         <v>138979</v>
       </c>
       <c r="K41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -27712,7 +27718,7 @@
         <v>138979</v>
       </c>
       <c r="K42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -27749,7 +27755,7 @@
         <v>138979</v>
       </c>
       <c r="K43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -27786,7 +27792,7 @@
         <v>138979</v>
       </c>
       <c r="K44" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -27823,7 +27829,7 @@
         <v>138979</v>
       </c>
       <c r="K45" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -27860,7 +27866,7 @@
         <v>138979</v>
       </c>
       <c r="K46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -27897,7 +27903,7 @@
         <v>138979</v>
       </c>
       <c r="K47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -27934,7 +27940,7 @@
         <v>138979</v>
       </c>
       <c r="K48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -27971,7 +27977,7 @@
         <v>138979</v>
       </c>
       <c r="K49" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -28008,7 +28014,7 @@
         <v>138979</v>
       </c>
       <c r="K50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -28045,7 +28051,7 @@
         <v>138979</v>
       </c>
       <c r="K51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -28082,7 +28088,7 @@
         <v>138979</v>
       </c>
       <c r="K52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -28119,7 +28125,7 @@
         <v>138979</v>
       </c>
       <c r="K53" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -28156,7 +28162,7 @@
         <v>138979</v>
       </c>
       <c r="K54" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -28193,7 +28199,7 @@
         <v>138979</v>
       </c>
       <c r="K55" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -28230,7 +28236,7 @@
         <v>138979</v>
       </c>
       <c r="K56" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -28267,7 +28273,7 @@
         <v>138979</v>
       </c>
       <c r="K57" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -28304,7 +28310,7 @@
         <v>138979</v>
       </c>
       <c r="K58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -28341,7 +28347,7 @@
         <v>138979</v>
       </c>
       <c r="K59" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -28378,7 +28384,7 @@
         <v>138979</v>
       </c>
       <c r="K60" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -28415,7 +28421,7 @@
         <v>138979</v>
       </c>
       <c r="K61" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -28452,7 +28458,7 @@
         <v>138979</v>
       </c>
       <c r="K62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -28488,7 +28494,7 @@
         <v>138979</v>
       </c>
       <c r="K63" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -28525,7 +28531,7 @@
         <v>138979</v>
       </c>
       <c r="K64" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -28562,7 +28568,7 @@
         <v>138979</v>
       </c>
       <c r="K65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -28599,7 +28605,7 @@
         <v>138979</v>
       </c>
       <c r="K66" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -28636,7 +28642,7 @@
         <v>138979</v>
       </c>
       <c r="K67" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -28673,7 +28679,7 @@
         <v>150772</v>
       </c>
       <c r="K68" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -28710,7 +28716,7 @@
         <v>150772</v>
       </c>
       <c r="K69" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -28747,7 +28753,7 @@
         <v>150772</v>
       </c>
       <c r="K70" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -28784,7 +28790,7 @@
         <v>150772</v>
       </c>
       <c r="K71" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -28821,7 +28827,7 @@
         <v>150772</v>
       </c>
       <c r="K72" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -28858,7 +28864,7 @@
         <v>150772</v>
       </c>
       <c r="K73" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -28895,7 +28901,7 @@
         <v>150772</v>
       </c>
       <c r="K74" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -28932,7 +28938,7 @@
         <v>150772</v>
       </c>
       <c r="K75" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -28969,7 +28975,7 @@
         <v>150772</v>
       </c>
       <c r="K76" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -29006,7 +29012,7 @@
         <v>150772</v>
       </c>
       <c r="K77" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -29043,7 +29049,7 @@
         <v>150772</v>
       </c>
       <c r="K78" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -29080,7 +29086,7 @@
         <v>150772</v>
       </c>
       <c r="K79" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -29117,7 +29123,7 @@
         <v>150772</v>
       </c>
       <c r="K80" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -29154,7 +29160,7 @@
         <v>150772</v>
       </c>
       <c r="K81" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -29191,7 +29197,7 @@
         <v>150772</v>
       </c>
       <c r="K82" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -29228,7 +29234,7 @@
         <v>150772</v>
       </c>
       <c r="K83" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -29265,7 +29271,7 @@
         <v>150772</v>
       </c>
       <c r="K84" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -29302,7 +29308,7 @@
         <v>150772</v>
       </c>
       <c r="K85" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -29339,7 +29345,7 @@
         <v>150772</v>
       </c>
       <c r="K86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -29376,7 +29382,7 @@
         <v>150772</v>
       </c>
       <c r="K87" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -29413,7 +29419,7 @@
         <v>150772</v>
       </c>
       <c r="K88" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -29450,7 +29456,7 @@
         <v>150772</v>
       </c>
       <c r="K89" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -29487,7 +29493,7 @@
         <v>150772</v>
       </c>
       <c r="K90" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -29524,7 +29530,7 @@
         <v>150772</v>
       </c>
       <c r="K91" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -29561,7 +29567,7 @@
         <v>150772</v>
       </c>
       <c r="K92" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -29598,7 +29604,7 @@
         <v>150772</v>
       </c>
       <c r="K93" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -29635,7 +29641,7 @@
         <v>138969</v>
       </c>
       <c r="K94" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -29672,7 +29678,7 @@
         <v>138969</v>
       </c>
       <c r="K95" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -29709,7 +29715,7 @@
         <v>138969</v>
       </c>
       <c r="K96" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -29746,7 +29752,7 @@
         <v>138969</v>
       </c>
       <c r="K97" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -29783,7 +29789,7 @@
         <v>138969</v>
       </c>
       <c r="K98" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -29820,7 +29826,7 @@
         <v>138969</v>
       </c>
       <c r="K99" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -29857,7 +29863,7 @@
         <v>138969</v>
       </c>
       <c r="K100" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -29894,7 +29900,7 @@
         <v>138969</v>
       </c>
       <c r="K101" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -29931,7 +29937,7 @@
         <v>138969</v>
       </c>
       <c r="K102" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -29968,7 +29974,7 @@
         <v>138969</v>
       </c>
       <c r="K103" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -30005,7 +30011,7 @@
         <v>138969</v>
       </c>
       <c r="K104" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -30042,7 +30048,7 @@
         <v>138969</v>
       </c>
       <c r="K105" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -30079,7 +30085,7 @@
         <v>138969</v>
       </c>
       <c r="K106" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -30116,7 +30122,7 @@
         <v>138969</v>
       </c>
       <c r="K107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -30153,7 +30159,7 @@
         <v>138969</v>
       </c>
       <c r="K108" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -30190,7 +30196,7 @@
         <v>138969</v>
       </c>
       <c r="K109" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -30227,7 +30233,7 @@
         <v>138969</v>
       </c>
       <c r="K110" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -30264,7 +30270,7 @@
         <v>138969</v>
       </c>
       <c r="K111" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -30301,7 +30307,7 @@
         <v>138969</v>
       </c>
       <c r="K112" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -30338,7 +30344,7 @@
         <v>138969</v>
       </c>
       <c r="K113" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -30375,7 +30381,7 @@
         <v>138969</v>
       </c>
       <c r="K114" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -30412,7 +30418,7 @@
         <v>138969</v>
       </c>
       <c r="K115" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -30449,7 +30455,7 @@
         <v>138969</v>
       </c>
       <c r="K116" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -30486,7 +30492,7 @@
         <v>138969</v>
       </c>
       <c r="K117" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -30523,7 +30529,7 @@
         <v>138969</v>
       </c>
       <c r="K118" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -30560,7 +30566,7 @@
         <v>138969</v>
       </c>
       <c r="K119" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -30597,7 +30603,7 @@
         <v>138969</v>
       </c>
       <c r="K120" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -30634,7 +30640,7 @@
         <v>138969</v>
       </c>
       <c r="K121" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -30671,7 +30677,7 @@
         <v>138969</v>
       </c>
       <c r="K122" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -30708,7 +30714,7 @@
         <v>138969</v>
       </c>
       <c r="K123" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -30745,7 +30751,7 @@
         <v>138969</v>
       </c>
       <c r="K124" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -30782,7 +30788,7 @@
         <v>138969</v>
       </c>
       <c r="K125" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -30869,7 +30875,7 @@
         <v>138930</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -30906,7 +30912,7 @@
         <v>138930</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -30943,7 +30949,7 @@
         <v>138930</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -30980,7 +30986,7 @@
         <v>138930</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -31017,7 +31023,7 @@
         <v>138930</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -31054,7 +31060,7 @@
         <v>138930</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -31091,7 +31097,7 @@
         <v>138930</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -31128,7 +31134,7 @@
         <v>138930</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -31165,7 +31171,7 @@
         <v>138930</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -31202,7 +31208,7 @@
         <v>138930</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -31239,7 +31245,7 @@
         <v>138930</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -31276,7 +31282,7 @@
         <v>138930</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -31313,7 +31319,7 @@
         <v>138930</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -31350,7 +31356,7 @@
         <v>138930</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -31387,7 +31393,7 @@
         <v>138930</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -31424,7 +31430,7 @@
         <v>138930</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -31461,7 +31467,7 @@
         <v>138930</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -31498,7 +31504,7 @@
         <v>138930</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -31535,7 +31541,7 @@
         <v>138930</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -31572,7 +31578,7 @@
         <v>138930</v>
       </c>
       <c r="K21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -31609,7 +31615,7 @@
         <v>138930</v>
       </c>
       <c r="K22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -31646,7 +31652,7 @@
         <v>138930</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -31683,7 +31689,7 @@
         <v>138930</v>
       </c>
       <c r="K24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -31720,7 +31726,7 @@
         <v>138930</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -31757,7 +31763,7 @@
         <v>138930</v>
       </c>
       <c r="K26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -31794,7 +31800,7 @@
         <v>138930</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -31831,7 +31837,7 @@
         <v>138930</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -31868,7 +31874,7 @@
         <v>138930</v>
       </c>
       <c r="K29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -31905,7 +31911,7 @@
         <v>138930</v>
       </c>
       <c r="K30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -31942,7 +31948,7 @@
         <v>138930</v>
       </c>
       <c r="K31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -31979,7 +31985,7 @@
         <v>138930</v>
       </c>
       <c r="K32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -32016,7 +32022,7 @@
         <v>138930</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -32053,7 +32059,7 @@
         <v>138930</v>
       </c>
       <c r="K34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -32090,7 +32096,7 @@
         <v>138930</v>
       </c>
       <c r="K35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -32127,7 +32133,7 @@
         <v>138930</v>
       </c>
       <c r="K36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -32164,7 +32170,7 @@
         <v>138930</v>
       </c>
       <c r="K37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -32201,7 +32207,7 @@
         <v>138930</v>
       </c>
       <c r="K38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -32238,7 +32244,7 @@
         <v>138930</v>
       </c>
       <c r="K39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -32275,7 +32281,7 @@
         <v>138930</v>
       </c>
       <c r="K40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -32312,7 +32318,7 @@
         <v>138930</v>
       </c>
       <c r="K41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -32349,7 +32355,7 @@
         <v>138930</v>
       </c>
       <c r="K42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -32386,7 +32392,7 @@
         <v>138930</v>
       </c>
       <c r="K43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -32423,7 +32429,7 @@
         <v>120834</v>
       </c>
       <c r="K44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -32460,7 +32466,7 @@
         <v>120834</v>
       </c>
       <c r="K45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -32497,7 +32503,7 @@
         <v>120834</v>
       </c>
       <c r="K46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -32534,7 +32540,7 @@
         <v>120834</v>
       </c>
       <c r="K47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -32571,7 +32577,7 @@
         <v>120834</v>
       </c>
       <c r="K48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -32608,7 +32614,7 @@
         <v>120834</v>
       </c>
       <c r="K49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -32645,7 +32651,7 @@
         <v>120834</v>
       </c>
       <c r="K50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -32682,7 +32688,7 @@
         <v>120834</v>
       </c>
       <c r="K51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -32719,7 +32725,7 @@
         <v>120834</v>
       </c>
       <c r="K52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -32756,7 +32762,7 @@
         <v>120834</v>
       </c>
       <c r="K53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -32793,7 +32799,7 @@
         <v>120834</v>
       </c>
       <c r="K54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -32830,7 +32836,7 @@
         <v>120834</v>
       </c>
       <c r="K55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -32867,7 +32873,7 @@
         <v>120834</v>
       </c>
       <c r="K56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -32904,7 +32910,7 @@
         <v>120834</v>
       </c>
       <c r="K57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -32941,7 +32947,7 @@
         <v>120834</v>
       </c>
       <c r="K58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -32978,7 +32984,7 @@
         <v>120834</v>
       </c>
       <c r="K59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -33015,7 +33021,7 @@
         <v>120834</v>
       </c>
       <c r="K60" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -33052,7 +33058,7 @@
         <v>120834</v>
       </c>
       <c r="K61" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -33089,7 +33095,7 @@
         <v>120834</v>
       </c>
       <c r="K62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -33126,7 +33132,7 @@
         <v>120834</v>
       </c>
       <c r="K63" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -33163,7 +33169,7 @@
         <v>120834</v>
       </c>
       <c r="K64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -33200,7 +33206,7 @@
         <v>120834</v>
       </c>
       <c r="K65" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -33237,7 +33243,7 @@
         <v>120834</v>
       </c>
       <c r="K66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -33274,7 +33280,7 @@
         <v>120834</v>
       </c>
       <c r="K67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -33311,7 +33317,7 @@
         <v>120834</v>
       </c>
       <c r="K68" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -33348,7 +33354,7 @@
         <v>120834</v>
       </c>
       <c r="K69" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
